--- a/Web scraping/Qhubo/Qhubo_total.xlsx
+++ b/Web scraping/Qhubo/Qhubo_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="379">
   <si>
     <t>Titulo</t>
   </si>
@@ -34,22 +34,97 @@
     <t>Pagina buscada</t>
   </si>
   <si>
-    <t>Le llegó el final a la red de ‘Los Calavera’</t>
-  </si>
-  <si>
-    <t>Pareja y tres cómplices: el terror de la ciclorruta</t>
+    <t>Mañana de pánico en Bosa Centro</t>
+  </si>
+  <si>
+    <t>Delincuentes acaban con James en atraco</t>
+  </si>
+  <si>
+    <t>En riña sentimental apuñalan a Lizbeth</t>
+  </si>
+  <si>
+    <t>Asesinado en un atraco callejero</t>
+  </si>
+  <si>
+    <t>Un muerto y un herido en intento de atraco</t>
+  </si>
+  <si>
+    <t>‘Chichi’, a responder por crimen de Diana</t>
+  </si>
+  <si>
+    <t>Habrá ley seca en 3 barrios de Kennedy</t>
+  </si>
+  <si>
+    <t>Casa por cárcel a atracadores de ciclas</t>
+  </si>
+  <si>
+    <t>Mortal accidente de María Susana</t>
+  </si>
+  <si>
+    <t>Hurtos en Suba, el pan de cada día</t>
+  </si>
+  <si>
+    <t>A la cárcel acusado de doble homicidio</t>
+  </si>
+  <si>
+    <t>A Carlos le pusieron cita para matarlo</t>
+  </si>
+  <si>
+    <t>Fatídica mañana para Christ</t>
+  </si>
+  <si>
+    <t>Dolor en Engativá por el vigilante Pérez</t>
+  </si>
+  <si>
+    <t>Lluvia de bala en el parque enrejado</t>
+  </si>
+  <si>
+    <t>cae camillero que vendía vicio en un hospital</t>
+  </si>
+  <si>
+    <t>Polémica por rumba hasta las 5 a.m.</t>
+  </si>
+  <si>
+    <t>Policía y extorsionista, condenado a 4 años</t>
+  </si>
+  <si>
+    <t>El más y el menos querido de la tricolor</t>
+  </si>
+  <si>
+    <t>ALEJANDRA SALIÓ BIEN DEL QUIRÓFANO</t>
+  </si>
+  <si>
+    <t>Colombia está en ‘modo papa’</t>
+  </si>
+  <si>
+    <t>Homicidio a manos de menor de edad</t>
+  </si>
+  <si>
+    <t>Crimen de Jonathan por la vil intolerancia</t>
   </si>
   <si>
     <t>Sembraban el miedo en La Estancia</t>
   </si>
   <si>
-    <t>Habrá ley seca en 3 barrios de Kennedy</t>
-  </si>
-  <si>
-    <t>Polémica por rumba hasta las 5 a.m.</t>
-  </si>
-  <si>
-    <t>‘Los Chinches’ delinquían en familia</t>
+    <t>“Son justos los 29 años, quedo tranquila”</t>
+  </si>
+  <si>
+    <t>A la cárcel por el asesinato de Mario</t>
+  </si>
+  <si>
+    <t>Compró un cuchillo para matar a su amigo</t>
+  </si>
+  <si>
+    <t>Sepultados en una tumba de concreto</t>
+  </si>
+  <si>
+    <t>Rodrigo fue baleado en su carro</t>
+  </si>
+  <si>
+    <t>35 años de cárcel por quemar a su amigo</t>
+  </si>
+  <si>
+    <t>Dos balazos a Mario F. en el parque</t>
   </si>
   <si>
     <t>Bala a mecánico en su local</t>
@@ -58,190 +133,502 @@
     <t>Era el proveedor de armas para el crimen</t>
   </si>
   <si>
-    <t>¡Quieren vetar a Paquita la del barrio!</t>
-  </si>
-  <si>
-    <t>Muerte a comerciante en su carro</t>
-  </si>
-  <si>
-    <t>Extraña muerte en el andén</t>
-  </si>
-  <si>
-    <t>Investigan muerte de mujer tras cirugía</t>
-  </si>
-  <si>
-    <t>Extraña muerte de bebé en Soacha</t>
-  </si>
-  <si>
-    <t>Luto en Suba por muerte de niño en accidente</t>
-  </si>
-  <si>
-    <t>La fiesta acabó con la muerte de Fredy</t>
-  </si>
-  <si>
-    <t>Extraño final tras muerte de su esposa</t>
-  </si>
-  <si>
-    <t>La muerte le ganó la batalla a Álvaro</t>
-  </si>
-  <si>
-    <t>Búsqueda de Víctor concluye en muerte</t>
-  </si>
-  <si>
-    <t>Luto en Bosa por muerte de Ramón</t>
-  </si>
-  <si>
-    <t>Misteriosa muerte en el hotel</t>
-  </si>
-  <si>
-    <t>Enigma en la muerte de Johanna Marcela</t>
-  </si>
-  <si>
-    <t>La fiesta acabó con la muerte de Kevin</t>
-  </si>
-  <si>
-    <t>Discusión, imprudencia y muerte en la autonorte</t>
-  </si>
-  <si>
-    <t>“Estuve a su voluntad hasta el día de su muerte”</t>
-  </si>
-  <si>
-    <t>Extraña muerte de Lizeth en Kennedy</t>
-  </si>
-  <si>
-    <t>La muerte empacada en una maleta</t>
-  </si>
-  <si>
-    <t>Se encontró con la muerte en un callejón</t>
-  </si>
-  <si>
-    <t>Bala y muerte de estilista</t>
-  </si>
-  <si>
-    <t>Inexplicable muerte de Mónica en su casa</t>
-  </si>
-  <si>
-    <t>García y Suárez, entre la vida y la muerte</t>
-  </si>
-  <si>
-    <t>Extraña muerte de Julián en el CAI</t>
-  </si>
-  <si>
-    <t>Le tendió la mano y le pagó con muerte</t>
-  </si>
-  <si>
-    <t>“Mi expareja me amenazó de muerte”</t>
-  </si>
-  <si>
-    <t>5 de marzo de 2019</t>
-  </si>
-  <si>
-    <t>1 de marzo de 2019</t>
+    <t>Capturan a dos malandros en balacera</t>
+  </si>
+  <si>
+    <t>Atraco fatal en el asadero</t>
+  </si>
+  <si>
+    <t>Atraco mortal en la orilla del río</t>
+  </si>
+  <si>
+    <t>Deportista asesinado por robarle la ‘ bici’</t>
+  </si>
+  <si>
+    <t>Cayeron ‘Los llaveros’, la banda que tenía azotado San Victorino</t>
+  </si>
+  <si>
+    <t>vándalos colapsaron Bogotá</t>
+  </si>
+  <si>
+    <t>Que los ladrones no hagan fiesta con su prima</t>
+  </si>
+  <si>
+    <t>Exceso de velocidad acaba con Jhon</t>
+  </si>
+  <si>
+    <t>Crimen de Fabián frente a su novia</t>
+  </si>
+  <si>
+    <t>Investigador de la Sijín, señalado de extorsión</t>
+  </si>
+  <si>
+    <t>El sargento que ahora vende tintos</t>
+  </si>
+  <si>
+    <t>En el día de los disfraces, cuide el doble a su hijo</t>
+  </si>
+  <si>
+    <t>Escándalo sexual de curas colombianos</t>
+  </si>
+  <si>
+    <t>Ritual de limpieza acaba en abuso sexual</t>
+  </si>
+  <si>
+    <t>“Estoy secuestrado en mi propia casa”</t>
+  </si>
+  <si>
+    <t>De una puñalada asesinan a Wilfrido</t>
+  </si>
+  <si>
+    <t>Sombra, el can que desvela a ‘Otoniel’</t>
+  </si>
+  <si>
+    <t>Dejó todo por la comedia</t>
+  </si>
+  <si>
+    <t>Hermanos Estepa, heridos en confusos hechos</t>
+  </si>
+  <si>
+    <t>‘Muerte gris’, la droga que encendió alarmas</t>
+  </si>
+  <si>
+    <t>Perversión con su nieta lo mandó a la cárcel</t>
+  </si>
+  <si>
+    <t>‘Don Mario’, en manos de los gringos</t>
+  </si>
+  <si>
+    <t>Orgullosos de este Bombero</t>
+  </si>
+  <si>
+    <t>DESNUDAS CONTRA TRUMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘RAFA’, MÁS ALLÁ DE UN GALÁN </t>
+  </si>
+  <si>
+    <t>Transformó su vida para ayudar a otros</t>
+  </si>
+  <si>
+    <t>Misterio tras hallazgo en la quebrada</t>
+  </si>
+  <si>
+    <t>Extraño crimen en montaña del sur</t>
+  </si>
+  <si>
+    <t>Mataron a Óscar por 100 mil pesos</t>
+  </si>
+  <si>
+    <t>Ramón Isaza, exjefe paramilitar, está en libertad</t>
+  </si>
+  <si>
+    <t>Un barrista, acusado de matar a Luisa</t>
+  </si>
+  <si>
+    <t>Puñal en Suba a Jhon Emanuel</t>
+  </si>
+  <si>
+    <t>El duelo por el honor y la historia</t>
+  </si>
+  <si>
+    <t>Tres disparos a Harold desde la puerta</t>
+  </si>
+  <si>
+    <t>Puñalada letal en pelea de gallos</t>
+  </si>
+  <si>
+    <t>Alemán vino por una mujer y se enamoró del arte local</t>
+  </si>
+  <si>
+    <t>La italiana que enamoró a Medrano</t>
+  </si>
+  <si>
+    <t>‘El Gato’ Baptista aún corre peligro</t>
+  </si>
+  <si>
+    <t>Matan a comerciante con silenciador</t>
+  </si>
+  <si>
+    <t>La tusa por Sara y Guarín los unió</t>
+  </si>
+  <si>
+    <t>Un show para toda la familia</t>
+  </si>
+  <si>
+    <t>Danielle cautivó con su baile</t>
+  </si>
+  <si>
+    <t>Carmenza, una abuela joven y talentosa</t>
+  </si>
+  <si>
+    <t>AUTOMOVILISMO, TATIANA CIERRA SU TEMPORADA</t>
+  </si>
+  <si>
+    <t>El bogotano que tatuó a Kate del Castillo</t>
+  </si>
+  <si>
+    <t>Una dura para correr y pedalear</t>
+  </si>
+  <si>
+    <t>Dolor en San Cristóbal por Fernando, gran obrero</t>
+  </si>
+  <si>
+    <t>Hugo, el inventor del futuro</t>
+  </si>
+  <si>
+    <t>Es una actriz al estilo Hollywood</t>
+  </si>
+  <si>
+    <t>En suba entona sus mejores canciones</t>
+  </si>
+  <si>
+    <t>Candelaria, mujer entregada al servicio</t>
+  </si>
+  <si>
+    <t>El ‘micro’ le salvó la vida a Brayan</t>
+  </si>
+  <si>
+    <t>Talento de sobra es lo que tiene Carlitos</t>
+  </si>
+  <si>
+    <t>Edwin, el ‘León’ que es peluquero</t>
+  </si>
+  <si>
+    <t>Descarga eléctrica en jornada laboral</t>
+  </si>
+  <si>
+    <t>Un angelito que no soportó las quemaduras</t>
+  </si>
+  <si>
+    <t>Villarreal, el mundialista sin equipo</t>
+  </si>
+  <si>
+    <t>Talento colombiano junto a Nicolas Cage</t>
+  </si>
+  <si>
+    <t>‘‘Por amor se cometen locuras’’</t>
+  </si>
+  <si>
+    <t>14 de diciembre de 2018</t>
+  </si>
+  <si>
+    <t>11 de diciembre de 2018</t>
+  </si>
+  <si>
+    <t>10 de diciembre de 2018</t>
+  </si>
+  <si>
+    <t>16 de noviembre de 2018</t>
+  </si>
+  <si>
+    <t>17 de octubre de 2018</t>
+  </si>
+  <si>
+    <t>4 de octubre de 2018</t>
+  </si>
+  <si>
+    <t>28 de septiembre de 2018</t>
+  </si>
+  <si>
+    <t>20 de septiembre de 2018</t>
+  </si>
+  <si>
+    <t>18 de septiembre de 2018</t>
+  </si>
+  <si>
+    <t>6 de septiembre de 2018</t>
+  </si>
+  <si>
+    <t>15 de agosto de 2018</t>
+  </si>
+  <si>
+    <t>9 de agosto de 2018</t>
+  </si>
+  <si>
+    <t>1 de agosto de 2018</t>
+  </si>
+  <si>
+    <t>27 de julio de 2018</t>
+  </si>
+  <si>
+    <t>19 de julio de 2018</t>
+  </si>
+  <si>
+    <t>18 de julio de 2018</t>
+  </si>
+  <si>
+    <t>6 de junio de 2018</t>
+  </si>
+  <si>
+    <t>4 de diciembre de 2017</t>
+  </si>
+  <si>
+    <t>6 de septiembre de 2017</t>
+  </si>
+  <si>
+    <t>23 de julio de 2018</t>
+  </si>
+  <si>
+    <t>26 de noviembre de 2018</t>
   </si>
   <si>
     <t>14 de noviembre de 2018</t>
   </si>
   <si>
-    <t>4 de octubre de 2018</t>
-  </si>
-  <si>
-    <t>19 de julio de 2018</t>
-  </si>
-  <si>
-    <t>6 de junio de 2018</t>
+    <t>9 de noviembre de 2018</t>
+  </si>
+  <si>
+    <t>24 de octubre de 2018</t>
+  </si>
+  <si>
+    <t>16 de octubre de 2018</t>
+  </si>
+  <si>
+    <t>26 de septiembre de 2018</t>
+  </si>
+  <si>
+    <t>25 de julio de 2018</t>
+  </si>
+  <si>
+    <t>10 de julio de 2018</t>
   </si>
   <si>
     <t>27 de abril de 2018</t>
   </si>
   <si>
-    <t>6 de marzo de 2017</t>
-  </si>
-  <si>
-    <t>24 de julio de 2019</t>
-  </si>
-  <si>
-    <t>11 de marzo de 2019</t>
-  </si>
-  <si>
-    <t>20 de febrero de 2019</t>
-  </si>
-  <si>
-    <t>15 de febrero de 2019</t>
-  </si>
-  <si>
-    <t>13 de febrero de 2019</t>
-  </si>
-  <si>
-    <t>28 de enero de 2019</t>
-  </si>
-  <si>
-    <t>25 de enero de 2019</t>
-  </si>
-  <si>
-    <t>8 de enero de 2019</t>
-  </si>
-  <si>
-    <t>30 de diciembre de 2018</t>
-  </si>
-  <si>
-    <t>21 de diciembre de 2018</t>
-  </si>
-  <si>
-    <t>27 de noviembre de 2018</t>
-  </si>
-  <si>
-    <t>26 de noviembre de 2018</t>
-  </si>
-  <si>
-    <t>13 de noviembre de 2018</t>
-  </si>
-  <si>
-    <t>8 de noviembre de 2018</t>
-  </si>
-  <si>
-    <t>6 de noviembre de 2018</t>
-  </si>
-  <si>
-    <t>2 de noviembre de 2018</t>
-  </si>
-  <si>
-    <t>18 de octubre de 2018</t>
-  </si>
-  <si>
-    <t>25 de septiembre de 2018</t>
-  </si>
-  <si>
-    <t>17 de septiembre de 2018</t>
-  </si>
-  <si>
-    <t>14 de septiembre de 2018</t>
+    <t>5 de diciembre de 2018</t>
+  </si>
+  <si>
+    <t>9 de octubre de 2018</t>
+  </si>
+  <si>
+    <t>11 de septiembre de 2018</t>
+  </si>
+  <si>
+    <t>21 de agosto de 2018</t>
+  </si>
+  <si>
+    <t>17 de mayo de 2018</t>
+  </si>
+  <si>
+    <t>17 de diciembre de 2018</t>
+  </si>
+  <si>
+    <t>29 de noviembre de 2018</t>
+  </si>
+  <si>
+    <t>19 de noviembre de 2018</t>
+  </si>
+  <si>
+    <t>15 de noviembre de 2018</t>
+  </si>
+  <si>
+    <t>31 de octubre de 2018</t>
+  </si>
+  <si>
+    <t>29 de agosto de 2018</t>
+  </si>
+  <si>
+    <t>17 de agosto de 2018</t>
+  </si>
+  <si>
+    <t>31 de julio de 2018</t>
+  </si>
+  <si>
+    <t>4 de julio de 2018</t>
+  </si>
+  <si>
+    <t>14 de junio de 2018</t>
+  </si>
+  <si>
+    <t>1 de junio de 2018</t>
+  </si>
+  <si>
+    <t>24 de abril de 2018</t>
+  </si>
+  <si>
+    <t>25 de agosto de 2017</t>
+  </si>
+  <si>
+    <t>19 de julio de 2016</t>
+  </si>
+  <si>
+    <t>4 de mayo de 2016</t>
+  </si>
+  <si>
+    <t>13 de septiembre de 2018</t>
+  </si>
+  <si>
+    <t>12 de junio de 2018</t>
+  </si>
+  <si>
+    <t>19 de diciembre de 2018</t>
+  </si>
+  <si>
+    <t>20 de junio de 2018</t>
+  </si>
+  <si>
+    <t>4 de febrero de 2016</t>
+  </si>
+  <si>
+    <t>3 de agosto de 2018</t>
+  </si>
+  <si>
+    <t>31 de agosto de 2018</t>
+  </si>
+  <si>
+    <t>9 de julio de 2018</t>
+  </si>
+  <si>
+    <t>23 de noviembre de 2018</t>
+  </si>
+  <si>
+    <t>30 de mayo de 2017</t>
+  </si>
+  <si>
+    <t>25 de abril de 2017</t>
+  </si>
+  <si>
+    <t>12 de diciembre de 2018</t>
+  </si>
+  <si>
+    <t>17 de julio de 2018</t>
+  </si>
+  <si>
+    <t>20 de diciembre de 2016</t>
+  </si>
+  <si>
+    <t>25 de noviembre de 2016</t>
+  </si>
+  <si>
+    <t>28 de agosto de 2018</t>
+  </si>
+  <si>
+    <t>7 de diciembre de 2018</t>
+  </si>
+  <si>
+    <t>28 de noviembre de 2018</t>
+  </si>
+  <si>
+    <t>29 de octubre de 2018</t>
+  </si>
+  <si>
+    <t>22 de octubre de 2018</t>
+  </si>
+  <si>
+    <t>19 de octubre de 2018</t>
   </si>
   <si>
     <t>10 de septiembre de 2018</t>
   </si>
   <si>
-    <t>29 de agosto de 2018</t>
-  </si>
-  <si>
-    <t>21 de agosto de 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El terror que engendró la organización delictiva ‘los Calavera’ entre los residentes de los barrios Britalia, Class Roma, Rubí, Zarzamora, Roma y Carmelo (en Kennedy) permitió que pudieran operar a sus anchas en toda la localidad sin ser denunciados ni capturados en los últimos diez años. Sin embargo, la guachafita de alias ‘Calavera’, líder de esta banda, y de sus jíbaros llegó a su fin en los últimos días, cuando las autoridades lograron capturarlo a él y a sus nueve integrantes, quienes permanecían al interior de las tres viviendas allanadas que les pertenecían. ‘Los Calavera’ habían monopolizado la red de venta de estupefacientes en 20 barrios del sur de la capital y tenían dominado todo Kennedy, sector en el que se encontraban situados los tres expendios de droga conocidos por los consumidores. “Estos sujetos tenían pintadas las casas desde donde distribuían la droga y vendían para que sus clientes las reconocieran fácilmente. Los consumidores llegaban a pedir las dosis y si eran de confianza los dejaban entrar, o de lo contrario los atendían por las puertas”, aseguró el coronel Douglas Restrepo, comandante de la Sijin de Bogotá. Además de tener el control de la venta de alucinógenos, el líder de ‘los Calavera’ es acusado de diez homicidios, incluyendo el asesinato de dos menores entre los 12 y los 15 años, según informó la Policía. La investigación. Durante los últimos ocho meses, un agente encubierto de la Policía se filtró en este sector haciéndose pasar por consumidor para ganarse la confianza de los duros de esta red criminal y poder identificar el modus operandi, como también ingresar a los predios conocidos como ‘La casa rosada’, ‘La casa morada’ y ‘La choza’. “El investigador se hizo pasar por un habitante de calle y con una cámara escondida pudo grabar todo lo que ocurría en estos predios. Fueron un total de mil horas de video en donde se evidenció no solo la venta de droga sino de licor adulterado, conocido como ‘chamber’”, agregó Restrepo. Entérate de la nota completa en nuestra edición impresa.  “El investigador se hizo pasar por un habitante de calle y con una cámara escondida pudo grabar todo lo que ocurría en estos predios. Fueron un total de mil horas de video en donde se evidenció no solo la venta de droga sino de licor adulterado, conocido como ‘chamber’”, agregó Restrepo.  Entérate de la nota completa en nuestra edición impresa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A sangre fría, con armas de fuego y armas blancas, y sin ninguna contemplación por las víctimas, ‘Los Rueditas’ se dedicaban al hurto de bicicletas en la ciclorruta Alameda El Porvenir, en la localidad de Kennedy, donde, según las autoridades, son señalados de quitarle la vida al instructor del IDRD Jeisson Cárdenas y a tres personas más. Pero su accionar delictivo se acabó, pues sus cinco integrantes fueron capturados. De acuerdo con las autoridades, el líder de esta banda criminal, la cual además de los asesinatos está investigada por al menos 20 hurtos a ciclas en el corredor ubicado sobre la Avenida Ciudad de Cali, en el suroccidente de la ciudad, es Óscar Andrés Damelínez Samudio, quien aceptó su responsabilidad por dos homicidios, hurto a vehículo, tentativa de homicidio y hurto de bicicletas. Este joven, jefe de la banda, operaba en complicidad con su pareja sentimental, Katerín Quevedo Daza, a quien la Policía sorprendió en un allanamiento nocturno adelantado en la localidad número 8. Posteriormente la mujer aceptó el delito de concierto para delinquir. Los otros integrantes de esta estructura criminal son el hermano de Óscar Andrés, J. Damelínez Samudio, que no aceptó cargos; Fabio Andrés Forero Alarcón, quien reconoció su culpabilidad por concierto para delinquir agravado en automotores; y José Luis Lancheros Samudio, que se declaró culpable de homicidio y concierto para delinquir. Así operaban. ‘Los Rueditas’ salían a robar bicicletas con la convicción de cumplir su cometido sin importar causarles lesiones o incluso quitarles la vida a los llamados biciusuarios. Entérate de la nota completa en nuestra edición impresa.</t>
+    <t>8 de agosto de 2018</t>
+  </si>
+  <si>
+    <t>2 de agosto de 2018</t>
+  </si>
+  <si>
+    <t>18 de abril de 2018</t>
+  </si>
+  <si>
+    <t>10 de abril de 2018</t>
+  </si>
+  <si>
+    <t>20 de junio de 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los residentes del barrio Bosa Centro se despertaron muy temprano en la mañana de ayer con la noticia de un nuevo hecho delictivo al lado de sus casas. Esta vez, un hurto a un carro de valores de la empresa G4S fue el blanco de los delincuentes, que parecen no dar tregua en este fin de año. Dos pillos, armados con armas de fuego y hasta con una granada de fragmentación, llegaron hasta la calle 63 sur con carrera 78H bis para llevar a cabo un elaborado plan: interceptar a los guardianes de seguridad de la empresa y llevarse una gruesa suma de dinero. Aunque no se ha determinado la cantidad exacta a la que ascienden las pérdidas, se pudo establecer que los ladrones lograron llevarse una tula llena de dinero. “En las bolsas iba buena plata porque iban a surtir un cajero, además que estamos próximos al pago de los sueldos y de la prima”, comentó un residente en el lugar de los hechos. Luego del acto delincuencial, hicieron presencia en el barrio cinco patrullas y la Sijín de la Policía en busca de información que permita dar con los responsables del robo. “La Policía Metropolitana de Bogotá se permite informar que se están realizando todas las actividades investigativas correspondientes, que incluyen la verificación de cámaras de seguridad del sector, así como la recopilación de la versión de algunos testigos. Asimismo, se está trabajando en el sentido de aclarar si el personal de la empresa de valores, encargado de escoltar este vehículo, siguió el protocolo de seguridad correspondiente”, señaló la institución. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Después de recibir una llamada en medio de la noche, Derly Amado corrió tan rápido como pudo y sorteando el peligro logró llegar hasta la calle 19 con carrera 15, en el centro de Bogotá, donde estaba su esposo James Hernán Bonilla. Tal y como se lo había notificado un sujeto por teléfono, James se encontraba tendido en vía pública, con una pronunciada mancha de sangre en el cuello y con sus brazos aferrados a un maletín. Cuenta la mujer que cuando él la vio, soltó su maletín, le extendió la mano y suspiró por última vez. Aunque Derly sabía que su esposo ya había muerto, no escatimó en suplicarle a un Policía que lo llevara hasta el centro médico más cercano. Con su marido entre sus brazos, ella y algunos uniformados arribaron al hospital Santa Clara, pero allí les confirmaron lo que todos ya sabían: su corazón se detuvo para siempre y el acta de defunción se firmó a las 10:00 p. m. de este domingo. Cuando Amado se refiere al crimen de su esposo, además de derramar un par de lágrimas, afirma con total seguridad que todo ocurrió en medio de un intento de atraco, ya que James llegaba de trabajar a altas horas de la noche y nunca antes había protagonizado problemas ni riñas. “Seguramente se le quer ían llevar la maleta, pero él solo tenía ahí la coca del almuerzo, el uniforme del trabajo y en el bolsillo una plata”, relató la mujer desconsolada. Sin vida en la esquina. Este domingo, a eso de las 9 de la noche, Bonilla llegó al centro de Bogotá después de culminar su turno como guarda de seguridad en un conjunto residencial del barrio El Rincón (Suba). Como todas las noches, después de trabajar él se dirigía a su vivienda, ubicada en el barrio La Favorita (Los Mártires), donde residía desde hace cinco años junto a su esposa. Entérate de la nota completa en nuestra edición impresa.  Sin vida en la esquina. Este domingo, a eso de las 9 de la noche, Bonilla llegó al centro de Bogotá después de culminar su turno como guarda de seguridad en un conjunto residencial del barrio El Rincón (Suba). Como todas las noches, después de trabajar él se dirigía a su vivienda, ubicada en el barrio La Favorita (Los Mártires), donde residía desde hace cinco años junto a su esposa.  Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La cadena de oración que decenas de familiares y amigos de Lizbeth Tatiana Ibáñez García adelantaron con motivo de su recuperación, tristemente no sirvió de nada, debido a que siete días después de la fatal agresión que sufrió pereció en un centro médico del occidente de Bogotá. Detrás de este hecho violento estarían dos jovencitas que no superan los 25 años y a quienes testigos han señalado como las responsables de la agresión con arma blanca. La investigación preliminar de las autoridades ahora se centra en confirmar una hipótesis que se conoció en los últimos días, en la que señalan que todo obedece a un problema sentimental que víctima y victimarias tendrían desde hace un buen tiempo.Lo que no se ha podido establecer hasta ahora es cuál sería el problema, debido a que se presume que la joven ultimada habría tenido una relación amorosa en común con una de las agresoras, situación que se salió de control y acabó en muerte. QHUBO indagó con Policía de la localidad de Bosa, en donde ocurrió el crimen, e indicaron que hasta el momento no han sido identificadas las agresoras, pero que cuentan con cámaras de seguridad que podrían ayudar en el procedimiento que se adelanta. Riña en el bar. La noticia de muerte llegó a la familia Ibáñez García la mañana de este domingo, cuando médicos del hospital de Kennedy indicaron que debido a la gravedad de las heridas que sufrió en su pecho (y a pesar de los procedimientos en el centro asistencial) Lizbeth no soportó y falleció. Aunque su final fue este domingo, el ataque del que ella fue blanco ocurrió la madrugada del pasado domingo dos de diciembre en un establecimiento de rumba del barrio Laureles (Bosa) cuando se encontró con sus verdugos. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No contentos con amenazarlos de muerte y robarles algunos elementos de valor, los delincuentes accionaron el arma de fuego que portaban, en dirección al pecho de un joven de 25 años, quien estaba en compañía de su hermano y de dos amigos. La violenta acción cobró la vida de Fernando Fajardo Mejía, un operario de mantenimiento, quien se convirtió en la nueva víctima de la delincuencia común que opera en la capital. El trabajo de las autoridades locales permitió la captura de uno de los responsables de este hecho, pero ahora la preocupación de la familia es que la justicia sea flexible y termine otorgándole beneficios a ese sujeto que les arrebató la felicidad. “Tenemos entendido que aceptó el delito, pero ahora el problema es que le dan rebaja de pena, si no es que terminan dándole casa por cárcel, o en el peor de los casos, incluso quedaría libre”, manifestó un allegado de los dolientes. Q’HUBO visitó el barrio Bello Horizonte (localidad de San Cristóbal) y allí conoció de primera mano las preocupaciones de la comunidad, entre ellas la presencia de consumidores de estupefacientes y la presencia de grupos delictivos que han tomado represalias cuando han sido denunciados. “Es mejor evitar hablar de más, porque cuando uno habla con la Policía los delincuentes arremeten contra uno. En lo posible esperamos que las autoridades visiten más este sector y nos ayude a controlar la inseguridad”, indicó una residente del suroriente de Bogotá. Atraco mortal. Después de varias horas de departir con sus amigos, Fernando, durante la madruga de este sábado, salió de su vivienda en el barrio Atenas (localidad de San Cristóbal), y junto con su hermano decidió acompañar a sus conocidos a su vivienda, con el fin de que no corrieran peligro. La idea de los hermanos Fajardo era caminar un par de cuadras, atravesar parte del barrio Bello Horizonte, y posteriormente retornar a su vivienda para descansar luego de la diversión. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En el barrio La Riviera (en Engativá) muchos afirman que los tres delincuentes que intentaron atracar al intendente Jhon Jairo Montoya Giraldo, jefe del esquema de seguridad del Gobernador de Cundinamarca, tenía todo calculado y sabían de su rutina, pues lo abordaron cuando llegaba a su casa. Aunque la astucia del uniformado le permitió frustrar el atraco y reducir a uno de los pillos, por desgracia resultó lesionado en dos oportunidades. En la Clínica Colombia, lugar a donde fue trasladado Montoya, afirmaron que él se encuentra estable después de haber sido intervenido quirúrgicamente, pero tendrá que guardar reposo para preservar su estado de salud. La oportuna reacción de las autoridades, y de la misma comunidad que salió cuando escuchó el cruce de disparos, permitió que uno de los delincuentes fuera detenido, mientras que el tercero de ellos se fugó en un taxi, el cual sería el vehículo en el que ellos habrían llegado hasta este punto del occidente de Bogotá. La comunidad afirma que este caso solo es uno de los tantos hechos de inseguridad que se registran a diario en ese barrio. “En la madrugada del miércoles cometieron un atraco a una cuadra de donde le dispararon al Policía, ese mismo día en la noche; y el martes en la noche también hubo otro hurto por acá. Esperamos que con esto la Policía atienda más rápido los llamados que hacemos”, señaló un vecino. Cruce de disparos. Jhon Jairo llegó hasta la calle 70A bis con carrera 111D en su camioneta de placas HKR 691, en compañía de su esposa y uno de sus hijos, sobre las últimas horas de la noche de este miércoles. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La familia de Diana Patricia Gómez por fin recuperó parte de la tranquilidad que le arrebataron desde el pasado 20 de septiembre, día en que la funcionaria del IDRD fue asesinada a manos de, dice la Policía,  Jason Rengifo o alias ‘Chichi’, como lo conocen en el mundo criminal. En las últimas horas este hombre de 21 años fue capturado cuando salía de la casa de su pareja sentimental en Bosa Centro, tras una exhaustiva investigación que se prolongó por casi un mes. “Un día posterior a estos hechos, la Policía de Vigilancia y los cuadrantes conocieron un caso de hurto a celulares. Este hecho se cometió con una bicicleta con similares características a la de Diana Gómez y por unas personas con las mismas características de quienes habían perpetrado su crimen. “A partir de este evento nuestros hombres  iniciaron todo el trabajo técnico a través de entrevistas, seguimiento a cámaras de seguridad, cotejos con retratos hablados y demás, y se logró la captura de uno de los sujetos que participó en el hecho, conocido con el alias de ‘Veneco’. Esta persona fue quien nos suministró una información inicial de Jason, quien fue el que accionó el arma de fuego en contra de la humanidad de Diana”, así lo informó ayer Ricardo Alarcón, subcomandante de la Policía Metropolitana de Bogotá. Aunque inicialmente se estaba ofreciendo una recompensa de $ 20 millones, se supo que no fue necesario su pago porque las capturas se lograron gracias al trabajo de inteligencia de la Policía, el respaldado de las fuentes humanas, interceptaciones de llamadas telefónicas y monitoreo de redes sociales. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luego de que Kennedy encabezara la lista de las localidades más inseguras al registrarse entre enero y junio de este año 70 homicidios, 4990 casos de atracos y la captura de 2600 personas en flagrancia por varios delitos (según cifras de la Secretaría de Seguridad), desde la Alcaldía Mayor se gestó la propuesta de realizar un plan de choque que según el alcalde mayor de Bogotá, Enrique Peñalosa, podría hacer frente a la criminalidad. Por esta razón, en las próximas semanas, se dará inicio a una jornada de ley seca que se extenderá por tres meses, que durará las 24 horas del día y los siete días de la semana. A continuación le contamos todo lo que debe saber de esta situación que no afectará a los comerciantes quienes tengan sus locales constituidos como bares de manera legal. ¿Dónde será la medida? El alcalde confirmó en las últimas horas que la restricción para consumir bebidas embriagantes se implementará en los barrio María Paz, Corabastos y El Amparo, sitios que se han caracterizado por el aumento de hechos de intolerancia, muchos de ellos vinculados con el licor. Cuando inicie la ley no se descartará que esta se amplíe hacia los barrios aledaños. Pero por ahora se hará una prueba con los barrios mencionados anteriormente. Entérate de la nota completa en nuestra edición impresa.  Por esta razón, en las próximas semanas, se dará inicio a una jornada de ley seca que se extenderá por tres meses, que durará las 24 horas del día y los siete días de la semana. A continuación le contamos todo lo que debe saber de esta situación que no afectará a los comerciantes quienes tengan sus locales constituidos como bares de manera legal. ¿Dónde será la medida? El alcalde confirmó en las últimas horas que la restricción para consumir bebidas embriagantes se implementará en los barrio María Paz, Corabastos y El Amparo, sitios que se han caracterizado por el aumento de hechos de intolerancia, muchos de ellos vinculados con el licor. Cuando inicie la ley no se descartará que esta se amplíe hacia los barrios aledaños. Pero por ahora se hará una prueba con los barrios mencionados anteriormente.  Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luego de que las autoridades investigaran y le siguieran el rastro durante cinco meses a la organización delincuencial ‘Los Pablitos’, un juez envió en las últimas horas a los pillos de esta banda a pagar casa por cárcel, como si no fueran suficientes los millonarios hurtos de bicicletas que llevan a cuestas. “Un seguimiento de tantos meses por parte de la Fiscalía y demás entes a estos delincuentes para que un juez los premie y los envíe a la casa. Esta es nuestra justicia”, fueron las palabras de Martín Buitrago, un bogotano más que está cansado de los hurtos en la capital. De los 14 detenidos, tan solo dos (identificados como Marco Steven Martínez Cagua y Johann Andrés Sánchez Ladino) fueron enviados la noche del martes a una cárcel en Bogotá, a pesar de que se les acusa de haber hurtado entre 200 y 300 bicicletas de alta gama, cada una avaluada entre los 5 y los 10 millones de pesos.La indignación entre los ciudadanos y afectados no se hizo esperar. Tal es el caso de Andrés, quien aseguró que: “de qué sirve que Alcaldía, Secretaría de Seguridad y Policía hagan su tarea si un juez leguleyo deja en libertad a banda de ladrones de bicicletas. Da susto vivir en una sociedad así”. Los acusados deberán responder, desde la comodidad de sus hogares, por los delitos de hurto calificado y agravado, concierto para delinquir, porte ilegal de armas y receptación. Como si fuera poco, se corre el riesgo de que en cualquier momento  puedan salir a seguir haciendo de las suyas en las seis localidades en las que operaban. El argumento del juez para darles casa por cárcel es sencillo: que no representan un peligro para la sociedad. Increíble. “No puedo creer que después de que cometieran tantos robos, ahora los dejen estar en sus casas pagando una pena como si estuvieran de vacaciones”, afirmó Iván, ciclista a quien en una oportunidad ya le habían hurtado su bicicleta. A pesar de que los robos a bicicletas en los dos últimos años se han incrementado en un 72% en Bogotá, según cifras de la Secretaría de Seguridad, para los biciusuarios la justicia sigue siendo muy flexible con los ladrones. “No se garantiza la seguridad del ciudadano que anda en su bicicleta diariamente y menos dándoles casa por cárcel a la delincuencia. Mano firme al tema porque ya muchos han perdido la vida por culpa de estos personajes”, expresó Rodrigo. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muy pocos transeúntes se encontraban deambulando por el barrio La Gaitana (localidad de Suba), pero después de que un bus frenó de improvisto, en cuestión de segundos un centenar de personas se agolparon a la altura de la calle 132B con carrera 129A, donde quedó tendida una mujer sin signos vitales. La aterradora escena fue protagonizada por María Susana Hernández Barrera, víctima de un bus provisional del SITP, el cual, en medio de una extraña acción, acabó con su vida en una esquina de dicho barrio, en el noroccidente de Bogotá. Hay quienes dicen que fue culpa del conductor del vehículo de servicio público, mientras que otros afirman que la mujer habría intentado cruzar la vía sin observar hacia los lados. La última versión la aportarán los peritos judiciales, quienes tienen a cargo el caso y determinarán finalmente lo que ocurrió. Mientras se investiga, y algunos curiosos se atreven a sacar conjeturas, los verdaderos afectados son los familiares de la mujer de 51 años que perdió la vida, y el conductor del bus, quien con seguridad no salió a trabajar y de manera infortunada acabó con la vida de esta peatón. Mañana de tragedia. A María Susana la vieron caminando en dirección contraria a su vivienda, bien temprano en la mañana de este jueves. “Eran aproximadamente las 6:30 a. m., o un poco más tarde”, aseguran algunos trabajadores de la zona, quienes la distinguían y no pudieron hacer nada por su vida. Al parecer, la reconocida vecina de esa zona habría salido a realizar una diligencia a pocas cuadras de su vivienda, por lo que al volver al barrio Mira Mar, en donde residía, se encontró con la muerte. Sin saberlo, tanto la mujer como el conductor del bus se iban aproximando a la esquina, hasta que el choque se dio y ella quedó sin signos vitales. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En promedio, cada hora en Bogotá once personas son víctimas de hurto, cifra que es respaldada en sectores como El Camino de La Esperanza (Suba), donde las víctimas de la delincuencia cada día van en aumento, según pudo conocer Q’HUBO, que visitó ayer la zona. Entre las más recientes víctimas se encuentran Daniel y Blanca, los dueños de un mini supermercado al cual ingresaron dos delincuentes armados con el fin de robar el producido del negocio y las ganancias de un proveedor de leche, que se encontraba dejando un pedido en la tarde del viernes. Los dos delincuentes, que se movilizaban en una moto, cuando ingresaron a la tienda a cometer el atraco quedaron registrados en los videos de las cámaras de seguridad, los cuales a esta hora se encuentran bajo el poder de las autoridades. “La inseguridad por aquí se ha disparado en los últimos cuatro meses. Puedo asegurar que desde que llegaron a desalojar a los habitantes de una invasión de Bilbao, el barrio que colinda con este, fue que aumentaron los ladrones”, manifestó a Q’HUBO un residente del sector. Atraco a mano armada. Eran las 5:30 de la tarde del pasado viernes cuando Daniel se encontraba solo atendiendo su negocio y organizando las bolsas de leche de un pedido que le acababa de llegar. De repente, la presencia de dos hombres que portaban cascos de moto (los cuales ocultaron sus rostros) llamaron su atención. Con revólver en mano estos tiraron al suelo a una mujer, que estaba en la puerta del local. Entérate de la nota completa en nuestra edición impresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daniel Peralta Caballero fue enviado a la cárcel en las últimas horas para que responda por el delito de doble homicidio con dolo, delito que se le atribuye tras ocasionarles la muerte a Michael Hurtado y a Carmen González, a quienes luego de arrollarlos, huyó la madrugada del 31 de agosto. Peralta Caballero (de 18 años), permaneció 15 días escondido en una vivienda de Bogotá, de donde no salió sino hasta la mañana de ayer, cuando llegó a la estación de Policía de Zipaquirá para entregarse. A pesar de que en los videos de las cámaras de seguridad del municipio de Chía, lugar en donde ocurrió el accidente, quedó registrado todo, el joven no aceptó los cargos. Cuatro días después del hecho, las autoridades confirmaron la identidad del conductor responsable de haber arrollado a la pareja y, de inmediato, comenzaron una exhaustiva búsqueda para dar con su paradero, tanto así que ofrecieron una recompensa de 10 millones de pesos a quienes brindaran información del paradero de Daniel. “Nosotros pedimos justicia desde el principio, pues apenas se reveló la identidad del responsable se emitió la orden de captura; sin embargo, nunca llegaron a su vivienda las autoridades sino que dejaron que se escondiera en otro lugar, por eso fue difícil hallarlo tan pronto”, narró a Q’HUBO Angélica Hurtado, prima de Michael. Mientras que Daniel permanecía escondido, los familiares y allegados de las víctimas realizaron marchas y planes tortuga en el lugar del accidente, en la variante de Chía, a la altura del centro comercial Centro Chía, con el fin de llamar la atención de las autoridades y para que se hiciera justicia. El rostro de Peralta fue rápidamente difundido en varias páginas de Facebook, pues se conoció debido a la placa de la camioneta Captiva que le pertenecía y que estuvo involucrada en el incidente. “Nosotros lo que queremos es que el responsable pague por lo que hizo, pues dejó a dos niñas huérfanas y tras arrollarlos se fugó sin importarle nada. Esto no nos va a devolver a nuestros familiares, pero sí hace que haya más conciencia en la sociedad”, agregó uno de los dolientes. Por ahora, la Fiscalía se encuentra trabajando en la segunda audiencia en contra de Peralta, en la que se conocerá la condena que deberá pagar por arrollar a la pareja de esposos y, posteriormente, huir de la escena. “El hecho de que ahora esté bajo el poder de las autoridades es el primer paso para que se haga justicia. Vamos a estar atentos para que le apliquen la máxima condena, pues en su momento él no se dejó realizar ninguna prueba de alcoholemia”, concluyó Angélica Hurtado. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En medio de la Zona de Tolerancia de Bogotá y alrededor de decenas de mujeres con curvas despampanantes y poco abrigadas, pasado el mediodía de  ayer se presentó un terrible crimen dentro de un edificio del barrio Santa Fe (Los Mártires). Carlos Eduardo Sánchez Valero, un hombre de 47 años que se ganaba la vida como asesor jurídico, fue asesinado en su casa, en la que se encontraba en compañía de su madre. Lo peor de todo es que se presume que la persona que apagó su vida lo conocía de cerca y programó el homicidio a sangre fría con bastante tiempo de anticipación. El ataque del que fue víctima Carlos fue tan violento, que el asesino, no contento con darle múltiples puñaladas en el estómago, también le disparó en dos ocasiones con un arma de fuego a la altura del cuello, por lo que en el momento en que intentaron ayudarlo, ya era demasiado tarde para trasladarlo hasta un centro asistencial. En este momento no se conocen los móviles del asesinato, pero se sabe que las autoridades están buscando las imágenes de las cámaras de seguridad de la zona y se está haciendo todo lo posible para de esclarecer el paradero del pistolero. Q’HUBO pudo conocer en el lugar de los hechos que se tienen valiosas pistas para identificar al homicida, pues las personas del sector aparentemente lo  conocían. Terrible crimen. Cuando el reloj marcaba aproximadamente la 1:15 p. m. de ayer Carlos Eduardo, quien cursaba sexto semestre de Derecho en la Universidad Republicana, le dijo a su madre, como cualquier otro día y sin que se le pasara nunca por la cabeza el fatídico fin que tendría, que no le sirviera almuerzo, pues debía cumplir una cita en su despacho. Entérate de la nota completa en nuestra edición impresa.  Terrible crimen. Cuando el reloj marcaba aproximadamente la 1:15 p. m. de ayer Carlos Eduardo, quien cursaba sexto semestre de Derecho en la Universidad Republicana, le dijo a su madre, como cualquier otro día y sin que se le pasara nunca por la cabeza el fatídico fin que tendría, que no le sirviera almuerzo, pues debía cumplir una cita en su despacho. Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aldolfo* ingresó tres veces a su casa, se veía afanado y algo preocupado, o eso dicen quienes lo vieron hacer el sospechoso recorrido durante la mañana de ayer, el cual también quedó registrado en dos cámaras de seguridad que están ubicadas frente a la escena del crimen. Posiblemente la segunda vez que entró al predio fue cuando tomó su arma blanca y apuñaló en múltiples ocasiones a Christ Maigret Acevedo Ramírez, porque presuntamente se quería divorciar. Los más bajos instintos de este hombre, de unos 55 o 60 años, salieron a flote debido a que ella, su esposa, estaba cansada de la tormentosa relación sentimental que duró, por lo menos, una década. De esta ya solo quedaban los recuerdos más doloroso. Adolfo con su decisión no solo acabó con la vida de Christ sino también con el futuro de una pequeña de unos siete años, a quien concibieron durante los primeros años de ese amorío que parecía duradero y estable. Después de este reciente lío pasional, el cual para las autoridades podría ser tipificado como un feminicidio, solo quedó un rastro de sangre y el video de la cámara de seguridad en donde se ve por última vez al agresor caminando con pasos acelerados y la cabeza inclinada hacia el suelo, seguramente porque la carga de culpa le pesará por el resto de su vida. “Los otros inquilinos de la casa dicen que ellos peleaban bastante; al parecer, el tema de la convivencia era algo complicado porque con frecuencia se oían discusiones. Seguramente por eso era que se iban a separar, porque no se toleraban más”, manifestó una residente del sector. La ruta del asesino. Hace unos 10 años en Venezuela (de donde es oriunda esta pareja), Acevedo Ramírez se dejó seducir por los halagos de Adolfo, y lo que empezó como una amistad, se consolidó con el tiempo en un amorío que parecía ser prometedor. Los caminos de estas dos personas se unieron y se encaminaron en un solo destino. El paso del tiempo los llevó a establecer su relación, a tal punto que tres años después de que comenzaron su unión decidieron tener un hijo, y producto de esa idea nació una niña, la cual años más tarde sería la única testigo de cómo se iba desmoronando esta familia. Hace tres meses Christ, su esposo y su hija llegaron al barrio Eduardo Frey (localidad de Antonio Nariño) con el fin de buscar un nuevo horizonte y mejor calidad de vida. En ese sector del sur de Bogotá,  exactamente en la calle 29 sur con carrera 27, encontraron un predio, el cual tomaron en arriendo y en donde se apagó la llama de ese amor que alguna vez estuvo encendida. Entérate de la nota completa en nuestra edición impresa.  Hace tres meses Christ, su esposo y su hija llegaron al barrio Eduardo Frey (localidad de Antonio Nariño) con el fin de buscar un nuevo horizonte y mejor calidad de vida. En ese sector del sur de Bogotá,  exactamente en la calle 29 sur con carrera 27, encontraron un predio, el cual tomaron en arriendo y en donde se apagó la llama de ese amor que alguna vez estuvo encendida. Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hernán José Pérez Mena era un guarda de seguridad aguerrido y luchador, pero después de haber recibido tres disparos la fortaleza solo le duró seis días. La máquina que lo mantenía vivo y medía las pulsaciones de su corazón se detuvo en la mañana de este martes, y fue por eso que dejó de estar en este plano terrenal para partir, seguramente, al cielo para descansar en paz. Esta muerte podría ser una más de las que se presentan a diario en Bogotá, de no ser por una versión que se conoció en las últimas horas, la cual indica que aparentemente él fue ultimado por una organización delictiva a la que supuestamente habría denunciado días atrás. Aunque eso hace parte únicamente de una hipótesis, es la teoría que ha tomado más fuerza debido a que dos de sus compañeros (también celadores) se encuentran desaparecidos, pues presuntamente quisieron huir creyendo que los esperaría un futuro como el de Pérez Mena. Hoy los peritos judiciales, quienes investigan el caso, cuentan con el video de una cámara de seguridad, en el cual quedó registrado el momento en el que un sujeto intercepta a la víctima, en una vía del barrio Bosque Popular (Engativá), y le propina tres disparos a quemarropa, uno de ellos en la cabeza. Aunque el agresor no ha sido identificado, las autoridades presumen que en las próximas semanas se podría tener información clara del responsable. Disparos camino al trabajo. Hernán José llegó a Bogotá hace 10 años, proveniente del municipio de San Pedro (departamento de Sucre), en busca de una mejor calidad de vida y mayores oportunidades laborales. Luego de probar suerte en diferentes empleos, logró ubicarse hace siete años como guarda de seguridad de una zona residencial ubicada a pocas cuadras de donde fue atacado con arma de fuego. Aunque él siempre se caracterizó por ser un trabajador impecable, durante las últimas semanas habría tenido algunos altercados debido a que los delincuentes estaban al asecho. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El viento soplaba más fuerte de lo normal en la montaña de Sierra Morena (Ciudad Bolívar). Parecía que el clima quisiera avisarle a Juan Carlos Rueda Huila, a Milton Fernando Abadía Ruiz y a una joven que dos hombres armados venían a dispararles. Seguramente el mensaje no fue muy claro y los tres amigos, quienes departían en un parque del sur de Bogotá, no lograron captar la pista que el destino les intentó dar sobre la muerte que se les aproximaba. Cuando los jóvenes fueron conscientes de lo que pasaba ya tenían a menos de un metro a dos gatilleros armados y estaban recibiendo una lluvia de disparos sin poder defenderse. Las heridas fueron múltiples, contundentes y ya no había nada que hacer, pues los agresores huyeron dejando a su espalda tres cuerpos heridos, dos de ellos con perforaciones de bala que horas más tarde les costaron la vida. La única que se salvó del atentado fue la mujer que departía con Juan y Milton, pero aunque ya está fuera de peligro sigue recluida en un centro asistencial debido a la herida que le ocasionaron. Dicen las autoridades que todo sobre este caso está en indagación, aunque en el lugar de los hechos los vecinos prefieren no afirmar nada, o incluso no involucrarse en lo ocurrido porque temen por su seguridad. “Es mejor que no se hable mucho de eso por acá, porque esas cosas son delicadas. Quien sabe quiénes son esos tipos que vinieron a disparar y si serán o no del barrio o estarán vigilando por acá”, murmuró un comerciante del sector en voz baja. Disparos en el parque. Todos los días, cuando el sol caía y la oscuridad se apoderaba del cielo capitalino varios jóvenes residentes del barrio Sierra Morena salían de sus viviendas para cumplir un cita sagrada en el parque ‘Enrejado’ (Diagonal 73C sur con Transversal 73B), como ellos llamaban a la zona verde de ese sector. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Increíble! En un hospital, donde los profesionales se caracterizan por velar por la salud de las personas, un traficante de drogas, que fue contratado como camillero, se encargaba de envenenar a médicos, funcionarios y hasta pacientes. Gracias a las denuncias de las directivas del centro médico, la Policía Metropolitana comenzó una ardua investigación durante tres meses y con material probatorio suficiente logró privar de su libertad al delincuente. En cinco claves le contaremos cómo cayó. La investigación. Una vez los directivos de la institución de salud dieron a conocer el caso, la Policía infiltró a un oficial que se hacía pasar unas veces como paciente y otras como funcionario para seguirle de cerca los pasos al camillero. Durante tres meses el uniformado recaudó suficiente material probatorio como videos de las cámaras de seguridad. Su modus operandi. El delincuente se valía de su labor en el centro de salud para esconder la droga entre sus pertenencias y una camilla, en la cual guardaba la base de coca dosificada en varias bolsas plásticas para repartirla entre sus clientes habituales: médicos, funcionarios del hospital del sur de Bogotá y hasta pacientes. La captura. Ya con suficiente material probatorio en su contra, las autoridades ingresaron al centro de salud y privaron de la libertad en las últimas horas al camillero, a quien le encontraron 41 dosis de perico o base de coca. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lo que parece ser una medida que beneficiará al comercio de Bogotá, especialmente a los establecimientos nocturnos, tiene preocupados y descontentos a varios habitantes que residen cerca a los bares y discotecas, pues ahora tendrán que aguantar hasta que salga el sol las fiestas debido a la nueva medida implementada por la Alcaldía. El Distrito pretende ponerle Sello Seguro a los establecimientos ejemplares que cumplan 16 requisitos indispensables para que puedan mantenerse abiertos al público hasta las 5 de la mañana, dos horas más de las que están permitidas actualmente. La medida fue lanzada en los últimos días y ha causado discordia y varias opiniones, en su mayoría negativas, debido a que los ciudadanos temen que esto implique en que se disparen los homicidios, las riñas y la inseguridad . “Uno ahora no solo va a tener que aguantarse la música hasta las 3 de la mañana, sino hasta las 5. A este paso vamos a tener que vender la casa para que monten un bar para que no seamos víctimas del insomnio y el ruido”, narró Gloria Díaz, residente del barrio Restrepo (Antonio Nariño). Sin embargo, esta implementación hace parte de una de las propuestas del alcalde Enrique Peñalosa, que consiste en convertir a Bogotá en una ciudad 24 horas y tiene como objetivo mejorar la movilidad alrededor de los rumbeaderos de la 85, la Primero de Mayo, El Restrepo, entre otros. “Lo que buscamos es certificar a los bares de Bogotá, que le garanticen a sus clientes total seguridad y que además contribuyan al bienestar de sus sectores”, afirmó el secretario de Gobierno, Miguel Uribe Turbay.  Cabe resaltar que los establecimientos nocturnos que quieran funcionar hasta las 5 de la mañana deben cumplir con las condiciones y respetar el artículo 87 de la Ley 1801 de 2016, Código Nacional de Policía y Convivencia, o de lo contrario serán suspendidos de los beneficios. “En caso de que no se cumplan los requisitos una vez entregada la certificación será suspendida inmediatamente la posibilidad de extender el horario durante seis meses”, agregó Uribe Turbay. Requisitos que debe cumplir su establecimiento.  La Secretaría Distrital de Gobierno verificará el cumplimiento de algunos requisitos que deben anexarse en la radicación en línea a través de la página web www.gobiernobogota.gov.co. Luego de tener estos papeles al día y anexados en la página de la Secretaría de Gobierno, se procederá a expedir la certificación de Sello Seguro para el establecimiento y que tendrá vigencia de un año. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Las labores de patrullaje y seguridad ciudadana que debería haber realizado en su momento el sargento, Jamir Chavarro Andrade, eran alternadas por su actividad delictiva de extorsionar a comerciantes informales del barrio Modelia y  Fontibón. Extraordinarias sumas de dinero eran exigidas por este sujeto que estuvo adscrito al CAI de Modelia hasta el pasado octubre, cuando fue detenido por el delito de concusión en concurso homogéneo y sucesivo, término que se emplea legalmente cuando un funcionario público en uso de su cargo exige pagar una contribución económica. El ahora expolicía fue condenado en las últimas horas a 4 años de prisión. Pero nadie descarta que así como esta existan otras denuncias que los afectados no habrían hecho por temor a que los señalados asumieran las acciones que iban a emprender en su contra por no pagar lo que sería una ‘vacuna’. Desde finales del año pasado y gracias a las pruebas contundentes en su contra, Chavarro fue destituido y pasó de estar día y noche en el CAI de la Policía a habitar una cárcel de Bogotá en donde su estadía se alargará por cuatro años más. Durante su audiencia de las últimas horas y en la que fue condenado, el exsargento aseveró algo extraño. Podría ser una pista de que la administración del espacio público al antojo de los uniformados no sería una novedad: “le pidió disculpas y perdón a usted señoría, a la comunidad y al señor Nelson, pero era mi función como policía ejercerla. Mil disculpas”, dijo en audiencia el hombre, quien, además, aceptó los cargos que se le imputaron. La historia. Respaldado con un audio en donde se evidenciaba la extorsión de la que era víctima por parte de un Sargento del CAI Modelia, Nelson Salazar, un comerciante informal de comida rápida, decidió acercarse a un consultorio jurídico de una universidad de la capital para recibir asesoría sobre qué podía hacer para salir bien librado de ese problema que lo agobiaba. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luego de que el técnico José Pékerman diera a conocer la lista definitiva de nuestros 23 representantes al mundial de Rusia 2018, y a ocho días del inicio del certamen orbital, Q’HUBO realizó una encuesta con una muestra de nuestros lectores para saber cuál de los elegidos es el de mayor preferencia y a quién debió dejar por fuera de la convocatoria. Nuestros fieles lectores ratificaron al samario Falcao García como el jugador de mejor rendimiento deportivo y el de mayor carisma de la selección Colombia de cara al Mundial de Rusia; mientras que el volante bogotano Abel Aguilar se rajó en la votación, debido a que para muchos ya cumplió su ciclo con la absoluta. Fernando Sarmiento dice: “Miguel Borja no me gusta, creo que tiene mejor rendimiento y experiencia Duván Zapata. Además, juega en Europa. El mejor es James, porque es emblemático para la selección y porque su momento es brillante en el Bayer Múnich”. Werner López dice: Abel Aguilar me parece que está muy viejo. Ya cumplió su ciclo, el mejor es Dávinson Sánchez porque ha demostrado seguridad y técnica en un fútbol que es muy fuerte y rápido, como el inglés. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Después del accidente que sufrieron las modelos Alejandra Serje, Nanis Ochoa, Diana Franco y Vanessa Gallego, el pasado 5 de noviembre, fueron muy pocos los detalles que se conocieron del estado de salud de las afectadas, sobre todo de la bella Alejandra, la más perjudicada en el siniestro que por poco acaba con sus vidas. Ahora, a un mes de lo sucedido, la misma modelo bogotana contó en su cuenta de Instagram que se sometería a una riesgosa cirugía de cuello cervical. “Esta es una batalla más que venceré en el nombre de Jesús. Gracias a todos por sus oraciones, no se imaginan lo importantes que son para mí en este momento. Me siento la versión ‘Hulk’ mujer y con la completa seguridad de que Dios será mi médico” Encuentra más noticias como esta en la sección Zona Rosa de tu periódico Q´hubo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La espera y las preparativos de hace meses terminaron. El papa llegara hoy a Bogotá y comenzara su histórica visita al país, que finalizara el domingo cuando viaje de Cartagena a Roma, Italia. Se sabe que el Sumo Pontífice salió de Roma en un vuelo fletado de Alitalia hacia las 3:30 de la madrugada de hoy y llegara a la base militar de Catam doce horas después, se espera que aterrice a las 4:30 p.m. viene acompañado de su equipo de asesores y miembros de seguridad y un privilegiado grupo de periodistas colombianos invitados por la Santa Sede. Encuentra más noticias como esta en la sección Noticia del día de tu periódico Q´hubo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sin importar que el sol estuviera alcanzando su punto más alto, y por las calles del centro de Bogotá hubiera más transeúntes de lo normal, un joven desenfundó su arma de fuego y la accionó contra un sujeto unos diez años mayor que él, para quitarle la vida. Lastimosamente la labor delictiva se cumplió al pie de la letra, y la víctima, quien no ha podido ser identificada, pereció en un hospital unas cinco horas después de haber sido baleada. Aunque esto no sanará el dolor de los familiares del fallecido, las autoridades notificaron que segundos después del ataque, el homicida, quien es un menor de edad, fue detenida y el arma con la que cometió el crimen fue incautada. En el lugar de los hechos es poco lo que se habla de esta muerte, pues muchos prefieren evitar responder cuando se les pregunta sobre lo ocurrido la mañana de este sábado, mientras que otros evitan ser interrogados porque saben que la delincuencia está al acecho, y ellos podrían ser un nuevo blanco. Este podría ser un nuevo homicidio que quede en la impunidad, si los investigadores judiciales no pueden obtener la información pertinente del capturado. Si se corre con suerte, el asesino podría dar pistas claras de quiénes fueron los que lo contrataron para accionar la pistola, y delatar la red criminal que está detrás de este reciente caso judicial que se presentó en el barrio Santa Fe, en la localidad de Los Mártires. Asesinado por la espalda. Eran las 10 a.m. de la mañana de este sábado cuando detonó el primer disparo justo en el corazón del barrio Santa Fe, en plena carrera 16A con calle 23. Se trataba de un joven que no superaba los 17 años quien empuñaba una pistola en dirección a un hombre de entre 30 a 35 años, quien indefenso cayó al suelo al ser impactado por el primer proyectil. Vecinos de la zona dicen que fueron entre tres y cuatro disparos los que sonaron en ese barrio de excesos, fiesta de domingo a domingo, y mujeres lujuriosas que cambian pasión por dinero. Entérate de la nota completa en nuestra edición impresa.  Si se corre con suerte, el asesino podría dar pistas claras de quiénes fueron los que lo contrataron para accionar la pistola, y delatar la red criminal que está detrás de este reciente caso judicial que se presentó en el barrio Santa Fe, en la localidad de Los Mártires. Asesinado por la espalda. Eran las 10 a.m. de la mañana de este sábado cuando detonó el primer disparo justo en el corazón del barrio Santa Fe, en plena carrera 16A con calle 23. Se trataba de un joven que no superaba los 17 años quien empuñaba una pistola en dirección a un hombre de entre 30 a 35 años, quien indefenso cayó al suelo al ser impactado por el primer proyectil. Vecinos de la zona dicen que fueron entre tres y cuatro disparos los que sonaron en ese barrio de excesos, fiesta de domingo a domingo, y mujeres lujuriosas que cambian pasión por dinero.  Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El final de una celebración en un bar de Bosa no pudo ser otro que la muerte, debido a que un hecho de intolerancia se desencadenó entre los presentes. Una riña que inició adentro del establecimiento y se desplegó a lo largo de una calle del barrio San Pedro, suroccidente de Bogotá, acabó con la vida de un joven de 25 años llamado Jonathan Ferney Linares Garzón, quien recibió una puñalada en el cuello a manos de un sujeto con quien se enfrentó durante la madrugada de este domingo. Los presentes en el hecho hasta ahora no han logrado confirmar la causa de la diferencia entre la víctima y el victimario, pero vecinos de la zona presumen que todo se habría presentado por un problema de tragos, algo que seguramente se hubiera podido solucionar por las vías del diálogo. “En ese bar no es que se presenten problemas ni mucho menos, de hecho hace rato no pasaba nada raro por acá. Estaban contando que posiblemente esa pelea fue por una mala mirada o un cruce de palabras que generó disgusto en uno de ellos”, indicó un tendero del sector. El trabajo de las autoridades y la versión de un testigo permitió dar con el paradero del responsable de este acto delictivo, quien fue capturado, y a esta hora responde ante un juez por el delito de homicidio agravado. En la escena del crimen la Policía Judicial halló el arma blanca con la que le quitaron la vida a Linares Garzón, elemento que se convirtió en prueba contundente para poder culpar al presunto homicida, identificado como C. Rodríguez. Entérate de la nota completa en nuestra edición impresa.</t>
   </si>
   <si>
     <t xml:space="preserve"> Se trataba de un clan familiar. En las últimas horas el grupo de investigación judicial de la Policía de Bogotá, en coordinación con la Fiscalía General de la Nación, capturó a cinco integrantes de la estructura criminal ‘Los Costas’, la cual estaba integrada por cinco personas: una mujer, dos allegados varones y otros dos sujetos. “Se trataba de un clan familiar dedicado al tráfico de estupefacientes”, aseguró el Mayor Alex Vanegas, jefe de la Unidad Investigativa de la Sijín Bogotá. Utilizaban consumidores y habitantes de calle para comercializar las sustancias ilícitas. Docena de asesinatos en Ciudad Bolívar. Esta organización delincuencial operaba en la localidad de Ciudad Bolívar, más exactamente en el barrio La Estancia, donde alias ‘Neyder’, líder de la organización, se apoderó de un lote donde empezó a acopiar los alucinógenos, traídos del Cauca y empacados en Soacha. Se les atribuye 12 homicidios, de los cuales la Policía ya ha esclarecido cuatro. Hombre del CTI, una de las víctimas. El mayor Vanegas indicó que una de las víctimas mortales de esta banda se trataba de un investigador del Cuerpo Técnico de Investigación de la Fiscalía: “en el año 2012, cuando el CTI se encontraba realizando actividades investigativas en ese sector en contra de esta estructura criminal, hubo un enfrentamiento e infortunadamente perdió la vida uno de los investigadores”. Entérate de la nota completa en nuestra edición impresa.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Luego de que Kennedy encabezara la lista de las localidades más inseguras al registrarse entre enero y junio de este año 70 homicidios, 4990 casos de atracos y la captura de 2600 personas en flagrancia por varios delitos (según cifras de la Secretaría de Seguridad), desde la Alcaldía Mayor se gestó la propuesta de realizar un plan de choque que según el alcalde mayor de Bogotá, Enrique Peñalosa, podría hacer frente a la criminalidad. Por esta razón, en las próximas semanas, se dará inicio a una jornada de ley seca que se extenderá por tres meses, que durará las 24 horas del día y los siete días de la semana. A continuación le contamos todo lo que debe saber de esta situación que no afectará a los comerciantes quienes tengan sus locales constituidos como bares de manera legal. ¿Dónde será la medida? El alcalde confirmó en las últimas horas que la restricción para consumir bebidas embriagantes se implementará en los barrio María Paz, Corabastos y El Amparo, sitios que se han caracterizado por el aumento de hechos de intolerancia, muchos de ellos vinculados con el licor. Cuando inicie la ley no se descartará que esta se amplíe hacia los barrios aledaños. Pero por ahora se hará una prueba con los barrios mencionados anteriormente. Entérate de la nota completa en nuestra edición impresa.  Por esta razón, en las próximas semanas, se dará inicio a una jornada de ley seca que se extenderá por tres meses, que durará las 24 horas del día y los siete días de la semana. A continuación le contamos todo lo que debe saber de esta situación que no afectará a los comerciantes quienes tengan sus locales constituidos como bares de manera legal. ¿Dónde será la medida? El alcalde confirmó en las últimas horas que la restricción para consumir bebidas embriagantes se implementará en los barrio María Paz, Corabastos y El Amparo, sitios que se han caracterizado por el aumento de hechos de intolerancia, muchos de ellos vinculados con el licor. Cuando inicie la ley no se descartará que esta se amplíe hacia los barrios aledaños. Pero por ahora se hará una prueba con los barrios mencionados anteriormente.  Entérate de la nota completa en nuestra edición impresa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lo que parece ser una medida que beneficiará al comercio de Bogotá, especialmente a los establecimientos nocturnos, tiene preocupados y descontentos a varios habitantes que residen cerca a los bares y discotecas, pues ahora tendrán que aguantar hasta que salga el sol las fiestas debido a la nueva medida implementada por la Alcaldía. El Distrito pretende ponerle Sello Seguro a los establecimientos ejemplares que cumplan 16 requisitos indispensables para que puedan mantenerse abiertos al público hasta las 5 de la mañana, dos horas más de las que están permitidas actualmente. La medida fue lanzada en los últimos días y ha causado discordia y varias opiniones, en su mayoría negativas, debido a que los ciudadanos temen que esto implique en que se disparen los homicidios, las riñas y la inseguridad . “Uno ahora no solo va a tener que aguantarse la música hasta las 3 de la mañana, sino hasta las 5. A este paso vamos a tener que vender la casa para que monten un bar para que no seamos víctimas del insomnio y el ruido”, narró Gloria Díaz, residente del barrio Restrepo (Antonio Nariño). Sin embargo, esta implementación hace parte de una de las propuestas del alcalde Enrique Peñalosa, que consiste en convertir a Bogotá en una ciudad 24 horas y tiene como objetivo mejorar la movilidad alrededor de los rumbeaderos de la 85, la Primero de Mayo, El Restrepo, entre otros. “Lo que buscamos es certificar a los bares de Bogotá, que le garanticen a sus clientes total seguridad y que además contribuyan al bienestar de sus sectores”, afirmó el secretario de Gobierno, Miguel Uribe Turbay.  Cabe resaltar que los establecimientos nocturnos que quieran funcionar hasta las 5 de la mañana deben cumplir con las condiciones y respetar el artículo 87 de la Ley 1801 de 2016, Código Nacional de Policía y Convivencia, o de lo contrario serán suspendidos de los beneficios. “En caso de que no se cumplan los requisitos una vez entregada la certificación será suspendida inmediatamente la posibilidad de extender el horario durante seis meses”, agregó Uribe Turbay. Requisitos que debe cumplir su establecimiento.  La Secretaría Distrital de Gobierno verificará el cumplimiento de algunos requisitos que deben anexarse en la radicación en línea a través de la página web www.gobiernobogota.gov.co. Luego de tener estos papeles al día y anexados en la página de la Secretaría de Gobierno, se procederá a expedir la certificación de Sello Seguro para el establecimiento y que tendrá vigencia de un año. Entérate de la nota completa en nuestra edición impresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eran familiares del niño asesinado. Papá, mamá abuelo, tío y hasta la amante del padre de Dylan Moreno, niño de ocho años que fue asesinado el 24 de octubre pasado en el barrio El Jardín de la localidad de Bosa por cuenta de un presunto ajuste de cuentas, lideraban la estructura delincuencial ‘Los Chinches’, la cual se dedicaba a la venta de estupefacientes y los homicidios selectivos por el control del territorio. 4 armas de fuego se les halló, entre ellas una escopeta y una pistola artesanal, custodiadas por alias ‘Sierra’, también capturado. En total fueron 13 los capturados. Además de los cinco allegados del pequeño Dylan, gracias a la colaboración con la Fiscalía se capturaron a otros 8 integrantes. Con esto se logró esclarecer 11 homicidios que se habían perpetrado en la zona durante los últimos dos años relacionados con guerras entre bandas dedicadas al microtáfico en Bosa. Barrios afectados en ocho años. De acuerdo con las autoridades ‘Los Chinches’ llevaban al menos 8 años haciendo presencia en los entornos escolares y parques de varios barrios de Bosa, entre ellos los más afectados eran: San Bernardino, El Remanso, Villa Emma, El Triunfo, Villa del Progreso y San Joaquín.  Entérate de la nota completa en nuestra edición impresa.</t>
+    <t xml:space="preserve"> Nueve meses y 11 días después del asesinato de Juan Sebastián Salcedo Balceros, la justicia se pronunció de forma contundente contra uno de los integrantes de la banda delincuencial que por hurtarle el carro, afiliado a la plataforma Uber, le arrebató la vida el pasado 27 de enero. En las últimas horas el Juzgado 51 Penal de Bogotá condenó a 29 años de prisión a Jesús David Tovar Araque, por el delito de homicidio agravado en concurso con hurto calificado y agravado, esto después de que en marzo se entregara a la justicia y aceptara los cargos. Q’HUBO se puso en contacto con la mamá de la víctima de 25 años, quien tenía proyectos de vida fuera del país. Nancy Balceros, con la calidez humana que la caracteriza, se mostró de acuerdo con el castigo que le impusieron a uno de los agresores de su amado hijo. “Dicen que él (Tovar Araque) es el jefe de la banda, pero eso no lo podemos asegurar, porque ellos (los demás detenidos) lo dicen de pronto para encubrir a alguien que esté por encima de ellos. “Respecto al tiempo de condena que le dieron, la verdad, aunque con eso ya no podemos recuperar la vida de mi Sebas, en cierto modo es un aliciente para mí como mamá y para el resto de mi familia, que venimos llevando el sufrimiento de la pérdida de la vida de Sebas desde hace ya casi diez meses. “Creo que son justos los 29 años, quedo tranquila con ese tiempo”, aseguró Nancy aún con nostalgia y sintiendo el enorme vacío que le dejó el crimen de su hijo. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Con la certeza de que las autoridades no lo estaban buscando, alias ‘Pinocho’ salió con un morral colgado en su espalda y vestido de sudadera en los últimos días desde Medellín rumbo a Bogotá, ciudad en la que estaba refugiado hace tres meses, luego de perpetrar un crimen. Pero su plan de huida, que hasta hace pocas horas parecía perfecto, no concluyó como el homicida lo esperaba, pues apenas se acomodó en una vivienda de la localidad de Fontibón, las autoridades llegaron de inmediato a capturarlo por el asesinato de Mario Felipe Chávez, ahijado de Clara López (exalcaldeza de Bogotá y excandidata a la Presidencia de Colombia). La culpa y el remordimiento que durante estos tres meses acompañaron a ‘Pinocho’ por el homicidio del joven, de 21 años, lo llevaron a aceptar su responsabilidad en este crimen justo cuando las autoridades le leían sus derechos y lo esposaban. A pesar de que en un principio se manejó la hipótesis  que se trataba de un intento de hurto, las autoridades desmintieron esta versión y manifestaron que fue en medio de un hecho personal, que hoy es materia de investigación. Se rumora que Chávez estaría involucrado en problemas de microtráfico; sin embargo, esta versión no fue confirmada de manera oficial por la Policía. La captura. Cuando el hombre estaba descansando dentro de una casa del centro de Fontibón fue sorprendido por la Policía, que interrumpió su sueño para que afronte ahora esta pesadilla. En medio de la captura, ‘Pinocho’ aceptó su responsabilidad en el homicidio y, con la cabeza inclinada, escuchó con calma sus derechos. En este momento el joven, quien oscila entre los 20 y 25 años, se encuentra detenido en la cárcel La Modelo, en donde permanecerá hasta su próximo juicio, en el que conocerá los años que deberá permanecer en prisión. Sebastián, como fue identificado el aprehendido, tenía antecedentes por los delitos de porte de armas de fuego y tráfico de estupefacientes, según revelaron las autoridades. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Llevado por un extraño impulso y desesperado por querer sacar a flote sus más bajos instintos, ‘Chaka’ caminó hasta una ferretería del barrio La Libertad (Bosa), en donde compró un puñal por $ 5 mil pesos y luego se devolvió hasta donde estaba departiendo con su buen amigo Alexis Lasso Melo, a quien se lo clavó en la garganta, destruyendo todo a su paso. Así fue como acabó una vida y una amistad que duró 20 años. Aunque el agresor huyó, pudo ser localizado por la Policía y puesto a disposición de la autoridad competente. En las últimas horas de ayer se conoció que su captura fue legalizada. Cuando se pregunta por Lasso Melo en las calles de la localidad séptima, gran parte de los moradores de ese sector saben de quién se trata y no les tiembla la voz para dar fe de sus buenas acciones, pero sobre todo de su impecable trabajo como barbero. En los últimos cinco años este joven se dedicó a cortar cabello, hacer buenos amigos, impregnar de sabor a los bogotanos y dejar en alto el nombre de su tierra natal, el municipio Santander de Quilichao, en donde hoy lo lloran por su repentina partida y lo esperan para despedirlo en un camposanto. Los amigos más cercanos al occiso aún no sale del estado de shock, ya que ninguno de ellos se explica cómo ‘Chaka’, inundado de licor, acabó con el joven con quien se crió y a quien decía querer tanto, como si se tratara de su mismísimo hermano. “Desde temprano ‘Chaka’ estaba tomando con Melo y con otros dos amigos. Todos estaban bien, como siempre, pero de un momento a otro se pudo cansón, estaba con ganas de pelear, hasta que se armó con un cuchillo y vino para matar a Melo. La gente que estaba con ellos intentó evitar el problema, pero no se pudo”, dijo una mujer cercana a la víctima fatal. Asesinó a su amigo. Este domingo, horas después de cometer el homicidio, ‘Chaka’ (como le dicen al agresor) fue llevado a la URI de Kennedy, en donde aún ebrio no podía ser consciente de sus actos. Horas más tarde, ya durante la madrugada de ayer, cuando la esposa y los amigos de Alexis lo pudieron ver, “en su cara se notaba el arrepentimiento y la preocupación tras sus actos”, dijeron ellos. Entérate de la nota completa en nuestra edición impresa.  Asesinó a su amigo. Este domingo, horas después de cometer el homicidio, ‘Chaka’ (como le dicen al agresor) fue llevado a la URI de Kennedy, en donde aún ebrio no podía ser consciente de sus actos. Horas más tarde, ya durante la madrugada de ayer, cuando la esposa y los amigos de Alexis lo pudieron ver, “en su cara se notaba el arrepentimiento y la preocupación tras sus actos”, dijeron ellos. Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un olor fétido que se colaba por las vías respiratorias de los vecinos de la vereda Atala (en Viotá, Cundinamarca), desde el pasado jueves, los obligó a cruzar ayer la cerca de la finca de don Luis Guillermo Castelblanco López y caminar hasta la ventana ubicada en la parte posterior del predio, desde donde se logró divisar a la mismísima muerte. No era un monstruo ni mucho menos un espanto, en esta oportunidad la muerte se reflejó en dos cuerpos ocultos en una caneca plástica, que daban cuenta de los más bajos instintos que tuvieron dos hombres al momento de ultimar al dueño de esas tierras y a su compañera sentimental, identificada como Marbelys González. Como si fueran unos especialistas, los delincuentes, además de acribillar a la pareja, los tomaron en brazos y los metieron en una caneca plástica (en donde se recolecta agua) y a su alrededor vertieron una mezcla de cemento y arena, con la cual pretendía ocultar el delito. Se presume que esta acción se habría perpetrado por los empleados de Luis Guillermo, tres hombres aparentemente extranjeros, quienes hace unos 15 días fueron contactados por él, en Bogotá, con el fin de que adelantaran unos arreglos locativos en su hogar de descanso. Después del doble homicidio se efectuó un millonario atraco cuyas pérdidas no han sido cuantificadas, debido a que se desconoce la clase de  objetos que tenían dentro de la vivienda; eso sí, se sabe que todo se lo llevaron en una camioneta, en la cual se cree que escaparon los victimarios. Con lo que no contaban los asesinos es que Luis y Marbelys eran una pareja reconocida y querida en esa vereda, por lo que desde el primer día que se ausentaron misteriosamente, sus vecinos y allegados empezaron a sospechar de los empleados, quienes en repetidas ocasiones les dijeron que ellos no estaban. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La fría y lluviosa mañana de ayer en las calles del barrio Acapulco (Ciudad Bolívar) se mancharon de sangre y dolor debido a un lamentable y violento hecho que se presentó en plena vía pública. Rodrigo Alberto Valdez Vélez (56 años) fue asesinado por un extraño que lo baleó mientras él conducía su camioneta. El sicario, al verlo indefenso y desprevenido, le propinó tres tiros certeros y Rodrigo quedó recostado sobre el manubrio sin signos vitales. Aunque sobre el atacante no se conocen mayores detalles y en este momento se encuentra campante por las calles del sur de Bogotá, se presume que el homicidio obedece a un ajuste de cuentas o venganza personal. Las razones del violento episodio hoy son materia de investigación por parte de las autoridades judiciales que realizaron el levantamiento del cadáver. Ellas serán las encargadas de darle una luz de esperanza a la familia del occiso, haciendo que el responsable pague tras las rejas por acabar con una vida. Ataque mortal. A eso de las 6:00 a.m. salió de su casa Rodrigo Alberto, quien se ganaba la vida comercializando vehículos de carga pesada. El hombre, quien transitaba solo en su camioneta azul de placa GNE 802, conducía tranquilamente por las calles sin imaginar que un pistolero le estaba siguiendo el rastro. En cuestión de segundos, antes de llegar a un semáforo ubicado en la avenida Boyacá con carrera 15 sur, fue interceptado por el sicario que se movilizaba en una moto y lo atacó sin darle la oportunidad si quiera de parpadear. El criminal sacó rápidamente su arma de fuego y le disparó en tres oportunidades. Los impactos que el comerciante recibió a la altura del pecho fueron tan contundentes, que Rodrigo no alcanzó a ser trasladado a ningún centro asistencial. Cuando las autoridades llegaron a hacer las respectivas verificaciones de lo que estaba pasando, alertados por el grito de auxilio de la comunidad, ya era demasiado tarde.  Ataque mortal. A eso de las 6:00 a.m. salió de su casa Rodrigo Alberto, quien se ganaba la vida comercializando vehículos de carga pesada. El hombre, quien transitaba solo en su camioneta azul de placa GNE 802, conducía tranquilamente por las calles sin imaginar que un pistolero le estaba siguiendo el rastro. En cuestión de segundos, antes de llegar a un semáforo ubicado en la avenida Boyacá con carrera 15 sur, fue interceptado por el sicario que se movilizaba en una moto y lo atacó sin darle la oportunidad si quiera de parpadear. El criminal sacó rápidamente su arma de fuego y le disparó en tres oportunidades. Los impactos que el comerciante recibió a la altura del pecho fueron tan contundentes, que Rodrigo no alcanzó a ser trasladado a ningún centro asistencial. Cuando las autoridades llegaron a hacer las respectivas verificaciones de lo que estaba pasando, alertados por el grito de auxilio de la comunidad, ya era demasiado tarde.  Entérate de la nota completa en nuestra edición impresa.  Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El día que José Antonio Suárez Correa sea recapturado tendrá que ir directo a la cárcel a purgar la condena de 35 años que le imputó un juez de Bogotá por haber matado a Jimmy Bastidas luego de quemarlo vivo en un predio del barrio San Martín de Loba en San Cristóbal. La medida se reafirmó la tarde de este lunes cuando el togado aseguró que el señalado, quien hoy está prófugo de la justicia, debe ser capturado lo más pronto posible para así responder como debe ante la ley por homicidio agravado. Además, en la audiencia que tuvo lugar en Paloquemao se dejó claro que hubo una evidente negligencia debido a que no se había emitido la orden de captura en contra del agresor, aunque todas las pruebas estaban en su contra. A partir de ahora la vida de Suárez Correa cambió, tal y como a la familia de Bastidas, pues el primero pasará los últimos días de su vida encerrado tras las rejas (cuando lo agarren), mientras que la esposa y los hijos del fallecido no han pasado un solo día en el que no piensen en ese ser que lastimosamente los abandonó sin siquiera poder despedirse. “En este país no se puede esperar más, pero por lo menos él (José Antonio) fue condenado. Pero igual sigue siendo muy difícil todo esto, porque por más años que le metan a él nada va a ser suficiente para sanar el dolor”, dijo a Q’HUBO Lizeth, la viuda de Jimmy Bastidas. Condenado pero en libertad. Aunque pareciera que todo se trata de una confusión, lastimosamente la realidad de este caso es algo diferente a la de los demás, ya que aunque el homicida fue cobijado con una ejemplar condena aún sigue libre y como si nada. Q’HUBO, quien acompañó a los Bastidas desde el primer momento de este hecho que ocurrió el 25 de noviembre de 2016, pudo conocer que este sufrimiento de la familia por justicia se está presentando desde que José Antonio fuera detenido horas después de haber quemado a Jimmy. Entérate de la nota completa en nuestra edición impresa.  Q’HUBO, quien acompañó a los Bastidas desde el primer momento de este hecho que ocurrió el 25 de noviembre de 2016, pudo conocer que este sufrimiento de la familia por justicia se está presentando desde que José Antonio fuera detenido horas después de haber quemado a Jimmy.  Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La noche del domingo, en medio de lo que sería una habitual jornada de ejercicio y de alegría al compartir con varios amigos, terminó convertida para los familiares, amigos y allegados a Mario Felipe Chávez Sánchez (21 años) en una desgracia que hasta el momento nadie explica. Mientras el joven hacía ejercicios en las barras del parque Mallorca II, ubicado en el barrio Capellanía (Fontibón), justo en la Carrera 87c con Calle 22 fue interceptado por dos sujetos que presuntamente bajaron de una moto y le propinaron dos impactos de bala. Aunque hay versiones a que apuntan a que en el acto también actuó una mujer. A  pesar de que Mario Felipe alcanzó a ser trasladado al Hospital de Fontibón, las heridas que le provocaron los bandidos en el pecho fueron letales y terminó falleciendo en los brazos de uno de sus amigos cercanos. Nadie pudo hacer algo por ayudarlo y los latidos de su corazón se apagaron para siempre. Por ahora se presume que el hecho respondería a problemas personales que con antelación tenía el joven, quien además era ahijado de la ex candidata vicepresidencial y ex alcaldesa de Bogotá Clara López Obregón. Q’HUBO pudo conocer las versiones de algunos amigos cercanos a Felipe, quienes estuvieron con él en los últimos momentos de su vida. Los jóvenes aseguran que descartan por completo que el hecho se trate de un intento de hurto, ya que al muchacho en ningún momento del ataque le pidieron sus objetos personales o lo amedrentaron para entregarlos. “Las personas que lo atacaron sabían muy bien en dónde era que nosotros nos encontrábamos y cuando llegaron lo atacaron inmediatamente, no dudaron un segundo. Si se hubiera tratado de un robo todos actuábamos para detener a esos asesinos y defender a Felipe, pero lo agredieron a quemarropa. Esos desgraciados sabían muy bien el acto que iban a cometer”, aseguró un amigo cercano a la víctima. Por ahora las autoridades de la Sijín se encuentran adelantando las respectivas investigaciones para esclarecer las verdaderas causas del terrible crimen, pues además de las versiones que ya se han planteado existe una hipótesis adicional que dice que supuestamente el homicidio se trataría de un ajuste de cuentas relacionado con la venta de drogas. Los allegados al joven solo esperan que se haga justicia y que se dé rápidamente con el paradero de los responsables para que paguen ante la justicia. “Las personas que lo atacaron sabían muy bien en dónde era que nosotros nos encontrábamos y cuando llegaron lo atacaron inmediatamente, no dudaron un segundo. Si se hubiera tratado de un robo todos actuábamos para detener a esos asesinos y defender a Felipe, pero lo agredieron a quemarropa. Esos desgraciados sabían muy bien el acto que iban a cometer”, aseguró un amigo cercano a la víctima. Por ahora las autoridades de la Sijín se encuentran adelantando las respectivas investigaciones para esclarecer las verdaderas causas del terrible crimen, pues además de las versiones que ya se han planteado existe una hipótesis adicional que dice que supuestamente el homicidio se trataría de un ajuste de cuentas relacionado con la venta de drogas. Los allegados al joven solo esperan que se haga justicia y que se dé rápidamente con el paradero de los responsables para que paguen ante la justicia. Entérate de la nota completa en nuestra edición impresa.  Entérate de la nota completa en nuestra edición impresa. </t>
   </si>
   <si>
     <t xml:space="preserve"> En 72 horas dos homicidios han sacudido el centro de Bogotá y el temor parece apoderarse de los capitalinos que frecuentan esta zona, pues hasta ahora no hay una versión oficial sobre lo ocurrido. Rumores de testigos y algunos curiosos dan cuenta de que estas dos recientes muertes podrían estas vinculadas, pues se presentaron a tan solo una cuadra de diferencia y esta última sería aparentemente en venganza por el primer homicidio. Las autoridades prefirieron no apresurarse a sacar conjeturas y por su parte no confirman esa hipótesis. Pero el silencio, a veces cómplice de los testigos que conocieron estos dos casos, da a entender que allí se esconde algo. Adiós al mecánico. A las 11:30 a.m de este lunes festivo volvieron a detonar varios disparos cerca a los talleres de mecánica de motocicletas, justo en la calle 17 A con carrera 15. Los estallidos del arma de fuego se confundieron con los gritos  desesperados de los testigos quienes corrieron a esconderse para evitar ser alcanzados por alguno de estos proyectiles. En el lugar de los hechos cuentan que frente a su local de motos se encontraba Óscar Éver Torres Rubiano (30 años) realizando algunos arreglos en unos vehículos cuando fue interceptado por un sujeto, quien sin mediar palabra le disparó en múltiples oportunidades. Entérate de la nota completa en nuestra edición impresa.</t>
@@ -250,99 +637,280 @@
     <t xml:space="preserve"> Más de la mitad de su vida ‘El Tigre’ se ha dedicado a traficar armas de fuego. Así lo dio a conocer una importante investigación que tuvo resultado la mañana de ayer cuando se conoció la captura de este hombre, quien es señalado de abastecer de armas y municiones a las bandas criminales de cuatro localidades de Bogotá. Según la Policía, él, muy cerca de los 60 años, compraba, reparaba, vendía y hasta inventaba toda clase de armas de fuego con el fin de ponerlas al servicio de organizaciones delictivas del sur, las cuales son señaladas de cometer millonarios hurtos y homicidios. Más información en nuestra edición impresa.</t>
   </si>
   <si>
-    <t xml:space="preserve"> ¡No, no es un chiste! En Facebook están promoviendo una protesta para el próximo sábado en el monumento del Ángel de la Independencia (Ciudad  de México) para que Paquita la del Barrio cambie el repertorio de sus canciones, tal y como lo hizo Café Tacuba, que dejó de interpretar la canción ‘Ingrata’ porque promueve la violencia de género. “Los hombres nos sentimos indignados por las letras de Paquita le del Barrio, las cuales incitan a la violencia de género y homicidios”, reza el perfil de quienes convocan a la marcha. Recordemos que la artista mexicana es famosa por sus temas ‘Rata de dos patas’, ‘Hombres malvados’, ‘El club de los inútiles’, ‘Duro y contra ellos’ y ‘Bórrate’, entre otras. ¡Qué polémica! Encuentra más noticias como esta en la sección Mundo Insólito de tu periódico Q’hubo.</t>
+    <t xml:space="preserve"> Una vez se pelearon a bala con las autoridades, dos delincuentes fueron acorralados por la Policía y, posteriormente, capturados tras robar a una habitante del barrio El Tunal (Tunjuelito). Los sujetos, quienes se movilizaban en un taxi de placas VDN 210, fueron denunciados por la misma comunidad cuando se percataron de que habían cometido un atraco. El llamado al cuadrante alertó a los uniformados, quienes de inmediato comenzaron a buscar el vehículo amarillo con las características que habían entregado los residentes. Exactamente en la carrera 24 con calle 52B sur fueron retenidos por, al menos, 15 oficiales que unieron sus esfuerzos para ubicarlos. Tras la captura, las autoridades se dieron cuenta de que uno de los delincuentes portaba en el pie izquierdo un brazalete del Inpec, ya que se encontraba pagando una condena de casa por cárcel; sin embargo, tras su aprehensión perdió este beneficio. “El sujeto estaba pagando una condena por hurto, pero por ser reincidente y no acatar las órdenes judiciales, será enviado a un establecimiento carcelario”, manifestó un uniformado de la Policía Metropolitana de Bogotá. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Además de las pertenencias, a Arbey Humberto Rubiano Figueroa le robaron la vida. Él no fue la única víctima de un hecho delictivo, sino también sus seres queridos quienes con su partida perdieron la felicidad y en parte un pedazo del corazón, porque él se lo llevó anclado con su muerte. El dueño del asadero, ubicado en la localidad de Usme, pereció en medio de un atraco cuando dos hombres ingresaron a su local comercial y durante la acción delictiva le dispararon aún cuando ya se habían llevado todos los objetos de valor que habían allí. Los allegados a la víctima declararon a Q’HUBO que rechazan rotundamente esta acción criminal y dejaron claro que lo ocurrido se trató únicamente de un hurto, mas no de un supuesto ajuste de cuentas como personas inescrupulosas lo dijeron en su momento. “Él lo único que sabía hacer era trabajar, era un man entregado a su negocio y a su familia, nunca le hizo mal a nadie como para que digan otras cosas. Además, a él lo robaron y a los empleados también, entonces no le pueden dañar la imagen”, afirmó un allegado a la víctima. Las autoridades indicaron que están trabajando en la respectiva investigación que podrá ayudar a establecer un retrato hablado de los responsables, de quienes además se dice en el sur de Bogotá que harían parte de una red criminal dedicada al hurto. Último día de trabajo. Desde hace unos dos años aproximadamente Arbey adquirió el asadero ubicado en una de las esquinas del barrio Santa Marta, justo a la altura de la Carrera 13 con Calle 71F sur (Usme). El punto comercial le dio la oportunidad de darse a conocer en el sector, por lo que sus vecinos también lamentaron lo sucedido y pidieron justicia. Este domingo, día de mayor venta en el asadero llamado Salsa y Picante, Rubiano despertó muy temprano, convocó a sus empleados y empezó a trabajar muy activo como siempre. Lo primero fue hacer el aseo general en el local, para posteriormente abrir al público. Entérate de la nota completa en nuestra edición impresa.  Este domingo, día de mayor venta en el asadero llamado Salsa y Picante, Rubiano despertó muy temprano, convocó a sus empleados y empezó a trabajar muy activo como siempre. Lo primero fue hacer el aseo general en el local, para posteriormente abrir al público. Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los habitantes de los barrio La Esmeralda y La Independencia (Bosa) saben muy bien que cruzar por el camino destapado, ubicado al lado del río Tunjuelo, significa poner sus vidas en riesgo, pero tienen más claro aún que no hay otra opción cuando de trasladarse de un sector a otro se trata. Además de enfrentarse al mal estado de la vía, estas personas tienen que sortear a los delincuentes, quienes asechan desde el pasto como hienas hambrientas para asaltar a sus ‘presas’ y llevarse cualquier objeto de valor e incluso, en el peor de los casos, arrebatarles la vida. Aunque pareciera difícil de creer, esa última situación le tocó vivir a la familia Muñoz Jaramillo, quienes perdieron a uno de sus integrantes luego de haber sido víctima de un robo, en el que además de perder su bicicleta (lo de menos), también perdió la vida por el disparo que le propinaron en la cabeza. Lo delincuentes no tienen límite y un lamentable ejemplo de esa afirmación son este tipo de situaciones que parecieran ser más frecuentes con el paso de los días. Según cifras entregadas por el Concejo de Bogotá, entre enero y marzo del año pasado fueron robadas 382 bicicletas solo en Bogotá, mientras que en ese mismo periodo de este año se conocieron 879 casos de atraco a biciusuarios, eso sin contar cuántos fueron asesinados y heridos. Las autoridades aseguraron que ya están haciendo presencia en las zonas en donde se denuncian más robos de bicicletas, en localidades como Bosa, Kennedy, Fontibón y Engativá, pero hasta ahora los hurtos parecen no disminuir. “Todos los días tenemos que pasar por este camino (ronda del río Tunjuelo), pero nunca vemos Policía o personas cuidando. Esto es muy solo pero nunca nos ha pasado nada, aunque uno se asusta con las cosas que suceden por acá”, dijo un menor de edad, quien a diario cruza esa vía peatonal para llegar y salir del colegio en donde cursa séptimo grado. Disparos y robo. Como Jéfferson Yesid Muñoz Jaramillo fue identificado el joven de 23 años, quien recibió un disparo en la cabeza durante la noche de este domingo. Según los vecinos de los barrios La Esmeralda y La Independencia, todo ocurrió pasadas las 7 p.m. cuando el joven se movilizaba por el paso peatonal en sentido sur norte, seguramente con destino a su vivienda. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El pedaleo de Cristian Camilo Rodríguez Novoa a bordo de su bicicleta lo llevó hasta el barrio Timiza (Kennedy), el lugar que visitó por última vez y en donde delincuentes lo atacaron de un disparo para robarle su bicicleta. Se cree que el joven, de unos 27 años, intentó evitar la acción de los bandidos pero estos, queriendo cumplir con su objetivo, acabaron con su existencia y sin pena ni dolor tomaron el lujoso vehículo de dos ruedas para desaparecer de la escena. Los vecinos del sector en donde ocurrió esta muerte creen que los atracadores (se presume que eran dos) siguieron por varios minutos al joven hasta un lugar desolado en donde pudieran llevar a cabo su macabro plan. “Aunque por acá casi no se presentan hurtos, cuando empiezan a ocurrir los atracos se vuelven numerosos y, como en este caso, hasta hay muertos”, dijo un residente del suroccidente de Bogotá. La Policía judicial que se hizo a cargo de la investigación visitó la escena del crimen e intentó hallar pistas que los condujera al paradero de los asesinos, pero hasta ahora, al parecer, no hay una sola señal de quiénes serían los pistoleros que ultimaron a este deportista. Q’HUBO intentó hablar con los allegados a la víctima para conocer su versión de la situación, pero estos prefirieron no dar declaraciones debido a que esperan que la justicia haga lo propio y los homicidas sean capturados. Último recorrido en bicicleta. Aunque no está confirmado, se cree que Cristian Camilo salió en su cicla ayer muy temprano desde el sur de la capital con el fin de encontrarse con uno de sus amigos para hacer deporte. Cuentan en el lugar de los hechos que él aparentemente venía desde el barrio Carimagua y atravesó por entre las calles hasta llegar al sector de Timiza, muy cerca al popular parque Lago Timiza, en la localidad de Kennedy. Posiblemente los criminales, que segundos más tarde le arrebatarían la vida a Rodríguez Novoa, lo habrían visto pedaleando solo por la zona, razón por la que presuntamente lo siguieron con sigilo durante varios minutos. El hoy fallecido no se percató de la presencia de los desconocidos, razón por la que siguió su camino hasta la carrera 72J bis A con calle 40C sur, en donde se encontraría con su compañero de deporte. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‘Los llaveros‘ era una organización delincuencial de 12 personas, entre ellas una mujer, que se dedicaba al hurto a personas y comerciantes. Ellos aprovechaban cualquier descuido, en especial el tumulto de gente, para poder actuar. Por lo menos, atracaban diariamente a alrededor de 10 personas. Los bandidos acostumbraban a delinquir en el corazón de Bogotá; es decir, en la Plazoleta de La Mariposa, ubicada en el sector de San Victorino (Santa Fe), entre la avenida Caracas y la carrera 10. Encuentre toda la información de la captura de estos pillos en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Una bomba incendiaria que lanzaron en contra de los uniformados que custodiaban las instalaciones de la emisora RCN, dejó a un patrullero de la policía con lesiones de consideración en su mano derecha, después de que le prendieran fuego a su uniforme durante las protestas que se llevaron a cabo ayer en horas de la tarde. Pero este no fue el único hecho vandálico que ocurrió. El edificio de este medio también fue violentado a manos de jóvenes que lanzaron, además de bombas incendiarias, pintura y piedras en su contra. Esta no es la primera vez que RCN es blanco de ataques durante las concentraciones estudiantiles, pues  en las tres protestas anteriores ataques similares se han registrado. La Policía Nacional se pronunció sobre las agresión de las que fueron víctimas los uniformados de la institución. “Rechazamos cualquier acto de violencia que ponga en riesgo la integridad del ser humano. Exaltamos a estos héroes de carne y hueso que entregarían hasta su vida si fuera necesario por proteger la de los demás #DiosYPatria”, escribieron en su cuenta de Twitter. Colapsó la ciudad. Pero esto no fue lo único tras las marchas de ayer. Caos y desesperación fueron algunos de los sentimientos que embargaron a los bogotanos durante la tarde, pues los manifestantes también bloquearon las principales vías de la ciudad y varios carriles de TransMilenio. Movilidad confirmó, al cierre de esta edición, que en total 22 estaciones del sistema estaban cerradas debido a que la flota de articulados no había podido salir de los principales portales. La imagen de la noche no fue otra que cientos de capitalinos caminando por las vías de TM a la altura de la troncal de la avenida Caracas, por la carrera 30 y por la calle 26,  porque no había transporte que supliera la necesidad de llegar a sus viviendas. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Durante seis meses los trabajadores del país esperaron con ansias la llegada del pago de la prima, dinero que casi siempre es empleado para los gastos que representan la época navideña. Pero ojo, hay muchos amigos de lo ajeno que por estos días están detrás de cualquier papayazo, así que tenga cuidado. Q’HUBO habló con la coronel Patricia Lancheros, jefe de la oficina de Prevención y Educación Ciudadana de la Policía de Bogotá, quien nos dio una serie de recomendaciones para cuidar la prima en esta temporada de compras. “Es importante no generar la oportunidad para que el delincuente no se quede con su platica”, dice la uniformada. Que no se le lleven las compras del carro. “Otro caso que se presenta por estos días se da con las compras en carro. Muchos prefieren dejarlo en un parqueadero no autorizado o en la calle, con los regalos dentro del vehículo, y eso da pie para que el delincuente aproveche y se lleve el carro, o rompa los vidrios y se lleve las compras. También pueden abrir las puertas con una ganzúa o algún otro elemento y llevarse lo que tenga a la vista. Se recomienda guardar los paquetes dentro de baúl para que no se vean; no hay que dejar nada que sea visible para el delincuente. Además, se debe guardar el carro siempre en parqueaderos autorizados, pese a que a veces a la gente le da pereza simplemente porque le toca pagar o porque debe dar más vueltas para ingresar a un parqueadero”. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Del afán solo queda el cansancio”, reza un viejo refrán, pero en el caso de Jhon Mateo Pacheco lo único que quedó fue su muerte y una familia sumida en una profunda tristeza por cuenta del aparatoso accidente de tránsito, que se registró en la mañana de ayer. Un presunto exceso de velocidad le cobró la vida al hombre que iba a bordo de su automóvil gris por el carril derecho de la vía que de Bogotá conduce a Mosquera. Finalmente, terminó chocando por detrás a un tractocamión, el cual no sufrió daños. Jhon Mateo perdió la vida minutos después del accidente, pues quedó atrapado en el interior del vehículo, el cual fue declarado en pérdida total. “Un grupo de rescatistas y la Policía tuvieron que ayudar a sacar el cuerpo del señor, porque estaba aprisionado”, aseveró un testigo del incidente. Trágico destino. El reloj marcaba las 8 de la mañana de ayer y el cielo tenía la apariencia de mar, pues estaba azulado y despejado, tanto que los rayos de sol se distinguían y se reflejaban en el automóvil gris que conducía Pacheco. La confianza con la que Jhon Mateo conducía su vehículo por esta vía -que según cuentan la conocía a la perfección- lo llevó a aprovechar el escaso flujo vehicular que había a esa hora para acelerar por la recta y ganar tiempo para llegar a su destino. Pero justo cuando salía de Bogotá, a la altura de las bodegas HL, un tractocamión tomó repentinamente el carril derecho desde una trocha que está a un lado de la carretera. Pacheco no alcanzó a reaccionar y chocó violentamente contra este. Su muerte fue instantánea. Entérate de la nota completa en nuestra edición impresa.  Pero justo cuando salía de Bogotá, a la altura de las bodegas HL, un tractocamión tomó repentinamente el carril derecho desde una trocha que está a un lado de la carretera. Pacheco no alcanzó a reaccionar y chocó violentamente contra este. Su muerte fue instantánea. Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Aprovechando la oscuridad de la noche y la soledad de los barrios Villa Hermosa y El Nuevo Portal (en Usme), el sicario abordó a Fabián Andrés Baquero Rodríguez y sin pensar dos veces accionó su arma de fuego. El disparo ingresó en el abdomen del joven. Aún sabiendo que ese balazo había sido efectivo, el infame gatillero decidió hacer un disparo más, seguramente para que nadie lo siguiera o para fomentar terror en la novia de la víctima, quien estaba con él al momento del ataque. Vecinos y Policía del sur de Bogotá se unieron para preservar la vida del joven de 25 años, pero los esfuerzos no sirvieron de nada debido a que el disparo afectó sus órganos vitales y apagó su vida cuando iba de camino al centro médico más cercano. Por una pista que brindaron los testigos, el criminal podría ser identificado en las próximas horas gracias a la labor que adelantan las unidades de la Sijín de la Policía. Crimen en el callejón. El primer disparo sonó a las 8 p.m. del martes, el segundo unos 30 segundos después. Cuando las detonaciones parecían haber parado, los moradores de la localidad de Usme salieron a ver qué ocurría y como el pánico aún los invadía prefirieron llamar a la Policía para que fueran ellos quienes confirmaran. Q’HUBO visitó el lugar de los hechos y junto con los relatos de los vecinos reconstruyó los últimos momentos de Baquero Rodríguez. Minutos antes de que fuera herido con un disparo, el joven fue visto caminando por la Diagonal 98 bis sur, por donde dio varios pasos en compañía de su amada, hasta llegar a la Carrera 7C este. “Los pelados se veían tranquilos, yo los vi que estaban subiendo desde la avenida principal y luego, cuando sonaron los disparos, yo caminé hacia allá porque sentía que les había pasado algo”, dijo un vecino. Entérate de la nota completa en nuestra edición impresa.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¿Abuso de autoridad? En los últimos días la Policía Nacional volvió a ser motivo de escándalo, esta vez porque uno de sus hombres fue señalado por el delito de extorsión. Según la Fiscalía, el acusado le había solicitado dinero a un hombre que enfrentaba un proceso judicial. Todo parece indicar que el ahora exuniformado, presuntamente abusando de su calidad de investigador en dicho caso, le solicitó dinero al sujeto, afirmando que iba a salir bien librado si accedía a ese “beneficio”. El proceso de la víctima. Q’HUBO conoció que la víctima de esta extorsión es un sujeto de entre 30 y 35 años, quien enfrenta un proceso legal por el delito de violencia intrafamiliar. Según las autoridades, el caso estaba en manos del Centro de Atención Penal Integral a Víctimas, en la Fiscalía de Bogotá, y el hombre de la Sijín de la Policía, identificado como Chacón Mendoza, tenía la labor de investigar lo ocurrido para recolectar pruebas en contra del sujeto. Al parecer, luego de ser hallado responsable de la agresión a su pareja, el hombre empezó a ser hostigado por el oficial, quien le exigía dinero para no agravar su situación. Así fue detenido. Una vez la víctima de la extorsión denunció y las autoridades realizaron una labor de seguimiento y control, identificaron que efectivamente el investigador estaba cometiendo un delito, la Fiscalía emitió una orden de captura y  el pasado 13 de noviembre fue detenido en las instalaciones del Centro de Atención Penal Integral a Víctimas, ubicado en la calle 19 con carrera 27, en la localidad de Los Mártires. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¿Quién iba a pensar que un exsargento mayor  de la Policía, con una carrera prominente, tendría que olvidar ese sueño para convertirse en vendedor de tintos? Pero para el venezolano Romer Ferrer no fue una idea tan descabellada, ya que gracias a esos tintos hoy puede llevar un sustento a su casa y ayudar a construir un futuro para su amada familia. Por la difícil situación que enfrenta su amada Venezuela actualmente, Romer (52 años) no tuvo otra opción que emigrar con su familia hace siete meses de su país para empezar a buscar un nuevo destino en su ahora querida Colombia, lugar que según él le ha brindado grandes oportunidades para levantarse después de ese duro golpe que vivió.  Poco tiempo después de haber llegado a Bogotá, Ferrer tuvo la oportunidad de emprender una nueva aventura como tintero. “A los días de haber llegado, mi nuera me regaló un termo con el que empecé a vender tintos, estuve algo nervioso porque yo nunca había hecho eso, pero un hombre responsable tiene que velar por su familia”, aseguró Romer. Prepara tinto y alaba a Dios. Él junto a su esposa se levantan a las 4:30 de la mañana para preparar ese delicioso tinto que con el carisma que lo caracteriza sale a vender por el barrio La Gaitana (Suba) y la Avenida Ciudad de Cali (Kennedy). “A las 6:20 a. m. voy a vender el tinto, luego regreso a las 2:30 p. m. a mi casa para almorzar, reposo y salgo de nuevo a vender tinto, y de ahí me quedo hasta las 7 de la noche”, afirma Ferrer, un hombre que dedicó 28 años de su vida como sargento mayor  de la Policía en Venezuela. Entérate de la nota completa en nuestra edición impresa.  Él junto a su esposa se levantan a las 4:30 de la mañana para preparar ese delicioso tinto que con el carisma que lo caracteriza sale a vender por el barrio La Gaitana (Suba) y la Avenida Ciudad de Cali (Kennedy). “A las 6:20 a. m. voy a vender el tinto, luego regreso a las 2:30 p. m. a mi casa para almorzar, reposo y salgo de nuevo a vender tinto, y de ahí me quedo hasta las 7 de la noche”, afirma Ferrer, un hombre que dedicó 28 años de su vida como sargento mayor  de la Policía en Venezuela. Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En nuestro país celebrar el Día de los Disfraces, también conocido como el Día de las Brujas o Halloween, es una tradición, cuyos principales protagonistas son nuestros niños, aunque también muchos adultos se suman a la movida de meterse en la piel de distintos personajes. Vestirse como sus superhéroes favoritos y salir a pedir dulces es una de las mayores diversiones de los pequeñitos para hoy, pero esta actividad tiene sus riesgos, pues suelen generarse aglomeraciones, especialmente en centros comerciales, que pueden desencadenar en extravíos. Para que su niño no se pierda, siga las recomendaciones dadas por el Coronel de la Policía Ángel Acosta, jefe de auxiliares de Bogotá. ¡No se descuide ni un instante! Tenga en cuenta estas recomendaciones. Los menores siempre deben estar acompañados de un padre de familia o de un adulto responsable. Si su niño aún es muy pequeño, lo mejor es sacarlo durante el día. Al momento de recibir dulces o cualquier otra golosina es importante que revisen la fecha de expedición, y que los empaques estén debidamente cerrados y sin alteraciones. Enséñeles a los menores para que identifiquen los uniformes de las diferentes instituciones que están dispuestas a colaborarles en caso de una emergencia (Policía, Bomberos). Es fundamental cuando salga con el niño llevar su documento de identidad y también el carné de afiliación a salud. Indicarles a los niños que ante cualquier situación irregular, como en caso de extraviarse, llamen a la línea 123. Los padres también tienen la línea 123 a disposición para informar si su hijo se extravió. Asimismo, lo puede hacer de forma presencial con cualquier policía y se recomienda acudir de forma oportuna. Si ve alguna situación sospechosa o actividad delictiva, es fundamental que llame al celular del cuadrante de su barrio para prevenir acciones irregulares. Todos los niños son la prioridad. Entérate de la nota completa en nuestra edición impresa. Para que su niño no se pierda, siga las recomendaciones dadas por el Coronel de la Policía Ángel Acosta, jefe de auxiliares de Bogotá. ¡No se descuide ni un instante! Tenga en cuenta estas recomendaciones. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un tremendo escándalo sexual salpica a dos curas colombianos. Esta vez los hechos nos tocaron tan de cerca que los vecinos del barrio San José (en Bosa) y los residentes del barrio León XIII (en Soacha) están tan consternados con lo sucedido que simplemente esperan olvidar este mal momento. Edwin Giraldo Cortés (30 años), sacerdote desde hace dos de la iglesia San Francisco de Asís (ubicada en la calle 86 a sur con carrera 80 I) y quien está adscrito a la arquidiócesis de Soacha, fue capturado en Miami Beach (Estados Unidos) luego de que agentes locales lo encontraran realizando actos lascivos con otro sacerdote, identificado como Diego Berrío (39 años), oriundo de Ituango (Antioquia). Los hombres, dice la policía gringa, estaban practicando sexo oral al interior de un carro rentado en la concurrida y turística calle de Ocean Drive. Los hechos ocurrieron a plena luz del día lunes, entre la mirada de varios niños y turistas que se encontraban en el lugar disfrutando del sol. “Mi amiga sí vio que estaba pasando algo raro al interior del carro, ya después fue que nos dimos cuenta que llegó la Policía, golpeó la ventana del carro en el que estaban los señores (un auto de marca Volkswagen negro) y posteriormente se los llevó detenidos a los dos”, comentó a un medio local una persona que se dio cuenta de lo ocurrido. Según versiones que Q’HUBO pudo conocer en la parroquia en donde oficia eucaristía el padre Edwin en Bosa, él en este momento se encuentra en Bogotá y la Arquidiócesis definirá su situación en la congregación. Todo indica que ambos religiosos, tras su captura, fueron liberados después de una fianza que pagaron. La captura. A eso de las 3:20 p.m. del lunes (hora local de Miami) Edwin Giraldo y Diego Berrío se encontraban al interior de un vehículo disfrutando de su corta estadía en el sitio, tras llegar de Chicago (Illinois), en donde pertenecían a la Misión de San Juan Diego, en la que trabajaban orientando a la comunidad. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Una cadena de rezos, oraciones y misteriosos rituales, que se creían que iban a funcionar para limpiar las malas energías de una familia capitalina, resultaron ser tan solo una parte del show que montó un brujo quien abusó de una menor de 17 años y que fue enviado a la cárcel en las últimas horas. Un ritual en el que ella sería liberada de un supuesto demonio se convirtió en el peor recuerdo de esta jovencita, quien sigue al cuidado de la Policía de Infancia y Adolescencia luego de haber sido sometida a los vejámenes de este espiritista. Tanto las autoridades como los bogotanos que conocieron este reciente hecho que ocurrió en el centro de la capital, siguen sin salir del asombro luego de ver cómo los bandidos hacen hasta lo imposible para aprovecharse de la buena fe y de la inocencia. Hay quienes incluso aseguran que el hombre, quien sí sería un popular brujo, desvió sus verdaderos propósitos al sentirse atraído por la menor a quien, además, habría intimidado con un arma blanca para poder accederla. Hoy la escabrosa situación parece haber llegado a su fin, pues lo único que queda es intentar establecer si este hombre, identificado como A. Díaz García, habría usado su supuesto poder sobrenatural para abusar de más menores. Sesión de espiritismo. La historia que parece sacada de un libro de mitos y leyendas se remonta a las primeras semanas de este mes cuando una familia, que presuntamente pasaba por una mala racha, decidió contactar a un brujo para que les hiciera unos rezos y una limpieza. Llevados por la superstición estas personas residentes del sector de La Favorita, en la localidad de Los Mártires, decidieron visitar los tugurios más recónditos del centro de Bogotá, hasta donde fueron conducidos por los rumores de algunos conocidos quienes hablaban del brujo como si fuera un experto en la materia. Díaz García recibió en sus aposentos a la noble familia quien creyó en él, razón por la que decidieron contratar sus servicios. Según la Fiscalía, lo pactado se llevó a cabo y las supuestas energías malignas de estas personas habían sido liberadas, pero lo que las víctimas no sabían es que en medio de estas sesiones de espiritismo, el brujo estaba planeando acceder sexualmente a una joven, hija de quienes lo contrataron.  Según la Fiscalía, lo pactado se llevó a cabo y las supuestas energías malignas de estas personas habían sido liberadas, pero lo que las víctimas no sabían es que en medio de estas sesiones de espiritismo, el brujo estaba planeando acceder sexualmente a una joven, hija de quienes lo contrataron.  Entérate de la nota completa en nuestra edición impresa. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uno de los grandes miedos de Armando Vergara, además de que lo maten los criminales que lo asechan, es no poder seguir sirviéndole a la comunidad y velar por los derechos de los menos favorecidos. Su labor como líder social, Veedor de la Policía y defensor de los derechos humanos en los últimos cuatros años se ha visto obstaculizada por una serie de amenazas de las que ha sido víctima. La gravedad del asunto, también, es que él asegura sentirse secuestrado en su propia casa. “Siento que me va a pasar lo mismo que le ha ocurrido a los líderes sociales del país: han terminado muertos”, dijo. Con el pasar de las horas las advertencias que le han hecho a él algunos grupos al margen de la ley parecieran estar por materializarse, pues a finales de junio fue perseguido por un desconocido en una motocicleta. Y justo un mes después otro hombre, también en moto, llegó hasta su casa y le disparó en dos oportunidades. Armando no ha querido cambiar el vidrio que quedó afectado producto de los proyectiles de fuego que lo perforaron, solo por el hecho de que sirven como prueba fehaciente de lo que tiene que vivir a diario. “Panfletos, llamadas, persecuciones, interceptaciones y hasta disparos a mi casa”, en eso se resume el día a día de este hombre que lleva por lo menos ocho años trabajando por hacer el bien y promover la justicia. Hablamos con él y nos contó lo que tiene que vivir. ¿Cuáles han sido las recientes amenazas? El 22 de junio pasado tuve que trasladarme en moto hasta el norte de Bogotá, en horas de la noche, con el fin de verificar una queja de un usuario que aseguraba que tenía una inconsistencia con una cita médica. A la altura de Corabastos (Kennedy) me empezaron a seguir los tipos de una moto. Apenas yo pasé uno de ellos dijo “ese es, hágale”. Ellos se movilizaban en una moto negra de alto cilindraje. Ese día me siguieron por toda la avenida Ciudad de Cali, sentido sur norte, y al llegar al CAI de la Serena (avenida Ciudad de Cali con calle 90) me tocó meterme ahí para esconderme porque los tipos no se despegaban. Y el último ataque, el 31 de julio a la 1:20 a. m., un tipo en una moto llega hasta el frente de mi casa, ubicada en le barrio Palenque (Kennedy), y me hizo dos disparos. Desconozco lo motivos de lo que está pasando y de todas las amenazas que me han hecho, que con estas últimas ya suman 10 en total. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se desconocen cuántas cuadras alcanzó a caminar Wilfrido Navarro. Lo cierto es que el joven de 32 años se desplomó en la Carrera 87A con Calle 41 Sur en el barrio Patio Bonito, sector Villa Hermosa (localidad de Kennedy). Según indicaron los vecinos, el hombre estaba gravemente herido, pues tenía una puñalada en el abdomen. Los residentes afirman que nunca se percataron de ningún enfrentamiento en la cuadra, sino que cuando salieron el domingo en la noche se encontraron con la zona acordonada, varias marcas de sangre en el suelo y presencia de las autoridades. “Yo nunca escuché nada, ni gritos o voces pidiendo auxilio. Cuando salí a trabajar habían muchos uniformados y un carro de esos de criminalística. Hasta ese momento no sabía lo que había pasado pero luego los vecinos empezaron a contar”, informó a Q’HUBO una residente de la zona. Herido en la vía. Este diario  conoció que la víctima, al parecer, iba en compañía de otro sujeto, quien aparentemente lo estaría auxiliando. Unos uniformados de la zona nos contaron que Wilfrido iba caminando con otra persona en busca de un taxi. De pronto, el muchacho no aguantó más y se desgonzó en plena vía pública. “Hasta el momento no se tiene conocimiento del punto exacto donde se dio la agresión. Lo que sabemos es que el joven cayó en esta cuadra, pero aún se desconoce bajo qué móviles se dio el ataque y quiénes serían los presuntos responsables. Lo único que sabemos es que él era de la Costa y había llegado aquí, a Bogotá, hace como dos días”, dijo un policía en el sector. Luego de que Wilfrido se desmayara en la vía, unos residentes de la zona le notificaron a las autoridades lo que estaba pasando, tal parece que en ese instante el muchacho seguía con vida. “Me cuenta una vecina que ella vio al muchacho tendido en el andén y un lago hemático a su alrededor, pero nunca me dijo si alguien lo acompañaba”, mencionó una mujer en el sitio. Las autoridades llegaron al lugar de los hechos y de inmediato auxiliaron al joven, lo subieron en un vehículo y lo trasladaron a la Clínica del Occidente. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muchas ganas son las que le tiene el cabecilla del ‘Clan del Golfo’, Dairo Antonio Úsuga David, alias ‘Otoniel’, a una perra llamada Sombra. Este animal que forma parte de la Dirección Antinarcóticos de la Policía Nacional ha guiado a las autoridades a asestarle grandes golpes a este delincuente. Por eso ‘Otoniel’ ofreció $ 200 millones a quien sea capaz de atentar contra su vida. Así lo confirmó la misma entidad de la fuerza pública. Y es que esta perrita fue la responsable de que las autoridades incautaran en el municipio de Turbo, Urabá antioqueño, 5,3 toneladas de droga que estaban camufladas en cajas de banano y que estaban listas para ser enviadas a Europa. Otra de sus loables actuaciones ocurrió en la ciudad de Santa Marta, en el departamento de Magdalena, donde encontró más de una tonelada de clorhidrato de cocaína cuyo destino era el puerto de Amberes, en Bélgica. El pasado 2 de junio Sombra descubrió en el aeropuerto El Dorado 77 kilos del alcaloide en una máquina moldeadora que tenía como destino el mismo país europeo. Sombra fue entrenada en Antioquia. El pasado viernes en Bogotá participó en el desfile militar por el Día de la independencia. Entérate de la nota completa en nuestra edición impresa.  Este animal que forma parte de la Dirección Antinarcóticos de la Policía Nacional ha guiado a las autoridades a asestarle grandes golpes a este delincuente. Por eso ‘Otoniel’ ofreció $ 200 millones a quien sea capaz de atentar contra su vida. Así lo confirmó la misma entidad de la fuerza pública. Y es que esta perrita fue la responsable de que las autoridades incautaran en el municipio de Turbo, Urabá antioqueño, 5,3 toneladas de droga que estaban camufladas en cajas de banano y que estaban listas para ser enviadas a Europa. Otra de sus loables actuaciones ocurrió en la ciudad de Santa Marta, en el departamento de Magdalena, donde encontró más de una tonelada de clorhidrato de cocaína cuyo destino era el puerto de Amberes, en Bélgica. El pasado 2 de junio Sombra descubrió en el aeropuerto El Dorado 77 kilos del alcaloide en una máquina moldeadora que tenía como destino el mismo país europeo. Sombra fue entrenada en Antioquia. El pasado viernes en Bogotá participó en el desfile militar por el Día de la independencia.  Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Su nombre de pila, Ómar Alejandro Leiva, no es reconocido cuando se habla de él en la calle, pero en el momento en que se nombra a Píter Albeiro la cosa cambia. Todos saben de quién se trata, lo reconocen en cualquier esquina y tratan de imitar al Soldado Patascui, uno de sus personajes insignias. Actualmente Píter hace parte del grupo de famosos que muestra todas sus habilidades gastronómicas en ‘MasterChef Celebrity’, el reality del canal RCN en el que ha demostrado que no solo sabe hacer reír, pues también tiene talento para la cocina. Desde Miami (EE.UU.), ciudad en la que está radicado desde hace un tiempo, Píter habló con Q’HUBO de su paso por una de las cocinas más apetecidas de la TV y nos recordó cómo fue su proceso para llegar a la comedia.  ¿Cómo ha sido su experiencia en MasterChef’? Desde hace unos años para acá venía planeando tener mi año sabático; primero me retiré de ‘Sábados felices’ porque ya no me quedaba el tiempo que yo quería, deseaba pasar más tiempo en mi casa y al lado de mi familia. Eso me llevó a tener otro tipo de experiencias y en parte ese tiempo libre me ayudó a volverme como una especie de amo de casa. Cuando estaba en todo ese proceso me invitaron de RCN para que participara en ‘MasterChef’ y me animé porque era la oportunidad perfecta para que la gente me conociera en otra faceta. ¿Qué fue lo más difícil de participar en este programa? Dejar a mi familia. Se suponía que había sacado un año de vacaciones para estar con ellos y tener que irme a Bogotá, a vivir en un hotel y a estar lejos de ellos ha sido lo más difícil. ¿Cuál era su especialidad? Especialidad no tenía porque nunca cocinaba (risas), mi esposa es la que siempre cocina y mi suegra es casi como una chef, por eso el estándar de la cocina en mi casa es muy alto. Ahora que he aprendido se sorprenden con lo que sé. Me gusta hacer la pasta fresca, la hago de cero, 100 gramos de harina con un huevo y compré la maquinita para hacerla. Me encanta el lomo fino, entonces soy de comer mucha carne de res, hago ceviches y me va muy bien con la salsa de vino tinto. ¿Siempre sintió gusto por el humor? Sí, yo soy humorista desde muy niño por mi papá. Él es médico y en ese entonces era el director de un hospital en un pueblito de Boyacá. En los actos públicos que se hacían allá a él le gustaba contar chistes y hacer de presentador, entonces yo crecí siendo el hijo del doctor Leiva y por eso siempre que me veían me pedían que contara chistes cómo él lo hacía. ¿Por qué eligió ser humorista? Recuerdo que antes de eso, yo hice el curso para oficial de la Policía porque no quería estudiar medicina. Un día, cuando ya estaba en la escuela, nos llevaron a formar parte del público de ‘Sábados felices’, ese día preguntaron que si alguien quería participar y yo me animé, gané ese programa y 10 más y aparte de eso me dieron un carro. Con eso me di cuenta de que tenía futuro en el humor, me retiré de la Policía y empecé a ver el humor como una carrera.  Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuando la señora Carmenza Martínez observó a sus dos hijos tendidos en el suelo producto de un impacto de bala que recibió cada uno de ellos, sintió un vacío en el cuerpo que la hizo desvanecerse sin poder reaccionar. Al despertar ella logró recobrar el sentido y por lo primero que preguntó fue por sus hijos, José Abel Estepa Martínez y Jhon Stiven Estepa Martínez, quienes minutos antes habían sido atacados con arma de fuego, presuntamente, por dos uniformados de la Policía Metropolitana de Bogotá. Todo se debió a una supuesta riña entre la Policía y los hermanos Estepa, aunque los motivos de la disputa no están muy claros aún. Por suerte los proyectiles que impactaron en los cuerpos de los jóvenes de 25 y 27 años, respectivamente, no comprometieron órganos vitales, pero igualmente generaron serias lesiones de las cuales ellos hasta ahora siguen sin reponerse. Jhon Stiven ya se encuentra en su casa y por decisión propia prefirió no asistir a un centro médico porque no cuenta con una EPS, razón por la que se sacó por sus propios medios la bala. José Abel, entre tanto, lastimosamente se llevó la peor parte y aún se encuentra en el hospital Simón Bolívar, al norte de Bogotá, a la espera de una cirugía en la que le extraerán la bala de la pierna izquierda. Por su parte las autoridades, quienes serían los presuntos responsables de lo ocurrido, hasta ahora no se han pronunciado de manera oficial sobre la investigación que en su momento aseguraron que estaría a cargo de la Sijín de la Policía. Se espera que en los próximos días se conozca la versión de los uniformados involucrados y así este problema en el que se vio involucrada gran parte de la comunidad del barrio Luis Carlos Galán (en Engativá) se solucione como la ley manda. Golpiza y disparos. Q’HUBO visitó el lugar de los hechos 12 horas después del enfrentamiento entre las autoridades y los integrantes de la familia Estepa Martínez y logró hablar con los afectados, quienes insisten en que todo se trató de un presunto caso de “abuso de autoridad”. Eran las 8 p.m. de este lunes cuando Jhon Estiven se encontraba a la altura de la Calle 90B con Carrera 91, a unos 10 metros de su vivienda, ubicada sobre la misma cuadra. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La captura de 276 personas que se dedicaban a vender estupefacientes a la salida de los colegios y universidades en las principales ciudades del país encendió las alarmas de las autoridades. pero esto no fue lo único, una serie de videos en los que quedaron registrados varios conductores de rutas escolares comprando y vendiendo estupefacientes en el occidente de Bogotá tienen a la Policía Antinarcóticos siguiéndoles la pista., pues temen que ” sean ellos quienes también estén induciendo a los menores de edad para que consuman drogas”. por lo menos, uno de cada seis (menores de 13 años) ha consumido algún tipo de sustancia psicoactiva, según cifras reveladas ayer por el fiscal General, Néstor Humberto Martínez. Sumado a este hecho, se conoció también la noticia de que una nueva y peligrosa droga está acechando a los estudiantes, la cual es más adictiva y mortífera que la heroína. La ‘muerte gris’. O también conocida como endi, es un estupefaciente que produce alucinaciones y causa exitación severa en el sistema nervioso. Sus efectos pueden durar de dos a tres horas y es tan peligrosa que ocasiona daños irreversibles en el sistema nervioso y en el cerebro de quienes la consuman. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Etiquetas: abusar sexualmente de su propia nieta de seis años, Kennedy, Las labores investigativas iniciaron hace cuatro meses, los videos que mostraban el abuso, víctima de abuso por parte de su abuelo     Q’hubo es un periódico tabloide colombiano publicado por el Grupo Nacional de Medios en los departamentos de Atlántico, Cundinamarca, Santander, Valle del Cauca, Bolívar, Norte de Santander, Tolima, Caldas, Antioquia, Risaralda, Cauca y Cesar. Si bien el periódico circula en esas 12 regiones todos los días, la edición de éstas no es la misma, sino que comparten el mismo nombre y estructura, pero difieren en su contenido. Sus secciones son: Así Pasó, Mi Gente, Deportes, Zona Rosa y Clasificados.  © Derechos Reservados por Copyright. www.qhubo.com – Teléfono: (571) 7425050 Calle 25 D BIS N° 102 a – 63, Edificio La República, 3er piso. | Bogotá – Colombia.Política de Privacidad y Tratamiento de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sobre las 4:30 de la madrugada de ayer un operativo de las autoridades causó revuelo en la cárcel La Picota de Bogotá. Allí, integrantes de la Policía y del CTI de la Fiscalia irrumpieron en la celda de Daniel Rendón Herrera, alias ‘Don Mario‘, para ser entregado a la justicia de los Estados Unidos. La extradición se concretó debido al proceso por narcotráfico que adelantan en su contra y tras negarle a su defensa el recurso de reposición, con el que pretendían aplazar la medida. Todos los detalles en la edición impresa de Q’HUBO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En la localidad de Bosa surgió un héroe. Con tan solo 30 años, el bogotano Arnol Martínez, deportista y Bombero profesional de Chapinero, conquisto Estados Unidos al ganar dos medallas, una de oro y otra de bronce, en los World Game Police and Fire (juegos mundiales de policías y bomberos) celebrados en los Ángeles. Un gesta única. Su rostro refleja la felicidad de un campeón mundial. Participo en cuatro competencias en la categoría de 30 a 33 años donde, luego de realizar una carrera vertical de 63 pisos que desafía hasta al deportista más experimentado, logro colgarse con la primera presea de bronce para nuestro país. Encuentra más noticias como esta en la sección Noticia del día de tu periódico Q´hubo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Más de cien mujeres se desnudaron y posaron con espejos en Cleveland (EE.UU.) en el marco de una campaña del famoso fotógrafo Spencer Tunick, para dar su ¨bienvenida” al polémico candidato republicano Donald Trump. La puesta en escena incluye a mujeres de todos los colores y formas, que sin ropa portaron espejos apuntado hacia el  centro de convenciones donde estaría el aspirante presidencial. Aunque es ilegal quitarse la ropa en público  en Cleveland, las mujeres se congregaron en un terreno privado y la policía no pudo intervenir. Aunque esta es la obra más política de Tunick, estuvo lejos de la convocatoria lograda el mes pasado en Bogotá, donde reunió a más de 6 mil nudistas. Encuentra más noticias como esta en la sección Mundo Insólito de tu periódico Q´hubo.     Q’hubo es un periódico tabloide colombiano publicado por el Grupo Nacional de Medios en los departamentos de Atlántico, Cundinamarca, Santander, Valle del Cauca, Bolívar, Norte de Santander, Tolima, Caldas, Antioquia, Risaralda, Cauca y Cesar. Si bien el periódico circula en esas 12 regiones todos los días, la edición de éstas no es la misma, sino que comparten el mismo nombre y estructura, pero difieren en su contenido. Sus secciones son: Así Pasó, Mi Gente, Deportes, Zona Rosa y Clasificados.  © Derechos Reservados por Copyright. www.qhubo.com – Teléfono: (571) 7425050 Calle 25 D BIS N° 102 a – 63, Edificio La República, 3er piso. | Bogotá – Colombia.Política de Privacidad y Tratamiento de datos</t>
   </si>
   <si>
     <t>**Texto especial**</t>
   </si>
   <si>
-    <t xml:space="preserve"> El corazón de Jaime, cansado del trajín y la vida tan difícil que le tocó afrontar durante 60 años, se detuvo para siempre la tarde del sábado, justo cuando el hombre se encontraba trabajando en el sector de Ciudadela El Recreo, en la localidad de Bosa. Los testigos de su muerte fueron todos los vecinos y comerciantes del sector, pues se percataron que el adulto mayor se desgonzó sobre un andén de la Carrera 99A con Calle 72 sur. “Nosotros estábamos aquí trabajado cuando la gente empezó a gritar pidiendo ayuda, entonces llamamos a una ambulancia, pero llegó primero la Policía y le tomaron el pulso, pero ya estaba muerto. Eso fue muy extraño”, contó aterrada una comerciante de la zona a Q’HUBO. Al lugar de los hechos no llegaron familiares ni allegados del difunto, pero cuentan  que el señor era muy conocido en la zona porque todos los días salía a reciclar por toda la localidad. “Yo no estaba ayer, pero cuando llegué en la noche la gente me contó que había muerto el señor que siempre recogía las cajas de los negocios. Me dio mucha tristeza, porque uno sí lo veía como cansado”, agregó una mujer. Inesperada partida. Como todos los días, Jaime llegó sobre las 4 de la tarde del sábado hasta el sector de El Recreo y comenzó a recorrer con su carreta el barrio. Su actitud fue la de siempre, con una sonrisa saludó a quienes veía a diario y se limitó a pedir las cajas de cartón, las botellas de plástico y todo lo que pudiera vender por reciclaje para pagar el arriendo de la pieza donde vivía, según cuentan en la misma localidad. Entérate de la nota completa en nuestra edición impresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hoy se cumplen seis días desde la prematura muerte de Ana Bolena Carvajal Pulido, una próspera mujer de 32 años quien se convierte en el rostro más reciente de lo que sería un mal procedimiento estético. Aunque el hecho ocurrió en Armenia, capital del departamento del Quindío, la pérdida de la mujer se sintió en la capital del país, debido a que el cirujano encargado de ese procedimiento tiene un prestigioso centro estético en al norte de la ciudad, desde donde viajó para operar a la bella Ana. El escándalo se ha vuelto mayor en las últimas horas debido a que dicen, presuntamente, que Ricardo Urazán, cirujano de profesión, no estaría certificado para practicar la liposucción y el implante de prótesis que le hizo a Carvajal Pulido. De hecho, después de conocida esta muerte, empezaron a salir a la luz varias inconsistencias que, para los cercanos a la víctima, son muestra clara de irresponsabilidad y falta de ética. Q’HUBO conoció que aunque el prestigioso profesional tiene un consultorio en Bogotá, en Armenia no cuenta con un lugar propio para operar, por lo que el procedimiento estético lo realizó en la clínica El Parque, en donde a pesar de las cientos de advertencias que los dolientes le hicieron a los médicos, después del procedimiento le dieron de alta a Ana Bolena. Familiares de la mujer afirman que desde el momento en el que ella salió de la operación su estado de salud era negativo, por lo que creen que esto se trató de una cadena de errores que provocó la muerte de su ser querido seis horas después de la cirugía. Las autoridades de salud del departamento del Quindío afirman que ya están trabajando en la respectiva investigación con el fin de conocer cuál sería la causa del deceso y confirmar, o no, la responsabilidad del cirujano involucrado. Entérate de la nota completa en nuestra edición impresa.  Entérate de la nota completa en nuestra edición impresa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “Lo único que estoy pidiendo es una explicación, que me digan cuáles fueron las causas de la muerte de mi hijo. ¿Cómo es posible que yo lo haya llevado al hospital por una quemadura en una de sus manos y haya terminado muerto?”, indicó a Q’HUBO con voz entre cortada Diana Ramos, quien reside en el sector de Hogares de Soacha. Según relata la mujer, el sábado sobre las 4 p. m. llevó a su hijo Julián Navas al Hospital Mario Gaitán Yanguas, debido a que el menor de 11 meses sufrió  un accidente doméstico. “Resulta que ese sábado yo me estaba alisando el cabello, y mi bebé, que estaba sobre la cama, se bajó y fue a coger la plancha. El niño se quemó la mano izquierda y yo me angustié mucho, así que lo que hice fue salir a correr con Julián al hospital”, recordó la madre del menor. Lo hospitalizaron. El niño ingresó al centro asistencial, y según lo que relata la mamá, los galenos les mencionaron que el accidente no había sido tan grave, pero que debían practicarle un procedimiento, y para ello era necesario trasladarlo a un hospital de tercer nivel. “Ellos me informaron que la quemadura de mi hijo había sido de segundo grado, que no era tan grave, pero que tenían que practicarle una cirugía en su manito. Dijeron que ahí no contaban con los equipos ni especialistas, entonces tocaba esperar a que la EPS Famisanar autorizara el traslado al hospital Simón Bolívar”, comentó. Cerca de tres días esperó  Diana que la EPS diera la autorización, y una vez lo hizo, en el Hospital Mario Gaitán Yanguas le manifestaron que ya contaban con una especialista, y que ahí podían practicarle la cirugía. Entérate de la nota completa en nuestra edición impresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> En medio del agudo dolor que siente por la inesperada muerte de su pequeño hijo, Juan David Lesmes denunció este martes el hecho trágico ocurrido en el barrio Gran América (localidad de Teusaquillo), donde producto de la imprudencia de una mujer, su amado niño salió expulsado por una ventana del vehículo en el que se movilizaba con su familia. “¡No me explico porqué la señora que iba conduciendo la camioneta no paró! Ella tenía que acatar la señal de pare, pero al parecer no le importó y se mandó contra el vehículo en el que íbamos pasando.  “Lo más extraño es que ella tuvo dos carriles viales para frenar, pero hizo todo lo contrario y mantuvo la velocidad que traía”, dijo el padre de la víctima fatal, quien en el momento de los hechos iba manejando el carro que fue impactado por la camioneta de placas WNU 107, conducida por una señora de apellido Morales. Iban por los útiles. Debido a que Juan Esteban, la víctima fatal, quien apenas tenía siete años, entraba a estudiar el 5 de febrero en el Colegio Regional de Suba, ubicado en Las Flores (localidad de Suba), barrio donde ellos viven, sus padres  decidieron ir a comprar los útiles escolares. Aproximadamente salieron de la casa al mediodía con destino al centro, pero casi llegando a su destino fueron impactados por la camioneta. Era exactamente la 1:30 p. m. cuando la mujer que conducía la camioneta a la altura de la calle 25 con carrera 32 A impactó la parte trasera del carro donde se movilizaba la familia Lesmes. “La camioneta venía muy rápido y omitió una señal de tránsito. A causa de eso el carro pequeño pagó la consecuencia de la imprudencia de la mujer”, afirmó un trabajador que pudo presenciar el accidente. Entérate de la nota completa en nuestra edición impresa.  “La camioneta venía muy rápido y omitió una señal de tránsito. A causa de eso el carro pequeño pagó la consecuencia de la imprudencia de la mujer”, afirmó un trabajador que pudo presenciar el accidente.  Entérate de la nota completa en nuestra edición impresa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “No me dejen morir, no me dejen morir”, fueron los gritos que despertaron a los residentes del barrio Santo Domingo y Santa Viviana (Ciudad Bolívar), en la madrugada de ayer. Según cuentan los habitantes del sector, una vez se asomaron por sus ventanas vieron a varios muchachos auxiliando a otro, quien se encontraba tendido en el piso, sin camiseta y perdiendo mucha sangre. “No tengo conocimiento de cómo se presentó todo, pero según lo que han mencionado aquí en el barrio, se desató una riña en la que apuñalaron a un joven, que era quien gritaba que lo salvaran”, comentó una mujer en el sitio. Madrugada de puñal. Q’HUBO conoció que la víctima fue identificada como Fredy Alexánder Fajardo Moreno, quien  se encontraba departiendo unos tragos con sus amigos cuando lo atacaron. “Tenemos entendido que el joven estaba tomando con unos amigos en una discoteca cerca de donde lo apuñalaron. Al parecer, al abandonar el bar fue cuando se formó la disputa, que terminó en muerte”, manifestó un tendero en el sitio. Eran aproximadamente las 2:00 a. m. de ayer cuando Fredy, de unos 25 años, fue agredido por unos hombres en la transversal 76B con calle 69A sur. Los homicidas se fugaron. “El joven, que acabó muerto, quedó tendido en el piso y tenía unas marcas de sangre en el pecho. Dicen las personas que lo acompañaban que los agresores salieron corriendo hacia el barrio Santo Domingo y que no los conocían”, relató un vecino que se percató del enfrentamiento. Entérate de la nota completa en nuestra edición impresa.  “El joven, que acabó muerto, quedó tendido en el piso y tenía unas marcas de sangre en el pecho. Dicen las personas que lo acompañaban que los agresores salieron corriendo hacia el barrio Santo Domingo y que no los conocían”, relató un vecino que se percató del enfrentamiento.  Entérate de la nota completa en nuestra edición impresa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Como si se tratara de un aviso de muerte o una premonición que hizo de manera inconsciente, el pasado 21 de diciembre Óscar Mauricio Quiroga Rojas publicó un mensaje en su cuenta de Twitter en donde afirmó, a la memoria de su difunta esposa Viviana Muñoz Marín, que se vería pronto en el cielo. La promesa, que en un principio parecía un mensaje de dolor por lo sucedido, cobró fuerza la tarde de este martes 22 de enero, cuando Quiroga Rojas apareció sin vida en su apartamento del barrio San Mateo, en el municipio de Soacha. Posiblemente habría sido la ausencia de su amada y el agobio por la falta de respuestas en la investigación de su crimen, ocurrido en el Caquetá el 18 de diciembre pasado, lo que habría llevado a este hombre a su final. Las autoridades judiciales hasta ahora no han confirmado el motivo de la repentina muerte de Óscar Mauricio, pero de manera preliminar se cree que todo habría sido un suicidio, porque hasta donde Q’HUBO conoció, la puerta del predio en donde moraba no fue violentada, y a él no se le hallaron heridas que pudieran haber causado su deceso. “Sabemos que él se encontraba viviendo solo en su casa, y fue una familiar quien lo halló tras venir a buscarlo. “Últimamente él se la pasaba mucho tiempo solo y aislado de los vecinos”, manifestó la encargada del conjunto El Portal de Casa Linda, en donde residía este hombre. Así fueron los hechos. Intentando establecer los momentos previos a su muerte, Q’HUBO se trasladó hasta el barrio San Mateo, exactamente a la calle 30 con carrera 1 (dirección de Soacha), en donde, con el relato de los vecinos, se pudo conocer parte de lo sucedido. La última vez que vieron con vida a Mauricio fue la tarde del lunes, cuando cruzó la portería del predio y posteriormente se internó en su vivienda, a unos 100 metros de la entrada principal del conjunto. Entérate de la nota completa en nuestra edición impresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cerca de 30 horas duró luchando por su vida Álvaro Barrera López en un centro asistencial de Bogotá, luego de que sufriera un aparatoso accidente de tránsito el pasado sábado 5 de enero sobre la vía Panamericana, exactamente en el sector del Corzo. El joven de 24 años fue arrollado por una motocicleta cuando se disponía a atravesar la avenida rumbo a su casa siendo las 10:45 de la noche. A pesar de que constantemente atravesaba de esta forma la avenida, el destino le jugó una  nefasta partida. Tras el aparatoso accidente, Álvaro presentó muerte cerebral, lo cual le cobró la vida horas más tarde mientras permanecía en la Unidad de Cuidados Intensivos, justo en la mañana de ayer. “Es triste su partida porque siempre fue un muchacho juicioso y dedicado a sus padres. Lo vimos crecer en el barrio Santa Marta (en Facatativá) y ahora los padres van a tener que darle el último adiós, cuando la ley de la vida es otra”, aseguró una allegada de la víctima. El accidente. Barrera López había estado departiendo hasta pasadas las 10 de la noche del sábado con sus compañeros de trabajo, hasta que decidió irse caminando a su casa antes de que la medianoche lo tomara por sorpresa y fuera más difícil movilizarse. Confiado en que conocía la  zona como la palma de su mano, Álvaro caminó hasta la vía Panamericana y al llegar al mismo cruce que transitaba a pie todos los días, se detuvo para percatarse de que no viniera ningún carro; cuando observó que no habían luces que lo alertaran, aceleró su paso y comenzó a correr. Sin embargo, una motocicleta, que se movilizaba a alta velocidad sobre esta vía y que llevaba la luz delantera baja, se le atravesó sin que él pudiera identificarla. Por su parte, el motociclista, quien se presume iba a alta velocidad, no imaginó siquiera la presencia de un peatón a esa hora, por lo que al darse cuenta ya era demasiado tarde. “Ninguno de los dos se percató de la presencia del otro, hasta el momento en que ya no había nada qué hacer. Lamentablemente el golpe que recibieron los dos fue muy fuerte, solo que al motociclista lo salvó el casco”, comentó un testigo del hecho. Entérate de la nota completa en nuestra edición impresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Una llamada terminó  con las esperanzas que tenía la familia de Víctor Julio Rincón Cubillos de encontrarlo con vida antes de finalizar el 2018. Q’HUBO se comunicó con un familiar de la víctima para preguntarle sobre su extraña desaparición, registrada el miércoles 26 de diciembre, pero la sorpresa fue mayúscula cuando al otro lado de la línea nos notificaron que el joven, de aproximadamente 30 años, había aparecido ayer, pero muerto. “Esta mañana nos llamaron a decirnos que habían encontrado a Víctor sin vida. Ahora estamos aquí con las unidades investigativas intentado conocer qué fue lo que pasó con él”, confesó el pariente. Le perdieron el rastro. La última vez que los familiares de Víctor Julio tuvieron noticias suyas fue el miércoles en horas de la noche. Según manifestaron, el joven había salido en su moto rumbo a Azafranal (Silvania) para entregar un pedido de la empresa de aluminio y vidrios en la cual laboraba. Todo apunta a que Víctor alcanzó a cumplir con aquella  entrega y cuando se estaba regresando de Azafranal hacia el sector de Potosí, en Fusagasugá (Cundinamarca), donde residía, perdieron total comunicación con él. Desde aquella noche Víctor nunca más volvió a contestar su celular, así que sus familiares y amigos, preocupados y desesperados al no tener noticias suyas, realizaron una gestión de búsqueda y algunas publicaciones por redes sociales con el afán de que alguien les diera razón del paradero del joven, oriundo de Icononzo (Tolima). Entérate de la nota completa en nuestra edición impresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ramón Julio Peña (66 años) nunca pensó en cómo viviría sus últimos años porque creyó que esa etapa de su vida aún estaba lejos. Pero infortunadamente no fue así y su gran historia de vida tuvo un desenlace fatal. Quienes sí pensaron en la muerte de este noble trabajador fueron dos delincuentes, quienes al parecer desde hace varios días venían preparando un plan macabro para ingresar al local que él atendía, robarlo y si ponía resistencia dispararle sin compasión. Tal y como lo planearon estos criminales ocurrió. Debido a que Ramón se habría negado a entregar el dinero producto de las ventas de su negocio, los agresores no dudaron en descargarle dos disparos y huir del sitio. La Policía Metropolitana hasta ahora no ha emitido un pronunciamiento oficial y a la familia tampoco le han querido dar mayores detalles de lo que ocurrió, pero de manera preliminar se pudo establecer que en la zona, muy cerca del local comercial, habría una cámara de seguridad en donde habría quedado grabado un hombre  que podría estar relacionado con el cruel ataque. Los dolientes solo esperan que la denuncia de este caso no les traiga más problemas, pues afirman que temen por su tranquilidad porque los delincuentes podrían volver a hacer de las suyas. “La Policía casi no pasa por este sitio y eso permite que los delincuentes operen. Seguramente a Ramón lo estaban siguiendo porque entraron cuando estaba solo”, dijo una allegada a la familia. Entérate de la nota completa en nuestra edición impresa.</t>
+    <t xml:space="preserve"> Todo un personaje, así es el bailarín, conferencista y artista colombofrancoalemán (de nacionalidad colombiana, francesa y alemana) Wilheim Orly (38 años). El hombre, quien reside en el barrio Las Cruces (Santa Fe) no ha tenido una vida para nada fácil. Sin embargo, después de que la calle y la violencia lo han golpeado de todas las maneras posibles ha salido victorioso de cada dificultad que se ha presentado en su camino y ahora se dedica a poner su vida de ejemplo para alejar a los jóvenes de los malos pasos. Al recuperarse completamente de todos los vicios que le dejó la calle, en este momento Orly guía a cientos de estudiantes con los que tiene contacto a diario para que nunca caigan en el difícil mundo de las drogas. Su meta, según cuenta, es que las muchachos “limpien su espíritu” y no se dejen llevar de las malas amistades, ni se dejen seducir por los placeres que pueden generar ciertas sustancias psicoactivas. Además de sacar adelante todas estas actividades, Orly también participó en la investigación de un libro llamado ‘Un lugar llamado el Cartucho’, que no es más que una mera crónica sobre la realidad que se vive en las calles bogotanas. Su intención es recuperar esas memorias para que nadie olvide el pasado tenue que se vive en las calles del centro y, sobre todo, para sentar las bases de la construcción de una ciudad más equilibrada y humana, en donde se reconozcan las necesidades del otro. “Cuando vemos que todos somos iguales y que en este tipo de espacios convergen todo tipo de personas, de diferentes clases sociales, razas, sexualidades y etnias, aceptamos la diferencia. “Ese es el mensaje que yo quiero trasmitir a partir de mi historia. Un llamado a la tolerancia, al cambio, a la hermandad, en donde se dejen de lado los odios, los prejuicios y donde ayudemos al otro”, asegura Orly. Duras pruebas de vida. Con solo quince días de nacido Wilheim Orly, quien se califica a sí mismo como un ciudadano del mundo, llegó a Bogotá en compañía de sus padres extranjeros. Desde la temprana edad de los siete años, la vida lo golpeó de forma devastadora. Inicialmente fue víctima directa de la tragedia de la avalancha de Armero en 1985, luego llegó a la calle del Cartucho donde probó las drogas, dice que estuvo secuestrado y fue víctima de abuso sexual. Entérate de la nota completa en nuestra edición impresa.  Inicialmente fue víctima directa de la tragedia de la avalancha de Armero en 1985, luego llegó a la calle del Cartucho donde probó las drogas, dice que estuvo secuestrado y fue víctima de abuso sexual. Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Más que el motivo de la muerte, hoy los escasos moradores del barrio Barranquillita, localidad de Usme, sienten incertidumbre al no saber quién es la misteriosa mujer que fue hallada sin vida en la quebrada Santa Librada, en el sur de Bogotá. La escena, que parecía sacada de una película de suspenso, llamó la atención de varios transeúntes, quienes desde la vía principal lograron colar su mirada hasta lo más profundo del afluente, en donde se alcanzaba a ver la joven entre los 25 a 30 años. Ni por la ropa ni por su aspecto la joven pudo ser identificada, razón por la cual será en Medicina Legal donde se revele su nombre gracias al cotejo de sus huellas dactilares, para de una vez por todas contactar a su familia y así intentar reconstruir los momentos previos al hallazgo. Allá mismo, luego de la necropsia, se podrán conocer en uno o dos meses las causas de su deceso, resultado que servirá para ampliar la investigación y conocer la verdad detrás de este hecho escalofriante. Durante la inspección y el levantamiento del cadáver, las autoridades judiciales no hallaron signos de violencia, razón por la que no lograron establecer los móviles de este extraño caso. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Del asesinato de Daniel Andrés Chinome Parra, los moradores de los barrios San Rafael y San Joaquín (Ciudad Bolívar) solo recuerdan la ráfaga de disparos que sonó durante la madrugada de este lunes. La cantidad de balazos se desconoce porque uno estalló tras otro en cuestión de segundos, y horas más tarde se confirmó que en medio de la montaña (en una zona de invasión) habían visto un cadáver tendido en el suelo. Aunque en un principio se dijo que las causas del deceso de este joven estaban por establecer, Q’HUBO indagó en el lugar y confirmó que detrás de este hecho estaría una organización delictiva que opera en esos barrios del sur de la capital, a la cual también se le atribuye la venta y el tráfico de estupefacientes, y quienes habrían acabado con Chinome Parra por una posible riña. Debido a que las autoridades no dieron mayor información sobre lo ocurrido, este medio reconstruyó los hechos con información que brindaron algunos vecinos y uno que otro curioso, quienes de alguna u otra manera estuvieron cerca de la situación. Aviso de muerte. Daniel Andrés frecuentaba el barrio Las Quintas, de la misma localidad y el cual está ubicado a un lado de la vía principal que conduce hacia la parte alta de Ciudad Bolívar, en donde están ubicados los barrios San Joaquín y San Rafael. Conocedores de la vida nocturna en los tugurios bogotanos cuentan que la noche del domingo, para amanecer este lunes, Daniel se encontraba departiendo con algunos de sus amigos en el parque del barrio Las Quintas (Calle 70c sur con carrera 17), cuando sin motivo aparente empezó a recorrer la zona. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desde el viernes en horas de la tarde la familia de Óscar Castañeda Millán (de 37 años) no recibía noticias de él. Ese día en el barrio Molinos I (Rafael Uribe) el hombre lo único que les dijo, a través de una llamada telefónica, es que aparentemente estaba metido en problemas por un dinero que les debía a unos sujetos de dudosa procedencia en el sector, y que los mismos lo estaban amenazando para que pagara la deuda. Luego el hombre desapareció por completo. La suma de dinero solo ascendía a 100 mil pesos, pero a pesar de parecer insignificante, estos sujetos malintencionados no tuvieron piedad de él y acabaron con su vida. No se sabe a ciencia cierta si la causa de muerte fue provocada por algún elemento cortopunzante o si el deceso se trató de varios golpes que le habrían propinado al hombre. Será la necropsia por parte de Medicina Legal la que determine cómo murió Castañeda. Por lo pronto, lo único cierto es que un cuerpo ingresó a la morgue el domingo sin identificar y se trataba de Óscar. Lo único alentador de este caso, en medio del irreparable dolor de sus familiares por este repentino asesinato, es que ya hay dos personas capturadas, quienes se encuentran bajo medida de aseguramiento en un centro carcelario esperando una audiencia para que un juez de la República los haga pagar por su delito. Se dice que hay un tercer implicado en la muerte del calibrador de buses, quien en este momento se encuentra libre por las calles del sur de Bogotá. Los familiares de Castañeda Millán no pierden la ilusión de que la justicia llegue completa. Momentos previos. A través de una llamada, que con temor les hizo a sus familiares, Óscar expresó que estaba involucrado en un serio embrollo por cuenta de un dinero que debía. “Él me llamó y lo que me dijo es que estaba metido en un problema muy grave, que lo llamara al número del que me estaba marcando, pues no tenía mucho tiempo. Nos dijo que necesitaba esa plata porque, de lo contrario, a él lo iban a matar y en medio de esa llamada yo escuchaba que a lo lejos le gritaba un señor: ‘Diga que si no me traen la plata, yo le bajo la cabeza, lo mató’. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El exjefe paramilitar Ramón Isaza, más conocido como “El Viejo”, ajusta este viernes una semana en libertad. Esto luego de que un juez penal especializado de Medellín ordenara su salida de la cárcel luego aceptar un proceso que tenía pendiente tanto ante el tribunal de Justicia y paz como en la justicia ordinaria. Fuentes de la Fiscalía y del Inpec, le confirmaron a EL COLOMBIANO que Ramón Isaza salió libre desde el pasado viernes 29 de enero en horas de la tarde. Al momento de dejar la cárcel La Picota de Bogotá, Isaza portaba brazalete electrónico bajo la figura de libertad condicional. A finales del 2015, el exjefe paramilitar también estuvo ad portas de salir de la cárcel pero un proceso pendiente con la justicia ordinaria evitó que la salida se cristalizara. En esa ocasión se trató de un proceso que lo vinculaba con dos asesinatos cometidos en el municipio de Sonsón, Oriente antioqueño, antes del 2004. Ramón Isaza, de 75 años, es oriundo de Sonsón, Antioquia, y fue uno de los fundadores de las Autodefensas del Magdalena Medio. Conocido con el alias de “El Viejo”, fue condenado parcialmente junto a otros 4 exjefes de las Autodefensas Campesinas del Magdalena Medio en mayo de 2014, por 95 hechos que involucran 140 víctimas.     Q’hubo es un periódico tabloide colombiano publicado por el Grupo Nacional de Medios en los departamentos de Atlántico, Cundinamarca, Santander, Valle del Cauca, Bolívar, Norte de Santander, Tolima, Caldas, Antioquia, Risaralda, Cauca y Cesar. Si bien el periódico circula en esas 12 regiones todos los días, la edición de éstas no es la misma, sino que comparten el mismo nombre y estructura, pero difieren en su contenido. Sus secciones son: Así Pasó, Mi Gente, Deportes, Zona Rosa y Clasificados.  © Derechos Reservados por Copyright. www.qhubo.com – Teléfono: (571) 7425050 Calle 25 D BIS N° 102 a – 63, Edificio La República, 3er piso. | Bogotá – Colombia.Política de Privacidad y Tratamiento de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuando la esperanza se agotaba por completo y parecía no se podía resolver el caso de la porrista de Millonarios Luisa Fernanda Ovalle, las autoridades dieron una importante noticia en la noche de ayer. Un joven, quien sería el presunto responsable de acabar con la vida de la hermosa universitaria y deportista, fue detenido en la localidad de Santa Fe, centro de Bogotá, mientras caminaba plácidamente durante la tarde de ayer. El acusado, identificado como Hugo Alejandro Zabaleta Sossa, quien hace parte de una de las populares barras de Millonarios, fue judicializado ayer en la noche y hoy, a las 7 a.m., se realizará la imputación de cargos en donde tendrá que responder por los presuntos delitos de feminicidio agravado y porte ilegal de armas. Fueron cuatro años y medio en los que la familia Ovalle Chávez intentó mover cielo y tierra para presionar a las autoridades con el fin de que hallaran pistas del supuesto criminal, de quien jamás se supo detalle alguno. “Si es la persona que dicen queremos que le caiga todo el peso de la ley. Sabemos que lo capturaron, que hicieron la legalización de captura y pues ojalá sea el responsable. La Fiscalía llamó a mi hermana hoy (ayer) a eso de la 1 p.m. y le dijeron que el presunto asesino había sido capturado. Nosotros como familia guardábamos una leve esperanza pero no esperábamos que eso sucediera. Todos estos años tuvimos contacto con las autoridades y sabíamos del proceso, pero nada más. A los dos años del crimen no vimos mucho movimiento, parecía estar todo muy quieto, por eso mismo tratamos de vivir nuestro duelo y sanarlo, sabiendo que el asesino de Luisa estaba libre. Por ahora hay que esperar a que sea él y que se confirme la culpabilidad y que la ley haga lo propio para cerrar este ciclo”, dijo ayer a Q’HUBO Héctor Chávez, tío de la víctima. Los hechos. La familia Ovalle Chávez está marcada por dos fechas importantes y que jamás olvidarán. Una de ellas es el día en el que nació Luisa Fernanda, el 10 de enero de 1995, y otra es el 30 de noviembre de 2013, cuando ella murió a causa de varias puñaladas que le propinaron en el pecho y la espalda. Desde esa fatídica fecha una nube gris se posó sobre ellos, quienes no han dejado de recordarla y mantenerla viva en cada uno de sus corazones. El domingo 1 de diciembre de 2013 los residentes de Kennedy, más exactamente en el barrio Castilla, se levantaron con la trágica noticia de que la noche anterior una joven de apenas 18 años había sido ultimada con arma blanca mientras caminaba por un parque que atraviesa el sector. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Mataron a su hijo, mataron a su hijo”, le decían insistentemente a Carlos Triana tras contestar el teléfono en la madrugada del lunes. Según lo que cuenta el hombre es que un familiar lo llamó desde Bogotá para notificarle que su retoño, Jhon Emanuel Triana, había muerto luego de ser apuñalado a pocas cuadras de su vivienda. “Cuando recibí la llamada quedé en shock y muy desconcertado. No asimilaba lo que me estaban diciendo y tampoco entendía cómo había ocurrido semejante tragedia”, aseguró el padre de la víctima a Q’HUBO. Madrugada de puñal. Eran cerca de las 2:00 a. m. del lunes cuando Jhon Emanuel fue agredido a puñal en medio de una riña en la carrera 92 con calle 127D, barrio Rincón (localidad de Suba). La víctima, de 19 años, recibió dos puñaladas y, al verse gravemente herido, alcanzó a dar un par de pasos y logró pedirle ayuda a un vendedor ambulante, quien ya lo distinguía. “Lo que me dicen es que mi hijo recibió una puñalada en el pecho y otra en una mano. Él así, todo malherido, caminó hasta un puesto de mazorcas para pedirle ayuda al vendedor, pues se conocían desde hace algún tiempo. El comerciante, al verlo casi que en las últimas, salió corriendo en busca de un taxi”, confesó Carlos Triana. La víctima fue subida al vehículo y trasladada al Hospital de Suba, en donde la ingresaron de inmediato a una cirugía porque su vida estaba a punto de apagarse. Entérate de la nota completa en nuestra edición impresa. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Llegó el día esperado por la afición futbolera en Bogotá. Los dos gigantes de nuestra ciudad, Millonarios y Santa Fe, se enfrentarán en un nuevo clásico, pero no en uno común de Liga: será su primer enfrentamiento en los cuartos de final de la Copa Sudamericana. Tuvieron que pasar 42 años para que rojos y azules se midieran nuevamente en un torneo internacional (ver recuadro el antecedente). Así que esta noche (7:45 p.m.), en El Campín, veremos un duelo en el que no solo el honor estará en juego sino la oportunidad de hacer historia. A salvar el semestre. En el ambiente se siente una incertidumbre, y no es para menos. Tanto Millos como Santa Fe han tenido un año discreto, pues vienen de quedar por fuera de las finales de la Liga pasada y, además, de ser eliminados en fase de grupos en Copa Libertadores. En esa medida, que uno de los dos pierda este clásico sería un golpe durísimo en el orgullo. Es así que algunos hinchas califican esta llave como la que salvaría el semestre, ya que no habría alegría más grande que dejar por fuera al rival de patio en un torneo internacional. De igual manera, uno de los dos mantendría viva la ilusión de ganar la ‘Otra mitad de la gloria’ (como llaman a la Copa). Así llegan ambos. En cuanto a lo futbolístico hay una pequeña ventaja para Santa Fe, debido a que en Liga le ha ido mejor que a Millitos: ha sumado tres triunfos seguidos, mientras que el azul hasta el pasado sábado pudo volver a ganar (ante Jaguares por 1-0), luego de tres jornadas sin victorias. No obstante, el 15 veces campeón llega en mejores condiciones físicas para este enfrentamiento: contará con algunas de sus figuras, como el arquero Wuilker Faríñez, el capitán Andrés Cadavid, sus armadores Macálister Silva y Cristian Marrugo, y el artillero Ayron del Valle. El único ausente será John Duque, quien se recupera de una lesión de rodilla. Por su parte, el mediocampista César Carrillo y el delantero Roberto Ovelar, a pesar de tener problemas de rodilla, no están del todo descartados. Quien sí anda en la mala por bajas es el Rojazo: se quedó sin su portero Leandro Castellanos (sufrió rotura de tendón de Aquiles) y sus defensas José Moya (lesión de meniscos en ambas rodillas) y Juan David Valencia (fractura de peroné) por el resto del año. Para rematar, no podrá utilizar a su goleador Wilson Morelo por suspensión ni a su otro delantero, Carmelo Valencia, porque él jugó con América la primera fase de la Sudamericana y está inhabilitado. El técnico Guillermo Sanguinetti deberá elegir entre Arley Rodríguez o Jorge Aguirre como reemplazo. Pero más allá de la condición física y deportiva como lleguen ambos, este partido será imperdible por una sola razón: ambos se jugarán la vida en El Campín y eso lo hará memorable. ¡Habrá partidazo en Bogotá! Entérate de la nota completa en nuestra edición impresa.</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-Con diez mil pesos en un bolsillo y su celular en el otro, llegó Óscar Orlando Garro Osorio a un hotel de paso la tarde del sábado con el fin de pasar la noche allí solo y tranquilo. Sin embargo, 27 horas después fue hallado sin vida por el administrador de la residencia. Vestido, acostado boca arriba y con una mano colgando por fuera de la cama fue como encontraron el cuerpo sin vida de Garro, de 39 años, sobre las 6 de la tarde del domingo en una de las habitaciones ubicadas en el segundo piso de un hotel en el barrio San Bernardo (en Santa Fe). “Él no entró con ninguna persona. Nunca antes lo habíamos visto por este sector y yo creo que era la primera vez que venía porque uno ya los conoce. El señor simplemente pidió el cuarto y canceló la noche”, relató a Q’HUBO un trabajador del lugar. Misteriosa muerte. Óscar llegó hasta la Carrera 10A con Calle 3 caminando, de manera pausada y confiado, como si conociera el hostil terreno que se encontraba atravesando. Con calma arribó hasta un hotel que queda a mitad de esta cuadra e ingresó sobre las 4 de la tarde del sábado. Con las ojeras resaltándole en su rostro y la cara alargada, que denotaban una actitud de persona derrotada, según relataron las últimas personas que lo vieron con vida, le dijo al administrador de la residencia que le recibiera el celular como empeño, pero este se opuso. “Yo no le recibí el celular porque eso no me sirve de nada, yo necesitaba era que me cancelara la habitación. Le pedí el dinero y la cédula para realizar el registro. Él me canceló diez mil pesos y se subió al cuarto sin decir nada más”, manifestó el administrador. El tiempo que Óscar permaneció al interior de una pequeña habitación nunca se escuchó ningún ruido extraño ni se le vio abandonar el cuarto, según relató otro huésped del lugar. Entérate de la nota completa en nuestra edición impresa.
+Cuando las persianas que sirven como puerta de un bar del barrio La Estrella (Ciudad Bolívar) se abrieron, entró un leve rayo le luz del foco de un poste que está ubicado a escasos cinco metros de la estrada del lugar, señal que llamó la atención del tendero y los clientes que al mismo tiempo voltearon su mirada. Los ojos de los testigos captaron el momento en que ingresó el cañón de un revólver y de este salieron tres proyectiles en dirección a Harold Sneider Piedrahíta González. Donde el sicario puso el ojo, logró calar las balas y por eso pereció este joven de 22 años minutos más tarde en las instalaciones de un centro asistencial del sur de la capital, en donde intentaron reanimarlo. Aunque las primeras versiones de lo sucedido dan cuenta de que todo podría estar relacionado con una riña, vecinos de la zona aseguran que posiblemente, por la forma de actuar de los homicidas, todo pudo obedecer a un ajuste de cuentas por los líos personales del hoy fallecido. “Unos dicen que el problema fue al frente del bar, otros que al pelado lo mataron adentro de donde estaba tomando. Hay varias versiones, pero eso fijo fueron tipos contratados para hacer eso, porque yo creo que ninguno de los que estaban tomando iban a  resultar con un arma”, manifestó una vecina del sur de la capital. Último trago. Cuando se les pregunta a sus allegados por Harold Sneider, ellos aseguran que era una persona rumbera, recochera y, eso sí, de temperamento templado y carácter fuerte, situación que le produjo algunos problemas en el pasado. La triste historia de muerte de este joven dedicado a la ornamentación y la construcción comenzó a las 9:00 p. m. de este miércoles, cuando visitó una vez más un establecimiento comercial ubicado a la altura de la carrera 18A con calle 72 sur, en el barrio La Estrella de la localidad 19 de Bogotá. Entérate de la nota completa en nuestra edición impresa.
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> La búsqueda de Johanna Marcela Urrego terminó en las últimas horas de la peor manera. La mujer de 27 años desapareció en el barrio Los Libertadores (San Cristóbal) y su pareja sentimental encontró su cadáver en Medicina Legal. “Resulta que el esposo de ella fue a poner el denuncio en la URI y le dijeron que se acercara primero a Medicina Legal para confirmar que no estuviera allá. Él llegó hasta las instalaciones y le confirmaron que el cuerpo de Johanna estaba ahí”, aseguró ayer a Q’HUBO Marina, una tía de la víctima. Su desaparición. La zozobra y la angustia comenzaron el pasado 17 de noviembre, luego de que Johanna tuviera una fuerte discusión, por celos, con su pareja sentimental. Tras la pelea, ella decidió abandonar su vivienda ubicada en la Calle 62 Bis Sur con carrera 9 Este, en Los Libertadores. “Resulta que Johanna y su esposo tienen una tienda, un establecimiento de cerveza. El domingo, mientras iban atendiendo, ambos se pusieron a tomar. El trago cumplió con su deber y salieron peleando por una mujer que ingresó a la tienda. Ambos subieron al apartamento, que queda ahí mismo donde funcionaba el establecimiento y solucionaron sus problemas. El esposo de Johanna se bajó a la  tienda a continuar atendiendo y cuando subió a buscarla ella ya no estaba”, relató a Q’HUBO la tía de la víctima. El hombre, angustiado porque eran las 11 de la noche de ese día, salió a buscar a Johanna Marcela y aunque estuvo dando vueltas por el barrio durante varias horas no pudo localizarla. “Todo indica que Johanna acostó a sus tres hijos y se despidió de ellos como si presintiera lo que estaba por suceder. Desde esa noche nunca más volvimos a saber de ella. Aunque realizamos una búsqueda hasta por redes sociales nadie nos dio razón”, contó Marina.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Varias personas corriendo por las calles del barrio La Gaitana (Suba) terminaron con la tranquilidad de los residentes, pues estaba a punto de desatarse un enfrentamiento que dejaría a una persona sin vida. Según lo que cuentan los habitantes del sector, todo ocurrió sobre las 3 de la madrugada de ayer, cuando alrededor de 15 jóvenes llegaron a la carrera 125 B con calle 132 B armados con palos, piedras y hasta puñales. “Eso fue una batalla campal entre costeños. De pronto se empezaron a escuchar unos gritos y personas que corrían de lado a lado. Cuando nos asomamos había varios hombres y mujeres armados; algunos tenían cuchillos y estaban dispuestos a todo”, informaron a Q’HUBO unos jóvenes del sector. Pelea mortal. Todo apunta a que los involucrados en el enfrentamiento estaban tomándose unos tragos en un establecimiento aledaño al lugar de los hechos. El licor cumplió con su deber y se desató un enfrentamiento mortal. Lo que presumen algunos moradores es que todo comenzó en el bar, y al salir del establecimiento se prendió el problema. “Lo que pasa es que esos bares son un problema. Todos los fines de semana hay peleas y disputas, casi siempre entre costeños.  Imaginamos que el problema se formó en el establecimiento y vinieron a terminarlo aquí”, enfatizaron. Q’HUBO conoció que la víctima mortal de esta historia fue identificada como Kevin Acevedo Rodríguez, un joven de 35 años que según sus allegados intervino para mediar en la pelea, y en medio de ese hecho de intolerancia un sujeto empuñó un cuchillo y le propinó una puñalada en el pecho. Entérate de la nota completa en nuestra edición impresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A lo mejor fue el alto estado de alicoramiento en el que se encontraba o el desespero por la frustración y melancolía que sentía lo que llevó a un joven, de 28 años, a lanzarse a dos vehículos en movimiento en plena Autopista Norte con calle 95. Los múltiples golpes que sufrió lo llevaron a fallecer en el lugar de los hechos, en el sector de La Castellana (Barrios Unidos), mientras que su novia observaba la aterradora escena desde el interior de un taxi, en donde se movilizaban juntos minutos antes perpetrarse la tragedia. En el lugar de los hechos uno de los vehículos permaneció a la espera de la llegada de la Policía, mientras que el otro huyó a toda velocidad por la autopista, sentido Sur-Norte, apenas arrolló al muchacho. “Ese tipo se quería morir, porque no fue que se estuviera atravesando por imprudente sino que se le lanzó a los carros, literalmente. Era obvio que a esa hora nadie iba a una baja velocidad porque hay muy poco tráfico”, relató un testigo de los hechos. Reconstrucción de los hechos. Alrededor de las 11 de la noche del domingo, luego de haber estado en un establecimiento nocturno compartiendo con varios amigos, una pareja de novios salió rumbo a sus viviendas, ubicadas en el norte de la capital. Para desplazarse tomaron un taxi sobre la carrera 15 con calle 85 y le pidieron al conductor que tomara la Autonorte. Ambos jóvenes iban discutiendo desde que se subieron al taxi, según pudo conocer Q’HUBO. “El señor del taxi dijo que se habían peleado antes de subirse porque en el interior del carro la pelea continuó y acabó en semejante tragedia”, relató una fuente anónima. Entérate de la nota completa en nuestra edición impresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victoria Eugenia Henao, viuda del temido y asesino Pablo Escobar, rompió su silencio y por primera vez habló sobre los secretos más íntimos de su matrimonio con el capo. Ayer, en una entrevista que concedió a la emisora La W radio, la mujer que durante los últimos 25 años se escondió de las miradas fusilantes de sus compatriotas y de la mira de las armas de los enemigos de Pablo Escobar, relató cómo fue vivir al lado de él. Fueron 17 años de matrimonio que acabaron el 2 de diciembre de 1993 en un tejado de Medellín, cuando Pablo fue abatido. Y aunque tuvo una vida de lujos y extravagancias por orden de su esposo, asegura ella que sufrió tanto como si hubiera vivido en una cárcel, tal y como llamó al libro en el que publica todos sus secretos y que será estrenado el próximo 15 de noviembre: ‘Mi vida y mi cárcel con Pablo Escobar’. Amor de barrio. En el libro, ella cuenta que se conoció con Pablo en 1973. Ella era una niña dedicada a su hogar y a su familia, y él el hijo de un celador de la cuadra, que recorría las calles paisas en una moto Vespa con la que conquistó ese joven corazón y con la que cometió sus primeras acciones ilegales. El sanguinario narcotraficante, cuenta ella, tenía 25 años, ella apenas 12 pero estaba segura de que él era el amor de su vida. “No estaba preparada, no sentía malicia sexual, no tenía las herramientas adecuadas para entender lo que significaba ese contacto íntimo e intenso”, relata Henao, refiriéndose a un episodio ocurrido a sus 14 años cuando Escobar la abusó sexualmente, acto en el que se gestó un bebé que tres meses después fue abortado por orden del capo. Entérate de la nota completa en nuestra edición impresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inconsistencias, dudas y un dolor inmenso fue lo que dejó la muerte de Lizeth Camacho Acosta, una joven de 20 años que ingresó al Cami de Patio Bonito el viernes, al parecer, sin signos de vida. Según lo que cuentan sus familiares, Lizeth, quien se ganaba la vida como vendedora informal, murió sobre las 9 de la noche. El compañero sentimental de la joven fue quien les dio aviso de su partida. Los allegados están desconcertados, porque no entienden muy bien qué fue lo que le ocurrió. Sienten que hay información oculta, y esperan esclarecer cuanto antes lo que realmente ocurrió ese viernes. Q’HUBO conoció con fuentes oficiales que la víctima, quien residía en el barrio Dindalito (Kennedy), ingresó al Cami con síntomas de infarto, sin embargo, en el centro asistencial evidenciaron que tenía algunos signos de violencia, por tal motivo el caso quedó en manos de la Fiscalía y de Medicina Legal, que determinarán las causas del fallecimiento.  ¿Manos criminales? Los parientes de la víctima manifiestan que tienen la sospecha de que alguien asfixió a la joven. “Ella no tenía heridas ni nada parecido, ella tenía marcas en su cuello, como si la hubieran ahorcado. “Hasta ahora la información que se tiene es limitada, sin embargo, nos queda la sospecha de que la pareja sentimental de ella tiene información que nos está ocultando, debido a que cuando lo entrevistó el CTI, las versiones que él daba no coincidían, pues en el hospital dicen que ella murió a las 9 p. m. y él asegura que falleció a las 11 p. m. “Las veces que lo han entrevistado siempre se contradice, entonces lo que queremos es conocer lo que realmente ocurrió con Lizeth”, dijeron familiares a Q’HUBO. El hombre deberá ser llamado a indagatoria para esclarecer lo sucedido. Entérate de la nota completa en nuestra edición impresa.  El hombre deberá ser llamado a indagatoria para esclarecer lo sucedido. Entérate de la nota completa en nuestra edición impresa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Con sus manos huesudas y callosas, ‘Tolima’ alcanzó a palpar lo que sería la cabeza del muerto. Él nunca necesitó ver a la víctima para saber que allí había un cadáver. Asegura que el olor a óxido que emanaba la sangre le hizo imaginar el crimen que habían cometido y la barbaridad que se escondía en esa bolsa negra que a su vez estaba oculta en una maleta de viaje desgastada por el paso del tiempo. La experiencia en las calles del sur como reciclador y hasta enfrentar a la mismísima muerte le han hecho desarrollar cierta astucia a ‘Tolima’, quien gracias a ese misterioso don pudo encontrar a ese hombre asesinado durante la tarde de este miércoles. Los moradores del barrio Villa Helena (Ciudad Bolívar), convertidos en una sola multitud, se volcaron a las calles de la zona para curiosear de quién se trataba, pero ni así pudieron identificar al desconocido, del que hasta ahora se desconoce el nombre y la procedencia.  El olor de la muerte. Muy cerca a la Calle 59A sur con Carrera 19B hay un botadero de basura, o más bien una zona verde que la comunidad usa para arrojar sus desperdicios y la cual es limpiada por las empresas de aseo cada dos o tres días. Justamente a las 3 p.m., unas cinco horas antes de que llegara el camión para recoger los desechos, ‘Tolima’ caminó hasta el basurero para inspeccionar y ver qué elementos le podían servir para reciclar. Cuenta él que en muchas oportunidades, en medio de la basura que arrojan, encuentra uno que otro elemento de valor que le sirve para ganarse el pan diario. “Las llantas (de la maleta) ya estaban desbaratadas, pienso, no es que yo haya visto, que de pronto les tocó arrastrar la maleta porque se estaba rompiendo por la parte de abajo. Ahí al lado de la maleta había una bolsa con unas cobijas y tenían sangre. Yo destapé la maleta y mandé la mano a la bolsa que había adentro, el olor a sangre me atrajo, y sentí algo redondo, yo sabía que eso era una cabeza”, dijo ‘Tolima’. Entérate de la nota completa en nuestra edición impresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Juan Pablo Nieto Payares únicamente tenía en sus bolsillos su cédula y un par de billetes que juntándolos no sumaban más de cinco mil pesos. Aún así Luis Hernando Retavisca Arévalo no dudó en arrebatarle la vida en medio de un atraco, con la reprochable razón de que la víctima no tenía objetos de valor. La víctima, de 26 años recién cumplidos, fue abordado por el homicida, cuatro años menor que él cuando caminaba hacia su vivienda en inmediaciones del barrio Brasilia (Bosa) y durante lo que se presume fue un forcejeo. El tipo le asestó una puñalada en el pecho al universitario al no haberle hallado nada que robarle. Increíble. Mientras le daban a la víctima santa sepultura, Q’HUBO pudo conocer que el responsable de este hecho, quien fue detenido momentos después del acto criminal, fue enviado a la cárcel La Modelo. De allí saldrá en los próximos días solo para conocer la condena que deberá purgar (ver recuadro). “Se llevaron una vida y dejaron a toda la familia sumida en el dolor. No es justo que pasen este tipo de cosas. Dicen que ningún muerto es malo, pero realmente este pelado lo que hacía era trabajar y estudiar para salir adelante, y vienen a quitarle la vida por nada, por dos pesos que tenía en el bolsillo no más”, dijo un tío de joven. Fin de la celebración. Los días de Juan Pablo transcurrían entre cumplir con sus responsabilidades laborales y académicas, y pasar tiempo con su familia y seres queridos cercanos. Justamente agotado de la monotonía, en el marco de la celebración de su cumpleaños número 26, decidió organizar una pequeña reunión con algunos de sus amigos para no pasar por alto esta fecha y aprovechar el pasado fin de semana. Entérate de la nota completa en nuestra edición impresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tres proyectiles fueron los que ingresaron al pecho de Carol Páez y terminaron con su existencia minutos más tarde en el Hospital de Meissen. La transgénero de 38 años, quien se ganaba la vida como estilista, tenía su peluquería en la carrera 73C con calle 76A sur, en el barrio Caracolí (Ciudad Bolívar), muy cerca al lugar donde ocurrió el ataque. Según lo que rumora la gente en el sector, el inesperado homicidio ocurrió en el barrio Tres Esquinas  (de la misma localidad) ayer sobre las 5:00 a. m., cuando Carol se encontraba departiendo unos tragos. “Nosotros estábamos descansando cuando, de repente, escuchamos unos tiros y los gritos de unas personas que decían: ‘la mataron, la mataron’. La verdad preferimos no salir, hasta ahorita fue que lo hicimos y nos enteramos de que habían acabado con la vida de la estilista”, informaron unos residentes. Madrugada infernal. Varias marcas de sangre en el suelo y habitantes curioseando en la zona comercial de Tres Esquinas era el panorama que se evidenciaba ayer en la transversal 50 con calle 76 sur, donde Páez fue herida de muerte. Un local ambulante, con unas cuantas tejas que lo cubrían, era el lugar en el que se encontraba Carol tomando licor y donde su agresor llegó para matarla. “Resulta que donde están todos esos locales comerciales, una señora viene en horas de la noche para vender traguito… eso lleva ya varios meses aquí, entonces los residentes ya saben y llegan a beber. Según lo que me han contado, Carol llevaba un par de horas tomando y ya en la madrugada, yo creo que cuando ya estaba a punto de irse, tuvo un enfrentamiento con unas personas, que fueron las que la balearon”, relataron unos residentes que distinguían a la víctima. Entérate de la nota completa en nuestra edición impresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tendida en el frío piso de la habitación de su hija, debajo de la cama, y ya sin señales de vida, fue como el esposo de Mónica Pereira Campos la encontró la tarde del sábado. Sin entender ni por un segundo el por qué de lo que estaba pasando, con una tristeza enorme en el pecho, un desespero profundo y con un montón de preguntas que hasta el momento no tienen respuesta, el hombre intentó ayudarla, pero ya era demasiado tarde. La hermosa joven de 27 años, quien estaba consagrada a su hogar y al cuidado de su hija de diez años, perdió la vida luego de que en extrañas circunstancias un desconocido sujeto entrara hasta su casa en el barrio Bosa El Remanso y la asfixiara mecánicamente. Los motivos del homicidio son un verdadero misterio, pues en el sector nadie vio llegar a la persona que cometió tan cruel ataque, y por ahora no hay pistas del responsable. Creen que fue por un robo. Familiares de la ama de casa creen que la tragedia pudo desatarse por un hurto. “Lo que pensamos es que a ella la iban a robar, porque en la casa faltan tanto la bicicleta de ella como su celular. “Sin embargo, se nos hace muy raro que el resto de las cosas estén ahí, porque a la larga un ladrón siempre se lleva todo lo que encuentra a su paso. “Seguramente el tipo iba apurado o algo así, pero que se hayan metido a robar es la explicación que más tendría sentido para nosotros”, le comentó a Q’HUBO en el lugar de los hechos una familiar de la hoy occisa. Pero hay otra hipótesis mucho más cruel y siniestra que ronda la mente de los allegados a Mónica, y es que tal vez el homicida habría intentado abusar de ella. “A ella le encontraron sin brasier, y ese elemento fue hallado luego en la basura. No descartamos que de pronto ese infeliz haya intentado violarla”, aseveró un familiar de la bella joven. En medio del dolor los allegados solo piden que se haga justicia. “Esperamos que las autoridades no se olviden de nosotros, que nos digan a ciencia cierta qué pasó, y que el culpable de todo esto pague por lo que hizo. Mónica era una mujer hermosa, con mucho por vivir, con una niña que sacar adelante, y en general una mujer ejemplar. Lo que le hicieron no tiene nombre”, aseguró un allegado a la víctima. Entérate de la nota completa en nuestra edición completa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La jornada laboral de los patrulleros Jeisson Hernando García Aguirre y William Fernando Suárez Gutiérrez había terminado sobre las 9 de la noche del miércoles, lo que llevó a ambos oficiales a abordar la moto en la que se movilizaban para ir hasta la estación de Policía de Fontibón, donde debían reportar la entrega del turno. Sin embargo, ninguno de los dos pudo llegar a su destino por cuenta de un aparatoso accidente de tránsito que los tenía, al cierre de esta edición, debatiéndose entre la vida y la muerte en el Hospital Central de La Policía. Los uniformados fueron arrollados por un alimentador de TransMilenio que los dejó inconscientes y en pésimas condiciones en el asfalto de la calle 17 con carrera 99, en el barrio Fontibón (de la misma localidad), según se conoció en el lugar de los hechos. “Eso se escuchó un golpe muy fuerte y cuando me asomé vi a los Policías acostados, uno a un lado y el otro a pocos metros. Había unos carros que se detuvieron al ver el choque para llamar a una ambulancia, porque ambos se veían gravemente heridos”, narró a Q’HUBO un residente del sector. Según la versión que se maneja hasta el momento, uno de los dos vehículos se cruzó el semáforo en rojo y esto provocó que los conductores no alcanzaran a reaccionar. Terrible accidente. Los patrulleros García y Suárez, quienes pertenecen al CAI Hayuelos, se pusieron los cascos de la moto de la Policía a las 9 en punto de la noche, pues estaban cansados y querían llegar a sus casas para dormir bien y recibir el siguiente turno, que era a primera hora de ayer, pero el destino les tenía otros planes. Sobre las 9:30 p. m., cuando transitaban por la carrera 99, no se percataron de que un alimentador viajaba rápido por la calle 17 y este terminó arrollándolos hasta dejarlos a varios metros de la moto y con múltiples heridas. Entérate de la nota completa en nuestra edición impresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Minutos después de que Julián Fernando Lancheros Páez fuera detenido por las autoridades en el sector del 20 de Julio (San Cristóbal), el joven de tan solo 25 años falleció en el interior de la celda del CAI de este sector en extrañas  circunstancias la noche del sábado. Según la versión de las autoridades, el joven decidió ponerle fin a su vida minutos después de presentarse su detención. También señalaron que privaron al muchacho de la libertad, junto a otro joven, porque se encontraban protagonizando una riña en un establecimiento público del barrio 20 de Julio. “El joven se quitó la vida con los cordones de sus zapatos y fue un uniformado quien lo encontró suspendido en el aire cuando decidió llevarlo al Hospital San Rafael, en donde los médicos confirmaron su deceso”, narró el coronel Juan Carlos Patiño, comandante operativo de seguridad ciudadana. Muerte en la celda. De acuerdo con las autoridades, teniendo las manos esposadas Julián Fernando Lancheros Páez, como pudo, desató los cordones de sus zapatos para, posteriormente, amarrarlos a una viga del calabozo del CAI del 20 de Julio (San Cristóbal), ubicado en la calle 22A sur con carrera 7. Supuestamente, lo amarró a su cuello con el propósito de asfixiarse. Dicen que un oficial, que se encontraba a pocos metros, fue quien se percató del hecho y, como pudo, desató al joven de 25 años para subirlo de inmediato a una patrulla y trasladarlo a un centro asistencial, en donde los galenos confirmaron que ya estaba muerto. “Lo que hace el uniformado es brindarle los primeros auxilios al joven, por eso es que lo traslada junto con otros policías hasta un centro asistencial”, agregó el coronel Patiño. Entérate de la nota completa en nuestra edición impresa.  “Lo que hace el uniformado es brindarle los primeros auxilios al joven, por eso es que lo traslada junto con otros policías hasta un centro asistencial”, agregó el coronel Patiño. Entérate de la nota completa en nuestra edición impresa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  “Ayudar a otros, a veces, no es más que clavarse el puñal uno mismo. Como reza el dicho popular, cría cuervos y te sacarán los ojos”, así resumen los conocidos de Sandra Mahecha Archury el triste e injusto final de la mujer de 49 años, quien perdió la vida el lunes en las horas de la mañana luego de ser salvajemente atacada con un cuchillo. A. Estrada, un joven que la dama conocía desde hace 5 meses y a quien ella tenía la intención de rescatar del bajo y difícil mundo de las drogas y la calle, presuntamente la atacó en tres ocasiones por la espalda sin razón aparente. Después del hecho el tipo desapareció por completo. Ahora los vecinos de Ciudadela Colsubsidio (Engativá), lugar en el que ocurrieron los hechos, no dejan de preguntarse en qué momento las autoridades lograrán su captura para que pague por el bajo acto que cometió: atacar a la dama que le tendió el brazo de forma desinteresada. “No es justo, sencillamente no es justo que una mujer como ella haya partido de este mundo de la forma en que se fue. No es justo que brindar la confianza a alguien y tener buenos valores y principios termine en un hecho tan doloroso y horrible. Lo que le pasó a Sandra nos tiene con el corazón en las manos, verdaderamente afectados y ahora solo esperamos que a su memoria se le haga justicia y capturen a ese tipo”, comentó a Q’HUBO un residente del conjunto en el que la dama falleció y en el cual vivía desde hace tres meses. Terrible ataque. En la torre 11 del conjunto residencial Arces Azules (ubicado en la Calle 82 con Carrera 112 f), el lunes cerca de  las 8:30 de la mañana, algunos residentes escucharon el sonido desgarrador de una mujer pidiendo que alguien la ayudara. No obstante, luego de que cesaran los desafortunados lamentos, el silencio se tomó por completo el lugar y nadie le hizo caso a los llamados de auxilio, por lo que el día transcurrió con normalidad. Fue a eso de las 5:30 p.m. cuando el hijo de Sandra llegó a su casa después de un duro día laboral y se encontró con la terrible sorpresa de que su mamá ya no tenía signos vitales. Entérate de la nota completa en nuestra edición impresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El amor que M. Villamil le profesaba a Ivón Durán se convirtió en una obsesión que ha sobrepasado los límites, pues el sujeto, según ella, no hace sino buscarla para maltratarla, y todo porque Ivón no quiere retomar con esa tormentosa relación. Lo que cuenta la víctima, de 22 años, es que desde hace tres años ella decidió terminar con Villamil porque mientras estaban conviviendo juntos, él empezó a agredirla. Sin embargo, la ruptura de la relación no sirvió de mucho, ya que desde entonces el sujeto no deja de seguirla y pegarle cada vez que puede. “Ya no sé qué más hacer. El caso ya está en conocimiento de la Policía, pero no han hecho nada y parece no importarles lo que está pasando. Ese sujeto no me deja en paz y asegura terminar con mi vida”, afirmó la mujer asustada. Ataque al salir del trabajo. La última vez que Ivón fue agredida por Villamil fue el pasado sábado sobre 6:00 p.m. La joven iba llegando a su casa luego de cumplir con su jornada laboral cuando apareció el sujeto, con quien tiene una hija de seis años. “Yo ya iba doblando la esquina de mi casa cuando él apareció y me tomó del cabello, me dijo que le entregará todo lo que tenía (me robó mi celular y mis documentos); luego empezó a insultarme y a pegarme puños y patadas. Después me dijo: ‘camine para allí’, entonces yo lo que hice fue cogerme de un árbol y empecé a gritar: ‘mamá, mamá ayúdenme por favor’, afortunadamente mi mamá y mi hermana alcanzaron a escucharme y salieron de inmediato”, relató a Q’HUBO la víctima. “Cuando yo salí, el tipo estaba como loco dándole patadas a Ivón, entonces yo le dije a mi otra hija: ‘mamita vaya y llamé a su papá y a su esposo’. Cuando ellos bajaron, ese muchacho salió a perderse y dejó a mi hija tendida en el suelo. Mientras corría, el tipo nos gritó: ‘Prepárense porque voy a venirles a dar bala a todos, los voy a matar’”, enfatizó Patricia, la madre de la víctima. Tras lo ocurrido, la familia de Ivón se comunicó con las autoridades, quienes llegaron al sitio pero no lograron capturar al  responsable. Entérate de la nota completa en nuestra edición impresa.</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/le-llego-el-final-a-la-red-de-los-calavera/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/pareja-y-tres-complices-el-terror-de-la-ciclorruta/</t>
+    <t xml:space="preserve"> Después de que uno de los gallos dio la estocada final y acabó el enfrentamiento, alrededor de la arena de pelea dos hombres se vieron inmersos en una seria discusión la cual se extendió hasta afuera del establecimiento. Y como si se tratara de una nueva pelea de gallos, un desconocido empuñando un cuchillo afilado cual espuela atacó a Jhon Alejandro Rodríguez de 26 años. La herida le costó la vida a ese joven quien creyendo que iba a tener una buena racha esa noche, al visitar la gallera ubicada en el barrio Las Orquídeas de Usme, lo único que encontró fue la muerte y una desgracia infinita para su familia. Del homicida nadie sabe nada, y aunque supieran tienen muy claro que delatarlo podría ser contraproducente porque sus vidas correrían riesgo: “si mató a uno puede matar a otro y a otro”, dijo un testigo del hecho. Entre los objetivos que las autoridades tienen que investigar, luego de conocer este hecho violento, está dar con el paradero del homicida y, no menos importante, verificar la legalidad de ese sitio comercial en donde todos los viernes y sábados se concentran los amantes de las peleas de gallos. De la víctima se ha logrado confirmar que no era residente de esa zona del sur de Bogotá, por lo que se cree que habría venido de otra localidad hasta allí para apostar y alimentar su particular gusto por estos combates. Filo y sangre. Desde hace por lo menos un año, a la altura de la avenida al llano (Calle 97F bis sur ) con Carrera 0, en el barrio Las Orquídeas, funciona una gallera de apariencia clandestina en la que se reúne un centenar de aficionados para apostar y ver morir a los emplumados; o cuando tienen suerte volver a casa con el animal vivo bajo el brazo y con sus bolsillos a rebozar de efectivo. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un flechazo de amor lo trajo a Colombia, pero finalmente no fue una mujer la que le robó el corazón al alemán Jan Koppelin. Lo que realmente lo conquistó fue la energía, alegría, actitud y capacidades de los jóvenes en las localidades de Bosa y Kennedy, con los que actualmente trabaja en diferentes actividades culturales. “En Alemania tenía una novia colombiana y decidí venir a este país para conocer a sus papás. Pero las cosas no se dieron. Encontré trabajo acá y ella se devolvió a Alemania, entonces finalmente todo terminó”, cuenta este gestor cultural y administrador de empresas de 31 años, egresado de la Universidad Lephana de Lüneburg. Fue en 2012 cuando llegó a Bogotá, desde entonces decidió involucrarse con los artistas locales para explotar su potencial y demostrarles los estereotipos que podían vencer por medio de distintas expresiones como la danza, el teatro y la música. En el desarrollo de estas labores decidió crear la Fundación Serendipia, palabra que significa ‘hallazgo valioso que se produce de manera accidental o casual’. “La creamos pensando en los beneficios que podría aportarles a los jóvenes el impulsarlos a generar ideas creativas. Nos fuimos fortaleciendo como un apoyo para que se relacionaran por medio del diálogo y de escucharse”, afirma Jan. Entérate de la nota completa en nuestra edición impresa.  “La creamos pensando en los beneficios que podría aportarles a los jóvenes el impulsarlos a generar ideas creativas. Nos fuimos fortaleciendo como un apoyo para que se relacionaran por medio del diálogo y de escucharse”, afirma Jan.  Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Después del repentino beso que se dieron los cantantes Miguel Bosé y Manuel Medrano en un concierto el pasado fin de semana en Bogotá, muchos de sus seguidores se han venido preguntando si en realidad fue algo de momento o si posiblemente hay algo más detrás de este eufórico episodio, que tiene confundidos a unos cuantos y hablando del tema a muchos otros. Tiempo después de este suceso llega Valeria Mancusi es quien desde hace unos meses se robó el corazón del cartagenero, aunque ninguno de los dos ha confirmado su romance, fuentes cercanas aseguran que ya no se esconden y que ya es habitual verlo en compañía de esta sexy mujer. Encuentra más noticias como esta en la sección Zona Rosa de tu periódico Q´hubo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hace pocos días Juan Alfonzo ‘El Gato’ Baptista, sufrió un tremendo susto cuando lo robaron, pero la preocupación no cesa para el actor, sus seguidores y de más bogotanos que se sienten inseguros en cualquier sector de Bogotá. Aunque el artista no se siente de todo el hecho seguro porque en el momento del robo el ladrón lo reconoció, y tiene miedo de que el ladrón vuelva atacar. Encuentra más noticias como esta en la sección Zona Rosa de tu periódico Q´hubo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+El motor de la camioneta de color gris (una Toyota TX) que conducía Jamilton Pérez Jaramillo aún estaba encendido cuando un hombre se le acercó lo suficiente para tenerlo a unos 50 centímetros de distancia, y le disparó en varias oportunidades. Los proyectiles viajaron directo al rostro y el cuello del hombre de 37 años, quien fue atacado justo frente a su vivienda del barrio Salvador Allende (Kennedy). Pareciera que los criminales hubieran estado siguiendo a la víctima, porque aunque estuvo muy cerca a ese sitio durante toda la tarde, prefirieron atacarlo entrada la noche de este martes cuando ya no habían casi vecinos en las calles del sur de Bogotá. Los disparos fueron certeros y aunque llevaron a Jamilton hasta la clínica de Occidente, allí pereció minutos después. Entre las especulaciones de los motivos que tendrían los homicidas para cometer este vil y triste acto, los vecinos creen que todo ocurrió en medio de un ajuste de cuentas porque, dicen ellos, que “si se hubiera tratado de un atraco lo hubieran intentado bajar de su vehículo”. “Dicen que llegaron de inmediato a dispararle, de pronto había tenido algún problema con alguien, pero eso es lo raro, porque con la gente del barrio él era muy bien, nosotros lo conocimos por el local comercial que tenía y porque vive acá en la misma zona. Nunca le conocimos problemas a él”, dijo una vecina del sector. Entérate de la nota completa en nuestra edición impresa.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¡Quién lo diría! Tras la reconciliación de la modelo y presentadora Sara Uribe con el futbolista Fredy Guarín se produjo una nueva relación, la cual tiene como protagonistas a sus exnovios. Resulta que Sebastián Rendón, hijo del narcotraficante Daniel Rendón (mejor conocido como ‘Don Mario’), quien fue pareja de Sara en 2017, e Iveth Ardila, modelo y expareja del volante del club Shanghai Shenhua de China, tienen un noviazgo desde hace dos meses, y al parecer, están muy enamorados. Así lo dio a conocer la revista ‘TV y Novelas’ en su última edición impresa. Las constantes salidas de la pareja y el verlos juntos en varios  eventos sociales, fue lo que en un principio despertó el rumor de que entre ellos dos existe algo más que una bella amistad. Además, fuentes cercanas a la pareja aseguran que, efectivamente, esa amistad trascendió, y que la relación de estos tortolitos va muy en serio. El pasado los une. Hay que recordar que las relaciones que tuvieron Sebastián e Iveth con la pareja de moda en el país, fueron recientes, y estuvieron marcadas por los triángulos amorosos. En el caso de Rendón, su noviazgo con Sara inició en noviembre del año pasado, durante una fiesta de celebración por los cumpleaños de la modelo. Según algunos conocidos de los famosos, Sebastián conquistó a Uribe con regalos y halagos, sellando un vínculo afectivo que duró varios meses. Incluso, todo pintaba para que este idilio fuera duradero, pues ambos compartieron festividades decembrinas con sus familias, luego viajaron juntos a Cartagena (hay imágenes de ambos en un yate), y como si fuera poco, vivieron en un apartamento en Bogotá y tuvieron un perro. Sin embargo, Guarín aún mantenía contacto con la presentadora, lo cual la motivó a terminarle a Sebastián, ya que su deseo era volver con el futbolista, de quien ahora espera un hijo. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si para este puente todavía no ha elegido qué hacer le contamos que hoy, mañana y el domingo usted, junto a su familia, podrán disfrutar de un show en el que se tendrán a grandes artistas nacionales e internacionales. Se trata del cierre de ‘Palau Festival’, un importante evento que busca fomentar los valores en las familias bogotanas y que contará con la presencia de Luis Palau, uno de los evangelistas, pastores y  escritores argentinos más importantes del momento. ¡Anímese! Será todo un espectáculo y lo más importante es gratis. La Chilindrina llega a Colombia. La actriz mexicana María Antonieta de las Nieves, mejor conocida como La Chilindrina, uno de los personajes de la popular serie mexicana ‘El Chavo del 8’,  hará parte del espectáculo para niños que se llevará a cabo el domingo en el Parque Metropolitano El Tunal (Cra. 19 No. 52B-15). Los interesados en asistir al show de esta importante mujer podrán hacerlo a partir de las 12 p. m. Además, María Antonieta le enseñará a los más pequeños, por medio de cuentos, los valores y principios sanos para ellos y la forma de relacionarse con sus familiares. Tremendos conciertazos. Este importante festival también le ofrecerá a sus asistentes hoy, a las 5 p. m., en la Plaza de Bolívar (Cra. 7 No. 11-10) y mañana a las 4 p. m., en el Parque El Tunal (Cra. 19 No. 52B-15), un concierto inolvidable. Artistas como Alex Campos, Moisés Ángulo, Redimi2, Adriana Botina  y otros más ofrecerán sin ningún costo lo mejor de su repertorio. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Con su presencia y manera de bailar, Danielle Rodas, una bailarina de 25 años, brilló en la ceremonia de clausura del Mundial de fútbol de Rusia. Esta bella mujer, que nació en Miami (EE.UU.) pero tiene sangre y raíces colombianas (mamá bogotana y papá caleño), le reveló a Q’HUBO que haber hecho parte de este espectáculo fue una oportunidad única, que solo deja en evidencia su disciplina y pasión por lo que hace. Sin darse cuenta, ‘Dani’, como la llaman sus familiares y personas cercanas, aseguró que hacer parte de uno de los eventos más importantes del mundo llegó sin imaginarlo. Hace un mes, ella, en compañía de su mamá, viajaron a Rusia únicamente para disfrutar de esta celebración futbolística, lejos de imaginar que viajar para apoyar a la Selección Colombia la llevaría a hacer un casting para acompañar a Nicky Jam, Will Smith y Era Istrefi en la clausura, ceremonia en la que dejó al descubierto todo su swing. “Para mí este es el logro más grande de mi carrera y un sueño hecho realidad. Nada se compara, porque esto no estaba en mis planes y jamás pensé que esto pasaría. “La organización de todo estaba a cargo de Rusia y por eso nunca imaginé que habría posibilidad de un casting para que yo estuviera allí”, le aseguró Danielle a Q’HUBO con gran euforia. Por medio de la reconocida coreógrafa Nicka Kljun, Danielle se dio cuenta de que estaban buscando bailarinas para el show final, y sin pensarlo dos veces tomó la iniciativa de participar. Días después audicionó junto a 70 mujeres más, y al día siguiente la llamaron para decirle que la habían escogido. “¡Cuando me eligieron no lo podía creer! Esta fue una experiencia única, que no se compara con nada de lo que he hecho. Era un sueño, y bien lejano. Solo sé que coincidí en el momento preciso y todavía no me lo creo”, añadió. Entérate de la nota completa en nuestra edición impresa.  “Para mí este es el logro más grande de mi carrera y un sueño hecho realidad. Nada se compara, porque esto no estaba en mis planes y jamás pensé que esto pasaría. “La organización de todo estaba a cargo de Rusia y por eso nunca imaginé que habría posibilidad de un casting para que yo estuviera allí”, le aseguró Danielle a Q’HUBO con gran euforia. Por medio de la reconocida coreógrafa Nicka Kljun, Danielle se dio cuenta de que estaban buscando bailarinas para el show final, y sin pensarlo dos veces tomó la iniciativa de participar. Días después audicionó junto a 70 mujeres más, y al día siguiente la llamaron para decirle que la habían escogido. “¡Cuando me eligieron no lo podía creer! Esta fue una experiencia única, que no se compara con nada de lo que he hecho. Era un sueño, y bien lejano. Solo sé que coincidí en el momento preciso y todavía no me lo creo”, añadió. Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dejó Medellín para perseguir el sueño de su hija Mónica Lopera: convertirse en una reconocida actriz. Juntas llegaron a Bogotá, sin saber que Carmenza Cossio iba a terminar más enamorada de la actuación que su propia hija. Esta mujer de 51 años es una guerrera de la vida, aventurera y valiente. Cuenta que está dispuesta a hacer cualquier cosa por su verdadero amor: su hija y su nieto Pedro. Y aunque reconoce que no ha sido fácil permanecer lejos de Mónica, pues ella está viviendo en Londres (Inglaterra) al lado de su esposo Andrés y su bebé, es consciente que allá su retoño es más feliz. Por estos días vemos a Carmenza al aire en dos producciones de RCN: ‘Las Vegas’, donde interpreta a una veterinaria, y en la ‘Ley del corazón’, como ‘La nena Jaramillo’. Encuentra más noticias como esta en la sección Zona Rosa de tu periódico Q´hubo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La piloto bogotana Tatiana Calderón cerrará su temporada en la GP3 Series este fin de semana. Hoy son las prácticas libres y mañana y el domingo se llevarán a cabo las competencias. La prueba se desarrollará en el circuito Yas Marina (Abu Dhabi) Encuentra más noticias como esta en la sección Zona Deporte de tu periódico Q´hubo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El paso de la hermosa Kate del Castillo por Bogotá, literalmente, quedó grabado en su piel. Por medio de su cuenta de Instagram (@katedelcastillo) la actriz mexicana, quien se encuentra en la capital para ver los detalles de la segunda temporada de ‘La reina del sur’, tomó la decisión de dejarse tatuar por un artista bogotano. Con varios tragos de tequila en medio de la sesión, Kate adornó su espalda con la ayuda del artista Billy Virviescas, un joven de 22 años, quien se reunió con ella el sábado en la noche en el apartamento en el que ella suele quedarse cuando está en el país. “Gracias Billy por mi tattoo, la plática (charla) y las risas”, fue el mensaje con el que la protagonista de ‘Ingobernable’ le agradeció al tatuador por su dibujo. El diseño que Kate escogió es una flor de loto, la cual, aunque no contó lo que significa para ella, sí dejó claro que si se la hizo es porque algo muy importante representa en su vida. “Nunca imaginé que iba a tener la oportunidad de trabajar con ella y menos en algo tan importante. Me alegra mucho que haya confiado en mí y puedo decir que ese trabajo es uno de los más gratificantes que he tenido”, le contó Billy a Q’HUBO. Virviescas nos reveló que Kate se puso en contacto con él por medio de Lucas Cristo, un reconocido director de fotografía, a quien también le ha hecho varios tatuajes y que además lo ha recomendado con famosos como Angélica Blandón, José Daniel Cristancho y otros más. “Tuve la oportunidad de hacer trabajos para ellos gracias a la confianza que Lucas me ha brindado. Él fue el que me puso en contacto con Kate y por eso pude sacar ese trabajo adelante. Además, fue algo que disfruté muchísimo porque es una mujer sencilla con la que tuve la oportunidad de hablar y compartir por casi tres horas”, nos reveló. Un sueño hecho realidad. El artista que se dio el lujo de plasmar lo mejor de su arte en la piel de la actriz vive en el barrio Dorado Norte, en Engativá. Billy, quien empezó a trabajar en este oficio hace seis años, nos contó que a muchos de sus clientes los atiende en su apartamento, en el que vive junto a su familia; a otros los recibe en el estudio de uno de sus amigos que está ubicado en el barrio Villa Luz  en la misma localidad. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nacer en una familia apasionada por el deporte fue la razón por la que Blanca Liliana Moreno, desde muy pequeña, decidió encaminar su vida hacia las competencias. Su padre, Juan Pablo, vio en ella talento para el ciclismo, por lo que desde la época en la que estaba en el colegio la motivó a prepararse físicamente para ser una de las mejores pedalistas. “Siempre vi a mi papá practicar ciclismo, pero de manera aficionada. Y recuerdo que en 2009 y 2010 nos retábamos a recorrer la subida a patios (Vía a La Calera). Entonces, ahí comencé a conocer el ambiente de esta disciplina, y me motivé a mejorar mis habilidades. “Conocí al entrenador Diego Pérez, y con él inicié la preparación. Luego de graduarme de bachiller entré a la Liga de Ciclismo de Bogotá y me metí de lleno en el deporte”, le relató Liliana a Q’HUBO. Los resultados de Liliana, luego de 11 años de trayectoria, han sido los mejores: fue campeona nacional de ruta en 2013; dos veces ganadora del Tour Femenino de Colombia (en 2012 y 2013); dos veces campeona departamental, y recientemente logró el título de la Vuelta a Costa Rica. Estos triunfos le abrieron las puertas al ciclismo internacional, ya que este año cumplió su sueño de firmar con un escuadrón de élite: el Astana, donde también está Miguel Ángel López. “Ha sido una experiencia especial. Es un nivel diferente de ciclismo profesional, y lo aprovecho como la oportunidad que muy pocas corredoras colombianas tenemos. “Tuve la posibilidad de participar en el Giro de Italia Rosa (logrando el puesto 52, fue la mejor latina), el Giro de Toscana y el de California (Puesto 11), y eso me permitió participar en la Copa Mundo. Pero quiero seguir trabajando para dar buenos resultados”, agregó Moreno, de 26 años. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuando una de las columnas de concreto que sostenía una viga de metal se desplomó, Fernando Ruiz y otros cinco empleados de la construcción del puente La Pala, en la vía Bogotá – Villavicencio, cayeron unos 50 metros en las profundidades de una montaña en la que estaban edificando la estructura. Solo uno de los seis hombres, Alejandro Gutiérrez, se salvó de milagro, pero sigue internado en un centro asistencial; mientras que los otros cinco: Germán Guzmán, Ramiro Rodríguez, Fernando Ruiz, Róbinson Ortiz Ruiz y José Acuña perdieron la vida y sus cuerpos fueron rescatados únicamente hasta las 2 p.m. de ayer. El incidente ocurrió en inmediaciones del sector de Chirajara (Cundinamarca) más exactamente en el kilómetro 65, pero la tragedia llegó hasta Bogotá y tocó a una familia residente de la localidad de San Cristóbal debido a que Fernando Ruiz era uno de sus integrantes. Aunque el hombre era oriundo del municipio de Gutiérrez, también en Cundinamarca, su familia había extendido su cerco y llegaron hasta la capital en donde lograron construir un hogar. “Él ahora último no iba mucho a Bogotá, porque como estaba trabajando en esa obra, por comodidad se fue a vivir a Guayabetal, pero la mayoría de sus familiares se quedaron acá en Bogotá”, dijo Élver, su primo más cercano. Además de esta muerte, parece que al clan Ruiz le hubiera caído una maldición, porque el pasado viernes otro de sus integrantes, Junior Andrés Castro Ruiz, pereció en un accidente de tránsito en Bogotá (ver recuadro). Dolor incontenible. Hace un año se corrió la voz en Cundinamarca que estaban buscando obreros para trabajar en la construcción del puente La Pala, que tiene como fin la obra de la doble calzada que conectará a la capital con el llano. Entérate de la nota completa en nuestra edición impresa.  Cuando una de las columnas de concreto que sostenía una viga de metal se desplomó, Fernando Ruiz y otros cinco empleados de la construcción del puente La Pala, en la vía Bogotá – Villavicencio, cayeron unos 50 metros en las profundidades de una montaña en la que estaban edificando la estructura. Solo uno de los seis hombres, Alejandro Gutiérrez, se salvó de milagro, pero sigue internado en un centro asistencial; mientras que los otros cinco: Germán Guzmán, Ramiro Rodríguez, Fernando Ruiz, Róbinson Ortiz Ruiz y José Acuña perdieron la vida y sus cuerpos fueron rescatados únicamente hasta las 2 p.m. de ayer. El incidente ocurrió en inmediaciones del sector de Chirajara (Cundinamarca) más exactamente en el kilómetro 65, pero la tragedia llegó hasta Bogotá y tocó a una familia residente de la localidad de San Cristóbal debido a que Fernando Ruiz era uno de sus integrantes. Aunque el hombre era oriundo del municipio de Gutiérrez, también en Cundinamarca, su familia había extendido su cerco y llegaron hasta la capital en donde lograron construir un hogar. “Él ahora último no iba mucho a Bogotá, porque como estaba trabajando en esa obra, por comodidad se fue a vivir a Guayabetal, pero la mayoría de sus familiares se quedaron acá en Bogotá”, dijo Élver, su primo más cercano. Además de esta muerte, parece que al clan Ruiz le hubiera caído una maldición, porque el pasado viernes otro de sus integrantes, Junior Andrés Castro Ruiz, pereció en un accidente de tránsito en Bogotá (ver recuadro). Dolor incontenible. Hace un año se corrió la voz en Cundinamarca que estaban buscando obreros para trabajar en la construcción del puente La Pala, que tiene como fin la obra de la doble calzada que conectará a la capital con el llano. Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hace 5 años don Hugo Delgado empezó a construir un sueño. Su pasión por los trenes y los balancines lo llevaron a construir una bicicleta del ‘futuro’. Este velocípedo de tres ruedas ‘paraliza’ al barrio El Recuerdo, en Cali, cada vez que lo sacan a dar una vuelta. La ‘Balancineta’, así se llama la nueva creación de este artista plástico, que funciona con dos personas que se balancean en equipo para que la ‘cicla’ se mueva. “La idea llegó viendo una conferencia de un japonés en Bogotá, donde nos decían que los orientales eran más desarrollados porque ellos trabajaban en equipo. Así nació la idea de poner a trabajar a dos personas en un instrumento. Hoy el invento está listo y patentado”, dijo el inventor. La ‘Balancineta’ fue construida 100% por las manos de don Hugo, pero según dice, él nunca se ha montado en ella. “Desde que la construí siempre la ha montado la gente, pues le pido el favor a cualquiera de los vecinos y ellos la ensayan. “Al principio le cambiamos la dirección y algunos piñones que se ajustaron, hasta que quedó perfecta”, dijo el artista. Don Hugo sueña con poder comercializar su invento en Estados Unidos y así masificarlo. “Me invitaron a un programa de inventos en USA, con la presentadora Anne Bell, pero me negaron la visa. Igual seguiré luchando para que mi patente salga adelante”, comentó. Perros sobre ruedas. Este inventor además le ha devuelto la vida a 1.131 perros que han quedado inválidos, pues es el récord en silla de ruedas para perros que ha hecho con sus manos. Entérate de la nota completa en nuestra edición impresa.   Este inventor además le ha devuelto la vida a 1.131 perros que han quedado inválidos, pues es el récord en silla de ruedas para perros que ha hecho con sus manos. Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por estos días la actriz bogotana Natalia Reyes, quien fuera la protagonista de la serie del canal RCN ‘Leidy, la vendedora de rosas’, está en Budapest, capital de Hungría, en el rodaje de ‘Terminator 6’, en compañía de figuras como Arnold Schwarzenegger y Linda Hamilton (Sarah Connor en ‘Terminator’ 1 y 2). Durante un descanso, después de una jornada de rodaje en Hungría en esta producción para la que trabaja un equipo de 500 personas, Natalia Reyes habló de lo que ha significado este logro. ¿Ha viajado a varios países para el rodaje de ‘Terminator 6’? El rodaje solo se ha hecho entre España y Hungría. Antes de este sí tuve que estar un tiempo en Los Ángeles y debí hacer otras de las pruebas (de casting) en Dublín, Irlanda. ¿Cómo ha sido la experiencia de trabajar en esta súper producción? Maravillosa. Ha sido una producción gigante, hay mil cosas que nunca había visto. Así que estoy aprendiendo y sorprendiéndome. Háblenos de su personaje de Daniela Ramos…La verdad es que no dejan hablar mucho de los detalles de los personajes, quieren mantener la sorpresa para todo el público. Lo que se sabe es que Daniela Ramos es una chica mexicana. ¿El productor James Cameron y el director Tim Miller cómo supieron de su existencia? Ellos hicieron una convocatoria, después de mucho tiempo de no encontrar el personaje en Estados Unidos, Lainoamérica y en España. En muchos países hicieron casting, no encontraban aún el personaje y decidieron abrir la convocatoria casi que públicamente, así que la mandaron a muchos mánagers en el mundo. ¿Cuántos meses duró el proceso de escogencia? Unos tres meses desde el momento del primer casting hasta el día en que me dijeron que había quedado. Entérate de la nota completa en nuestra edición impresa.  Unos tres meses desde el momento del primer casting hasta el día en que me dijeron que había quedado.  Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vida del bogotano Nelson Uriel Forero no solo gira alrededor de su nueva canción ‘No te puedo olvidar’, tema que lo está posicionando en la música popular, sino que además se mueve en torno a las obras sociales que realiza a favor de las personas más vulnerables, o con menos oportunidades en la vida. Desde que era muy niño Nelson soñaba con ser cantante, pero siempre tuvo un “miedo a un no sé qué”, que le impidió por muchos años dar ese paso definitivo y comprobar si tenía el talento suficiente para cantar en público. En la medida que han pasado los años, con mucho sacrificio, entrega y dedicación, las cosas se le han dado. Primero fue en el colegio, en donde fue perdiendo el miedo escénico en cada una de las presentaciones que hizo en las celebraciones institucionales, como las izadas de bandera o en la memorables jornadas de la semana cultural. De otro lado, debido a la falta de recursos económicos de la familia, tuvo que emplearse como mesero en restaurantes, trabajar como obrero en una construcción y ser reciclador de papel, plásticos y botellas. Eso ayudó a resolver en algo las dificultades del billete en casa. Su vida musical inició a los 15 años, algunas veces regalando su arte, voz y vocación con el fin de que lo conocieran y lo volvieran a llamar para próximos eventos en los que pudiera cobrar algo de dinero. De esta manera fue en la que se dio a conocer en el barrio Villa María, de la localidad de Suba, donde vive y es muy querido y respetado por la comunidad. “Soy agradecido con lo que tengo y con lo que he logrado, pero también debo reconocer que mi vida ha estado llena de tropiezos financieros, pues muchas veces dejé de ir a presentaciones porque no tenía ropa para presentarme, o porque simplemente no tenía para el transporte”, aseguró Nelson Uriel, quien vive muy feliz. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vida en las calles, la estigmatización social, la falta de oportunidades y la discriminación en su más pura esencia, son tan solo algunos de los problemas que tiene que enfrentar a diario la comunidad afrodescendiente en este país y, aún más, las personas transgénero. Michell Vásquez Higuera, una mujer transgénero nacida en Cali y quien es reconocida por el apodo de ‘Candelaria’ (sitio en el que vive desde hace 11 años), lo sabe muy bien, pues lo ha tenido que vivir en carne propia. Esta mujer, quien es reconocida por las víctimas del conflicto armado y población vulnerable como una guerrera, trabajadora, inquebrantable y quien resulta  un verdadero ejemplo de superación personal, entrega su vida al servicio de las personas que más la necesitan. Desde su llegada a Bogotá ha dedicado la mayor parte de su tiempo a ayudar a los jóvenes. Junto con varios colaboradores presta atención psicosocial a personas en condición de calle para mostrarles, a través de su ejemplo, que hay otras opciones de vida y una forma digna de ganarse el sustento diario. “Nosotros como población afro y transgénero no tenemos las mismas posibilidades que el común de las personas: acceder a un empleo formal es sumamente difícil y deshacer el estigma que tiene la sociedad frente a nosotros es aún más complejo. Muchas personas con las que trabajamos han caído en la condición de calle, la prostitución y tienen realidades supremamente complejas, no porque quieran sino porque no tienen otra alternativa. Entérate de la nota completa en nuestra edición impresa.  “Nosotros como población afro y transgénero no tenemos las mismas posibilidades que el común de las personas: acceder a un empleo formal es sumamente difícil y deshacer el estigma que tiene la sociedad frente a nosotros es aún más complejo. Muchas personas con las que trabajamos han caído en la condición de calle, la prostitución y tienen realidades supremamente complejas, no porque quieran sino porque no tienen otra alternativa.  Entérate de la nota completa en nuestra edición impresa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brayan Nicolás Parra Toloza es uno de los pocos ejemplos de superación que tiene el deporte bogotano, pues este habilidoso lateral derecho de la selección Colombia de Fútsal a muy temprana edad comenzó a jugar microfútbol en las canchas de los barrios Aures 1, Kennedy, El Rincón de Suba, Lagos de Suba y CAI Rincón, en donde dejó una huella imborrable gracias a sus endemoniados enganches. Proveniente de una familia muy humilde, Brayan y sus siete hermanos tuvieron una infancia muy sufrida, no solo porque vivieron en carne propia los abusos, maltratos y agresiones físicas de un padre que siempre estaba borracho sino porque al ser abandonados por este mismo personaje, a pesar del sacrificio y esfuerzo de doña Sandra Edith, su madre, crecieron con dificultades económicas.“A mí siempre me apasionó el ‘micro’ porque lo llevaba en la sangre, ya que mi padre, mis tíos y toda la familia lo jugaban. A los 8 años comencé a entrenar con un equipo de Kennedy y para mí fue una experiencia increíble, porque a los 14 años ya me conocían en todos los torneos de Bogotá”, recordó Brayan, quien relató que debido a la irresponsabilidad de su padre, a veces no había qué comer en la casa. Con el objetivo de sacar adelante a sus ocho hijos, doña Sandra trabajaba fuertemente en todo lo relacionado con la construcción, especialmente en la pintura, pero el dinero no le alcanzaba para suplir todas las necesidades del hogar. ¡La crisis económica era fuerte! Para agrandar la crisis familiar, doña Sandra supo que Brayan andaba en malos pasos, pues las amistades que tenía ya lo habían encaminado de manera fuerte al trago, al cigarrillo y otras actividades nada recomendables, hasta el punto que llevado por el vicio muchos lo daban como caso perdido. Entérate de la nota completa en nuestra edición impresa  Para agrandar la crisis familiar, doña Sandra supo que Brayan andaba en malos pasos, pues las amistades que tenía ya lo habían encaminado de manera fuerte al trago, al cigarrillo y otras actividades nada recomendables, hasta el punto que llevado por el vicio muchos lo daban como caso perdido.  Entérate de la nota completa en nuestra edición impresa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carlos Andrés Ramírez con tan solo 11 años de edad ha tenido una gran trayectoria actoral, pues ha trabajado con artistas de talla internacional como los actores Javier Bardem y Penélope Cruz. Aunque aún parece muy pequeño, el bogotano se inició en el mundo artístico a los 2 años de edad en la Escuela de Teatro Musical Misi y es más preparado que un kumis, pues sabe hablar inglés, un poco de mandarín, practica tenis de alto rendimiento y le encanta leer. ¿Cómo empezó su proceso para ser artista? Mis padres me inscribieron en clases de actuación cuando tenía 2 años, luego me empezaron a salir obras de teatro, comerciales, series y películas. ¿Actualmente sigue estudiando actuación? Estudio teatro musical y actuación en varias academias. También aprendí a hablar inglés en un colegio bilingüe y sé mandarín, esa fue una pequeña idea que tuve, pero a los dos meses paré porque no tenía mucho tiempo, pero algo es algo (risas). ¿Dónde hace sus estudios reglamentarios? Estoy en sexto grado y ya no estudio en colegio presencial sino que en uno virtual que está ubicado en Miami (Estados Unidos). Por computador me mandan todo lo que tengo que hacer. ¿Es el único de su familia que está en el mundo artístico? Mi hermana también está en el medio. Se llama María Elvira Ramírez, tiene 14 años, ella actúa, canta y baila. Mis padres son médicos. ¿Cuál fue la primera película en la que actuó? Se llama ‘Loving Pablo’, en ella trabajé con Javier Bardem y Penélope Cruz, pero no se ha estrenado en Colombia. En esa película interpreté al hijo de Pablo Escobar cuando estaba pequeño. Me sentí muy feliz porque aprendí mucho de esos actores, siempre me felicitaban. ¿Cómo fue la experiencia al grabar la película ‘Pa’ las que sea papá’? Fue muy divertida porque Hassam no es solo chistoso cuando lo están grabando sino que también en la vida cotidiana es demasiado gracioso, se la pasaba contando chistes y solo nos demoramos dos semanas grabando, porque todo literalmente estaba muy bien planeado y organizado. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El pasado 31 de julio Edwin Herrera cumplió un sueño, jugar un torneo internacional con Santa Fe: la Copa Sudamericana. Y se hizo realidad en el encuentro de vuelta de la segunda fase, ante Rampla Juniors de Uruguay. En ese encuentro el cartagenero de 19 años se destacó como lateral izquierdo, posición en la que hasta ahora viene practicando. Con su velocidad y salida en ataque fue clave para que el Rojazo lograra el triunfo 2-0 que lo puso en los octavos de final de la competencia. Ahora que este juvenil se consolida en el primer equipo y que se perfila como una futura figura del ‘Léon’, Q’HUBO habló con él sobre su historia, su presente deportivo y, además, sobre su faceta desconocida: la de peluquero. ¿Cómo se dio su llegada a Santa Fe? Debido a situaciones familiares tuve que trasladarme desde muy pequeño, con mi familia, hacia Bogotá para buscar un mejor futuro; y en 2009 me enteré que Santa Fe estaba haciendo unas pruebas para ingresar a las divisiones inferiores. Recuerdo que pasamos dos jugadores, entre 100 aspirantes, y así comenzó mi carrera deportiva en el equipo. Y debutó como profesional este año con Gregorio Pérez… Así es, el ‘profe’ Pérez me subió al primer equipo y me mantuve con Gerardo Bedoya. Ya con el entrenador Guillermo Sanguinetti gracias a Dios me ha ido bien. Usted empezó como volante extremo por izquierda y ahora es lateral, ¿a qué se debe el cambio? De lateral venía trabajando hace tiempito porque hubo mucho jugador que llegó y que es volante, entonces no tenía mucha posibilidad de jugar. Me están trabajando ahí (como lateral) y lo he hecho de la mejor manera. Hay que saber marcar y pasar la pelota. Soy consciente de que estoy comenzando y donde me pongan trataré de hacer lo mejor. Bueno, como lateral ya tuvo minutos en la Sudamericana… Es una alegría inmensa porque es un torneo en el que todos quieren jugar; aparte, es un torneo internacional en el que te están viendo muchas personas y es una oportunidad muy bonita. Cuando no está jugando fútbol, ¿qué le gusta hacer? Peluqueo. Les he hecho cortes a algunos compañeros, como Wilson Morelo. ¿Y cómo aprendió? Trasquilando gente (risas). Aunque mi mamá, Estrella Hernández, toda la vida ha trabajado en eso. ¿Por qué la peluquería? Lo escogí porque me ayudaba económicamente, para costear todos los gastos, y lo hago bien. O sea que a futuro piensa abrir su propia peluquería… Lo mío es el fútbol, la verdad. Pero de pronto más adelante monte barberías. Aunque dedicarme de lleno a este arte, no. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antes de que la luz se fuera del todo, la intensidad de los focos de energía bajó dos veces, todo en cuestión de segundos, y debido a que Edwin Arturo Ramírez había tocado por accidente unos cables de alta tensión en un predio del sur de Bogotá. Fueron más de mil voltios los que viajaron por todo el cuerpo de este joven, de 24 años, quien no soportó la intensidad de la electricidad y pereció pasadas las 12:30 p.m. de ayer. Para las autoridades este hecho no tiene otra explicación que un accidente doméstico, pues todo se habría presentado mientras él adelantaba una serie de arreglos locativos en un predio cercano a donde residía. Q’HUBO visitó el lugar de los hechos e intentó hablar con los propietarios de la vivienda para conocer su versión sobre esta muerte, pero ellos prefirieron no entregar mayores detalles ante lo ocurrido, pues seguramente temen que sean involucrados en la investigación. Aunque el hecho se presentó en ese lugar, es importante aclarar que los dueños de esa casa y quienes viven allí no tienen nada que ver con lo sucedido, porque, como ya se mencionó, la muerte se presentó en el marco de un accidente. Efectivos de criminalística señalaron que el joven murió debido a que la descarga eléctrica afectó seriamente el sistema nervioso de Ramírez, provocando que su corazón se detuviera de manera fulminante. Muerte en el trabajo. Quienes conocieron a Edwin Arturo saben lo activo, trabajador y responsable que era. De él no hay queja alguna, pues todos los que lo rodearon alguna vez lo recuerdan con su sonrisa contagiosa, la cual hacía olvidar cualquier preocupación. Aunque él siempre fue un soñador y dio todo para lograr lo que deseaba, lamentablemente la vida no le dio otra oportunidad y por eso el destino se lo llevó mientras trabajaba en la construcción de una vivienda justo entre los barrios Naciones y Vista Hermosa, en la localidad de Ciudad Bolívar.  Efectivos de criminalística señalaron que el joven murió debido a que la descarga eléctrica afectó seriamente el sistema nervioso de Ramírez, provocando que su corazón se detuviera de manera fulminante. Muerte en el trabajo. Quienes conocieron a Edwin Arturo saben lo activo, trabajador y responsable que era. De él no hay queja alguna, pues todos los que lo rodearon alguna vez lo recuerdan con su sonrisa contagiosa, la cual hacía olvidar cualquier preocupación. Aunque él siempre fue un soñador y dio todo para lograr lo que deseaba, lamentablemente la vida no le dio otra oportunidad y por eso el destino se lo llevó mientras trabajaba en la construcción de una vivienda justo entre los barrios Naciones y Vista Hermosa, en la localidad de Ciudad Bolívar.  Entérate de la nota completa en nuestra edición impresa. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuando Sara Valentina Ávila Hernández llevaba seis días recluida en el hospital Simón Bolívar, en el norte de Bogotá, los médicos le aseguraron a Yeimy Paola Ávila Hernández -su madre- que la vida de la menor había que ponerla en manos de Dios, porque ellos ya habían hecho lo que estaba a su alcance. Desde entonces las plegarias, los rezos y los encuentros con el Altísimo eran de día y  de noche. Cada uno de los integrantes de esta familia se aferró más que nunca a ese ser supremo para que mantuviera con vida a Sarita, pero él tampoco pudo hacer mayor cosa y la tarde de este miércoles se la llevó para la eternidad. Justo cuando completó ocho días de hospitalización, después de sufrir quemaduras de tercer grado en el 22 por ciento de su cuerpo, la niña pereció por un paro cardíaco fulminante. Luego del accidente doméstico del que fue víctima, sus defensas disminuyeron y su corazón empezó a trabajar menos, razón por la que le falló horas después de que le hicieron la última intervención médica para recuperarla de las quemaduras. La imagen de Sara Valentina, quien cumplió dos años un día antes de que muriera, quedará perpetuada en el tiempo como un angelito que ahora cuida a los suyos desde el cielo. Después de su partida los Ávila Hernández no saben de otra cosa que no sea el llanto, pasar noches desvelándose en el silencio y lamentando una y otra vez el momento en el que, de manera accidental, su mayor tesoro cayó dentro de una olla que contenía varios litros de agua hirviendo.  El único consuelo que hoy tiene Yeimy Paola (20 años) es que: “Dios sabe cómo hace sus cosas y si se la llevó fue porque ella no era para este mundo”, pero aún así sabe que hoy su corazón está vacío porque su primera hija se fue para siempre. Entérate de la nota completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El juvenil de Millos, Sergio Villareal, pasa por un duro momento. En 2014 cumplió el sueño de debutar como futbolista profesional vestido de ‘Embajador‘. De la mano del técnico que tenía en ese entonces Millonarios, Ricardo Lunari, el bogotano tuvo la posibilidad de darse a conocer en el club, al punto de ser una alternativa gracias a sus cualidades como medio campista de primera línea. Pero toda la suerte le cambió. Lea la historia completa en nuestra edición impresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El talento de Christian Tappan es de talla mundial, tanto así que hará parte de la película ‘Running with the devil‘, que por estos días se filma en varias locaciones del sur de Bogotá y la cual protagoniza el reconocido actor de Hollywood Nicolas Cage. Tappan, a quien actualmente vemos como Gonzalo Acuña en ‘Paraíso Travel‘ del canal RCN, tuvo el placer de rodar junto al ganador del premio Óscar (1995), sin siquiera imaginar que esta experiencia se iba a dar y que él sería el afortunado de quedarse con un papel que, incluso, llegó a rechazar. En diálogo con Q’HUBO Christian reveló cómo llegó a hacer parte de este proyecto y  lo importante que fue para él trabajar con una de las estrellas gringas más importantes de la pantalla grande.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Iván López, para la mayoría de mujeres, encender sus televisores y ver a este talentoso hombre es todo un placer. Muchos disfrutaron de su actuación en ‘La ley del corazón’ donde interpreto al mujeriego y ‘Picaflor’ Nicolás Ortega. Ahora aquellas que pensaron que no lo volverían a ver por un tiempo tendrán el gusto de verlo en acción en la nueva producción del canal RCN: ‘No olvidaras mi nombre’. El bogotano le da vida a Sergio Aparicio, un joven trabajador y honesto que lucha por la justicia y la verdad, características no muy alejadas a lo que es Iván en la realidad, pero con las que espera hacer historia en esta telenovela. Encuentra más noticias como esta en la sección Zona Rosa de tu periódico Q´hubo.</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/manana-de-panico-en-bosa-centro/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/delincuentes-acaban-con-james-en-atraco/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/en-rina-sentimental-apunalan-a-lizbeth/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/asesinado-en-un-atraco-callejero/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/un-muerto-y-un-herido-en-intento-de-atraco/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/chichi-a-responder-por-crimen-de-diana/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/habra-ley-seca-en-3-barrios-de-kennedy/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/casa-por-carcel-a-atracadores-de-ciclas/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/mortal-accidente-de-maria-susana/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/hurtos-en-suba-el-pan-de-cada-dia/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/a-la-carcel-acusado-de-doble-homicidio/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/a-carlos-le-pusieron-cita-para-matarlo/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/fatidica-manana-para-christ/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/dolor-en-engativa-por-el-vigilante-perez/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/lluvia-bala-parque-enrejado/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/cae-camillero-vendia-vicio-hospital/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/polemica-rumba-las-5-m/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/policia-extorsionista-condenado-4-anos/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/mas-menos-querido-la-tricolor/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/alejandra-salio-bien-del-quirofano/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/colombia-esta-modo-papa/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/homicidio-manos-menor-edad/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/crimen-de-jonathan-por-la-vil-intolerancia/</t>
   </si>
   <si>
     <t>http://www.qhubo.com/sembraban-el-miedo-en-la-estancia/</t>
   </si>
   <si>
-    <t>http://www.qhubo.com/habra-ley-seca-en-3-barrios-de-kennedy/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/polemica-rumba-las-5-m/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/los-chinches-delinquian-en-familia/</t>
+    <t>http://www.qhubo.com/son-justos-los-29-anos-quedo-tranquila/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/a-la-carcel-por-el-asesinato-de-mario/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/compro-un-cuchillo-para-matar-a-su-amigo/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/sepultados-en-una-tumba-de-concreto/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/rodrigo-fue-baleado-carro/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/35-anos-carcel-quemar-amigo/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/dos-balazos-mario-f-parque-2/</t>
   </si>
   <si>
     <t>http://www.qhubo.com/bala-a-mecanico-en-su-local/</t>
@@ -351,88 +919,214 @@
     <t>http://www.qhubo.com/proveedor-armas-crimen/</t>
   </si>
   <si>
-    <t>http://www.qhubo.com/quieren-vetar-paquita-la-del-barrio/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/17470-2/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/extrana-muerte-en-el-anden/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/investigan-muerte-de-mujer-tras-cirugia/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/extrana-muerte-de-bebe-en-soacha/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/luto-en-suba-por-muerte-de-nino-en-accidente/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/la-fiesta-acabo-con-la-muerte-de-fredy/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/extrano-final-tras-muerte-de-su-esposa/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/la-muerte-le-gano-la-batalla-a-alvaro/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/busqueda-de-victor-concluye-en-muerte/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/luto-en-bosa-por-muerte-de-ramon/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/misteriosa-muerte-en-el-hotel/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/enigma-en-la-muerte-de-johanna-marcela/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/la-fiesta-acabo-con-la-muerte-de-kevin/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/discusion-imprudencia-y-muerte-en-la-autonorte/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/estuve-a-su-voluntad-hasta-el-dia-de-su-muerte/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/extrana-muerte-de-lizeth-en-kennedy/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/la-muerte-empacada-en-una-maleta/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/se-encontro-con-la-muerte-en-un-callejon/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/bala-y-muerte-de-estilista/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/inexplicable-muerte-de-monica-en-su-casa/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/garcia-y-suarez-entre-la-vida-y-la-muerte/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/extrana-muerte-de-julian-en-el-cai/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/le-tendio-la-mano-y-le-pago-con-muerte/</t>
-  </si>
-  <si>
-    <t>http://www.qhubo.com/mi-expareja-me-amenazo-de-muerte/</t>
-  </si>
-  <si>
-    <t>homicidios</t>
-  </si>
-  <si>
-    <t>muerte</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>http://www.qhubo.com/capturan-a-dos-malandros-en-balacera/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/atraco-fatal-en-el-asadero/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/atraco-mortal-en-la-orilla-del-rio/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/deportista-asesinado-por-robarle-la-bici/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/cayeron-los-llaveros-la-banda-tenia-azotado-san-victorino/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/vandalos-colapsaron-bogota/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/que-los-ladrones-no-hagan-fiesta-con-su-prima/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/exceso-de-velocidad-acaba-con-jhon/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/crimen-de-fabian-frente-a-su-novia/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/investigador-de-la-sijin-senalado-de-extorsion/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/el-sargento-que-ahora-vende-tintos/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/en-el-dia-de-los-disfraces-cuide-el-doble-a-su-hijo/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/escandalo-sexual-de-curas-colombianos/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/ritual-de-limpieza-acaba-en-abuso-sexual/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/estoy-secuestrado-en-mi-propia-casa/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/una-punalada-asesinan-wilfrido/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/sombra-can-desvela-otoniel/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/dejo-la-comedia/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/hermanos-estepa-heridos-confusos-hechos/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/muerte-gris-la-droga-encendio-alarmas/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/perversion-nieta-lo-mando-la-carcel/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/don-mario-manos-los-gringos/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/orgullosos-este-bombero/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/desnudas-contra-trump/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/rafa-mas-alla-galan/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/transformo-su-vida-para-ayudar-a-otros/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/misterio-tras-hallazgo-la-quebrada/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/extrano-crimen-en-montana-del-sur/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/mataron-oscar-100-mil-pesos/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/ramon-isaza-exjefe-paramilitar-esta-en-libertad/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/barrista-acusado-matar-luisa/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/punal-en-suba-a-jhon-emanuel/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/el-duelo-por-el-honor-y-la-historia/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/tres-disparos-a-harold-desde-la-puerta/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/punalada-letal-pelea-gallos/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/aleman-vino-por-una-mujer-y-se-enamoro-del-arte-local/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/la-italiana-enamoro-medrano/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/aun-corre-peligro/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/matan-a-comerciante-con-silenciador/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/la-tusa-por-sara-y-guarin-los-unio/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/un-show-para-toda-la-familia/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/danielle-cautivo-baile/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/carmenza-una-abuela-joven-talentosa/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/automobilismo-tatiana-cierra-temporada/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/el-bogotano-que-tatuo-a-kate-del-castillo/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/una-dura-para-correr-y-pedalear/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/dolor-en-san-cristobal-por-fernando-gran-obrero/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/hugo-el-inventor-del-futuro/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/es-una-actriz-al-estilo-hollywood/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/en-suba-entona-sus-mejores-canciones/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/candelaria-mujer-entregada-al-servicio/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/el-micro-le-salvo-la-vida-a-brayan/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/talento-de-sobra-es-lo-que-tiene-carlitos/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/edwin-el-leon-que-es-peluquero/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/de/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/angelito-no-soporto-las-quemaduras/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/villarreal-mundialista-sin-equipo/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/talento-colombiano-junto-nicolas-cage/</t>
+  </si>
+  <si>
+    <t>http://www.qhubo.com/amor-se-cometen-locuras/</t>
+  </si>
+  <si>
+    <t>Seguridad bogotá</t>
+  </si>
+  <si>
+    <t>Homicidio bogotá</t>
+  </si>
+  <si>
+    <t>Hurto bogotá</t>
+  </si>
+  <si>
+    <t>Policía de Bogotá</t>
+  </si>
+  <si>
+    <t>Violencia bogotá</t>
+  </si>
+  <si>
+    <t>Asesinato bogotá</t>
+  </si>
+  <si>
+    <t>Matar bogotá</t>
+  </si>
+  <si>
+    <t>Robo bogotá</t>
+  </si>
+  <si>
+    <t>Atraco bogotá</t>
+  </si>
+  <si>
+    <t>Riña bogotá</t>
+  </si>
+  <si>
+    <t>Dar de baja bogotá</t>
   </si>
   <si>
     <t>1</t>
@@ -445,6 +1139,24 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -815,7 +1527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -849,19 +1561,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>103</v>
+        <v>266</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -872,19 +1584,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -895,19 +1607,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -918,19 +1630,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -941,19 +1653,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -964,19 +1676,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -984,22 +1696,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1007,22 +1719,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>104</v>
+        <v>273</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1030,22 +1742,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1053,22 +1765,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>106</v>
+        <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1076,22 +1788,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1099,22 +1811,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1122,22 +1834,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="G14" t="s">
-        <v>140</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1145,22 +1857,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>110</v>
+        <v>279</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1168,22 +1880,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>111</v>
+        <v>280</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="G16" t="s">
-        <v>140</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1191,22 +1903,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>112</v>
+        <v>281</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1214,22 +1926,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="G18" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1237,22 +1949,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1260,22 +1972,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1283,22 +1995,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1306,22 +2018,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>117</v>
+        <v>286</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1329,22 +2041,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1352,22 +2064,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="F24" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1375,22 +2087,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>114</v>
+        <v>289</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1398,22 +2110,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1421,22 +2133,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1444,22 +2156,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1467,22 +2179,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1490,22 +2202,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1513,22 +2225,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="G31" t="s">
-        <v>140</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1536,22 +2248,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>121</v>
+        <v>296</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="G32" t="s">
-        <v>140</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1559,22 +2271,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>122</v>
+        <v>297</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1582,22 +2294,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="G34" t="s">
-        <v>140</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1605,22 +2317,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="G35" t="s">
-        <v>141</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1628,22 +2340,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="G36" t="s">
-        <v>141</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1651,22 +2363,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="F37" t="s">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="G37" t="s">
-        <v>141</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1674,22 +2386,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="G38" t="s">
-        <v>141</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1697,22 +2409,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="G39" t="s">
-        <v>141</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1720,22 +2432,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>361</v>
       </c>
       <c r="G40" t="s">
-        <v>141</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1743,22 +2455,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>130</v>
+        <v>305</v>
       </c>
       <c r="F41" t="s">
-        <v>137</v>
+        <v>361</v>
       </c>
       <c r="G41" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1766,22 +2478,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>214</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="F42" t="s">
-        <v>137</v>
+        <v>361</v>
       </c>
       <c r="G42" t="s">
-        <v>142</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1789,22 +2501,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>132</v>
+        <v>307</v>
       </c>
       <c r="F43" t="s">
-        <v>137</v>
+        <v>361</v>
       </c>
       <c r="G43" t="s">
-        <v>142</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1812,22 +2524,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
+        <v>361</v>
       </c>
       <c r="G44" t="s">
-        <v>142</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1835,22 +2547,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>361</v>
       </c>
       <c r="G45" t="s">
-        <v>142</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1858,22 +2570,1103 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F46" t="s">
+        <v>361</v>
+      </c>
+      <c r="G46" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F47" t="s">
+        <v>361</v>
+      </c>
+      <c r="G47" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F48" t="s">
+        <v>361</v>
+      </c>
+      <c r="G48" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" t="s">
+        <v>221</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F49" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F50" t="s">
+        <v>361</v>
+      </c>
+      <c r="G50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F51" t="s">
+        <v>361</v>
+      </c>
+      <c r="G51" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
+        <v>224</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G52" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F53" t="s">
+        <v>361</v>
+      </c>
+      <c r="G53" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" t="s">
+        <v>226</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F54" t="s">
+        <v>361</v>
+      </c>
+      <c r="G54" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F55" t="s">
+        <v>361</v>
+      </c>
+      <c r="G55" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F56" t="s">
+        <v>361</v>
+      </c>
+      <c r="G56" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F57" t="s">
+        <v>361</v>
+      </c>
+      <c r="G57" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F58" t="s">
+        <v>361</v>
+      </c>
+      <c r="G58" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" t="s">
+        <v>231</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F59" t="s">
+        <v>361</v>
+      </c>
+      <c r="G59" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" t="s">
+        <v>232</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F60" t="s">
+        <v>362</v>
+      </c>
+      <c r="G60" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F61" t="s">
+        <v>362</v>
+      </c>
+      <c r="G61" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F62" t="s">
+        <v>363</v>
+      </c>
+      <c r="G62" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" t="s">
+        <v>235</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F63" t="s">
+        <v>363</v>
+      </c>
+      <c r="G63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F64" t="s">
+        <v>363</v>
+      </c>
+      <c r="G64" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>69</v>
       </c>
-      <c r="D46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F46" t="s">
-        <v>137</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" t="s">
+        <v>237</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F65" t="s">
+        <v>364</v>
+      </c>
+      <c r="G65" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" t="s">
+        <v>238</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F66" t="s">
+        <v>364</v>
+      </c>
+      <c r="G66" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F67" t="s">
+        <v>364</v>
+      </c>
+      <c r="G67" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" t="s">
+        <v>240</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F68" t="s">
+        <v>364</v>
+      </c>
+      <c r="G68" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D69" t="s">
+        <v>241</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F69" t="s">
+        <v>364</v>
+      </c>
+      <c r="G69" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F70" t="s">
+        <v>365</v>
+      </c>
+      <c r="G70" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" t="s">
+        <v>243</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F71" t="s">
+        <v>365</v>
+      </c>
+      <c r="G71" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F72" t="s">
+        <v>365</v>
+      </c>
+      <c r="G72" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F73" t="s">
+        <v>366</v>
+      </c>
+      <c r="G73" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74" t="s">
+        <v>246</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F74" t="s">
+        <v>367</v>
+      </c>
+      <c r="G74" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" t="s">
+        <v>247</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F75" t="s">
+        <v>367</v>
+      </c>
+      <c r="G75" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" t="s">
+        <v>248</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F76" t="s">
+        <v>367</v>
+      </c>
+      <c r="G76" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" t="s">
+        <v>249</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F77" t="s">
+        <v>367</v>
+      </c>
+      <c r="G77" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F78" t="s">
+        <v>367</v>
+      </c>
+      <c r="G78" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" t="s">
+        <v>251</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F79" t="s">
+        <v>368</v>
+      </c>
+      <c r="G79" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" t="s">
+        <v>252</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F80" t="s">
+        <v>368</v>
+      </c>
+      <c r="G80" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" t="s">
+        <v>253</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F81" t="s">
+        <v>368</v>
+      </c>
+      <c r="G81" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" t="s">
+        <v>254</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F82" t="s">
+        <v>368</v>
+      </c>
+      <c r="G82" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" t="s">
+        <v>255</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F83" t="s">
+        <v>368</v>
+      </c>
+      <c r="G83" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" t="s">
+        <v>256</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F84" t="s">
+        <v>368</v>
+      </c>
+      <c r="G84" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" t="s">
+        <v>257</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F85" t="s">
+        <v>368</v>
+      </c>
+      <c r="G85" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" t="s">
+        <v>258</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F86" t="s">
+        <v>368</v>
+      </c>
+      <c r="G86" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" t="s">
+        <v>168</v>
+      </c>
+      <c r="D87" t="s">
+        <v>259</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F87" t="s">
+        <v>368</v>
+      </c>
+      <c r="G87" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" t="s">
+        <v>260</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F88" t="s">
+        <v>368</v>
+      </c>
+      <c r="G88" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F89" t="s">
+        <v>368</v>
+      </c>
+      <c r="G89" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="s">
         <v>142</v>
+      </c>
+      <c r="D90" t="s">
+        <v>262</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F90" t="s">
+        <v>368</v>
+      </c>
+      <c r="G90" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" t="s">
+        <v>171</v>
+      </c>
+      <c r="D91" t="s">
+        <v>263</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F91" t="s">
+        <v>368</v>
+      </c>
+      <c r="G91" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" t="s">
+        <v>264</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F92" t="s">
+        <v>368</v>
+      </c>
+      <c r="G92" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>173</v>
+      </c>
+      <c r="D93" t="s">
+        <v>265</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F93" t="s">
+        <v>368</v>
+      </c>
+      <c r="G93" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -1923,6 +3716,53 @@
     <hyperlink ref="E44" r:id="rId43"/>
     <hyperlink ref="E45" r:id="rId44"/>
     <hyperlink ref="E46" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
+    <hyperlink ref="E48" r:id="rId47"/>
+    <hyperlink ref="E49" r:id="rId48"/>
+    <hyperlink ref="E50" r:id="rId49"/>
+    <hyperlink ref="E51" r:id="rId50"/>
+    <hyperlink ref="E52" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
+    <hyperlink ref="E54" r:id="rId53"/>
+    <hyperlink ref="E55" r:id="rId54"/>
+    <hyperlink ref="E56" r:id="rId55"/>
+    <hyperlink ref="E57" r:id="rId56"/>
+    <hyperlink ref="E58" r:id="rId57"/>
+    <hyperlink ref="E59" r:id="rId58"/>
+    <hyperlink ref="E60" r:id="rId59"/>
+    <hyperlink ref="E61" r:id="rId60"/>
+    <hyperlink ref="E62" r:id="rId61"/>
+    <hyperlink ref="E63" r:id="rId62"/>
+    <hyperlink ref="E64" r:id="rId63"/>
+    <hyperlink ref="E65" r:id="rId64"/>
+    <hyperlink ref="E66" r:id="rId65"/>
+    <hyperlink ref="E67" r:id="rId66"/>
+    <hyperlink ref="E68" r:id="rId67"/>
+    <hyperlink ref="E69" r:id="rId68"/>
+    <hyperlink ref="E70" r:id="rId69"/>
+    <hyperlink ref="E71" r:id="rId70"/>
+    <hyperlink ref="E72" r:id="rId71"/>
+    <hyperlink ref="E73" r:id="rId72"/>
+    <hyperlink ref="E74" r:id="rId73"/>
+    <hyperlink ref="E75" r:id="rId74"/>
+    <hyperlink ref="E76" r:id="rId75"/>
+    <hyperlink ref="E77" r:id="rId76"/>
+    <hyperlink ref="E78" r:id="rId77"/>
+    <hyperlink ref="E79" r:id="rId78"/>
+    <hyperlink ref="E80" r:id="rId79"/>
+    <hyperlink ref="E81" r:id="rId80"/>
+    <hyperlink ref="E82" r:id="rId81"/>
+    <hyperlink ref="E83" r:id="rId82"/>
+    <hyperlink ref="E84" r:id="rId83"/>
+    <hyperlink ref="E85" r:id="rId84"/>
+    <hyperlink ref="E86" r:id="rId85"/>
+    <hyperlink ref="E87" r:id="rId86"/>
+    <hyperlink ref="E88" r:id="rId87"/>
+    <hyperlink ref="E89" r:id="rId88"/>
+    <hyperlink ref="E90" r:id="rId89"/>
+    <hyperlink ref="E91" r:id="rId90"/>
+    <hyperlink ref="E92" r:id="rId91"/>
+    <hyperlink ref="E93" r:id="rId92"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
